--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76ebf6e3f8cd2a19/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiha\2023-Chatbots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{899AB4EA-77FA-48AA-878B-0B676E3298BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914AE544-DAFD-4F85-964F-DB580C6458AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1030" yWindow="0" windowWidth="14400" windowHeight="7270" xr2:uid="{48C3A075-D5D8-47B4-83EE-BD06D41527FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{48C3A075-D5D8-47B4-83EE-BD06D41527FC}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP Gantt chart" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>October</t>
   </si>
@@ -456,18 +456,12 @@
     <t>Take notes during meeting and send to all attendees</t>
   </si>
   <si>
-    <t>Add client key dates to Gantt chart</t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
     <t>Arrange to meet your mentor</t>
   </si>
   <si>
-    <t>Add key dates to your Outlook calendars, Gantt Chart and project descriptions</t>
-  </si>
-  <si>
     <t>Arrange time and place group will work together and how you will communicate</t>
   </si>
   <si>
@@ -486,15 +480,9 @@
     <t>June</t>
   </si>
   <si>
-    <t>Write project overview</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create README </t>
   </si>
   <si>
-    <t>Research project</t>
-  </si>
-  <si>
     <t>Identify stakeholders</t>
   </si>
   <si>
@@ -514,6 +502,36 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Seb</t>
+  </si>
+  <si>
+    <t>Write initial project overview</t>
+  </si>
+  <si>
+    <t>Emir</t>
+  </si>
+  <si>
+    <t>Set up Gantt chart</t>
+  </si>
+  <si>
+    <t>Saihajpreet</t>
+  </si>
+  <si>
+    <t>Research methods to create project</t>
+  </si>
+  <si>
+    <t>Create folder for minutes</t>
+  </si>
+  <si>
+    <t>Agree on license</t>
+  </si>
+  <si>
+    <t>Set up contract</t>
+  </si>
+  <si>
+    <t>Submit ethics approval form</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1058,158 +1076,185 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1217,50 +1262,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1576,648 +1600,648 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB0A0F4-1CC5-46BD-998E-27ABEFFEDB45}">
-  <dimension ref="A1:IT53"/>
+  <dimension ref="A1:IT48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" style="39" customWidth="1"/>
     <col min="2" max="2" width="17.6328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" style="2" customWidth="1"/>
     <col min="4" max="16384" width="3.36328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
     </row>
     <row r="2" spans="1:254" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="71" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="70" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="70" t="s">
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71"/>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="71"/>
-      <c r="BC2" s="71"/>
-      <c r="BD2" s="71"/>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="71"/>
-      <c r="BG2" s="71"/>
-      <c r="BH2" s="71"/>
-      <c r="BI2" s="71"/>
-      <c r="BJ2" s="71"/>
-      <c r="BK2" s="71"/>
-      <c r="BL2" s="71"/>
-      <c r="BM2" s="71"/>
-      <c r="BN2" s="71"/>
-      <c r="BO2" s="71"/>
-      <c r="BP2" s="71"/>
-      <c r="BQ2" s="75"/>
-      <c r="BR2" s="70" t="s">
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="68"/>
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68"/>
+      <c r="BB2" s="68"/>
+      <c r="BC2" s="68"/>
+      <c r="BD2" s="68"/>
+      <c r="BE2" s="68"/>
+      <c r="BF2" s="68"/>
+      <c r="BG2" s="68"/>
+      <c r="BH2" s="68"/>
+      <c r="BI2" s="68"/>
+      <c r="BJ2" s="68"/>
+      <c r="BK2" s="68"/>
+      <c r="BL2" s="68"/>
+      <c r="BM2" s="68"/>
+      <c r="BN2" s="68"/>
+      <c r="BO2" s="68"/>
+      <c r="BP2" s="68"/>
+      <c r="BQ2" s="69"/>
+      <c r="BR2" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="BS2" s="71"/>
-      <c r="BT2" s="71"/>
-      <c r="BU2" s="71"/>
-      <c r="BV2" s="71"/>
-      <c r="BW2" s="71"/>
-      <c r="BX2" s="71"/>
-      <c r="BY2" s="71"/>
-      <c r="BZ2" s="71"/>
-      <c r="CA2" s="71"/>
-      <c r="CB2" s="71"/>
-      <c r="CC2" s="71"/>
-      <c r="CD2" s="71"/>
-      <c r="CE2" s="71"/>
-      <c r="CF2" s="71"/>
-      <c r="CG2" s="71"/>
-      <c r="CH2" s="71"/>
-      <c r="CI2" s="71"/>
-      <c r="CJ2" s="71"/>
-      <c r="CK2" s="71"/>
-      <c r="CL2" s="71"/>
-      <c r="CM2" s="71"/>
-      <c r="CN2" s="71"/>
-      <c r="CO2" s="71"/>
-      <c r="CP2" s="71"/>
-      <c r="CQ2" s="71"/>
-      <c r="CR2" s="71"/>
-      <c r="CS2" s="71"/>
-      <c r="CT2" s="71"/>
-      <c r="CU2" s="71"/>
-      <c r="CV2" s="75"/>
-      <c r="CW2" s="70" t="s">
+      <c r="BS2" s="68"/>
+      <c r="BT2" s="68"/>
+      <c r="BU2" s="68"/>
+      <c r="BV2" s="68"/>
+      <c r="BW2" s="68"/>
+      <c r="BX2" s="68"/>
+      <c r="BY2" s="68"/>
+      <c r="BZ2" s="68"/>
+      <c r="CA2" s="68"/>
+      <c r="CB2" s="68"/>
+      <c r="CC2" s="68"/>
+      <c r="CD2" s="68"/>
+      <c r="CE2" s="68"/>
+      <c r="CF2" s="68"/>
+      <c r="CG2" s="68"/>
+      <c r="CH2" s="68"/>
+      <c r="CI2" s="68"/>
+      <c r="CJ2" s="68"/>
+      <c r="CK2" s="68"/>
+      <c r="CL2" s="68"/>
+      <c r="CM2" s="68"/>
+      <c r="CN2" s="68"/>
+      <c r="CO2" s="68"/>
+      <c r="CP2" s="68"/>
+      <c r="CQ2" s="68"/>
+      <c r="CR2" s="68"/>
+      <c r="CS2" s="68"/>
+      <c r="CT2" s="68"/>
+      <c r="CU2" s="68"/>
+      <c r="CV2" s="69"/>
+      <c r="CW2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="CX2" s="71"/>
-      <c r="CY2" s="71"/>
-      <c r="CZ2" s="71"/>
-      <c r="DA2" s="71"/>
-      <c r="DB2" s="71"/>
-      <c r="DC2" s="71"/>
-      <c r="DD2" s="71"/>
-      <c r="DE2" s="72"/>
-      <c r="DF2" s="72"/>
-      <c r="DG2" s="72"/>
-      <c r="DH2" s="72"/>
-      <c r="DI2" s="72"/>
-      <c r="DJ2" s="72"/>
-      <c r="DK2" s="72"/>
-      <c r="DL2" s="72"/>
-      <c r="DM2" s="72"/>
-      <c r="DN2" s="72"/>
-      <c r="DO2" s="72"/>
-      <c r="DP2" s="72"/>
-      <c r="DQ2" s="72"/>
-      <c r="DR2" s="72"/>
-      <c r="DS2" s="71"/>
-      <c r="DT2" s="71"/>
-      <c r="DU2" s="71"/>
-      <c r="DV2" s="71"/>
-      <c r="DW2" s="71"/>
-      <c r="DX2" s="71"/>
-      <c r="DY2" s="71"/>
-      <c r="DZ2" s="71"/>
-      <c r="EA2" s="75"/>
-      <c r="EB2" s="74" t="s">
+      <c r="CX2" s="68"/>
+      <c r="CY2" s="68"/>
+      <c r="CZ2" s="68"/>
+      <c r="DA2" s="68"/>
+      <c r="DB2" s="68"/>
+      <c r="DC2" s="68"/>
+      <c r="DD2" s="68"/>
+      <c r="DE2" s="74"/>
+      <c r="DF2" s="74"/>
+      <c r="DG2" s="74"/>
+      <c r="DH2" s="74"/>
+      <c r="DI2" s="74"/>
+      <c r="DJ2" s="74"/>
+      <c r="DK2" s="74"/>
+      <c r="DL2" s="74"/>
+      <c r="DM2" s="74"/>
+      <c r="DN2" s="74"/>
+      <c r="DO2" s="74"/>
+      <c r="DP2" s="74"/>
+      <c r="DQ2" s="74"/>
+      <c r="DR2" s="74"/>
+      <c r="DS2" s="68"/>
+      <c r="DT2" s="68"/>
+      <c r="DU2" s="68"/>
+      <c r="DV2" s="68"/>
+      <c r="DW2" s="68"/>
+      <c r="DX2" s="68"/>
+      <c r="DY2" s="68"/>
+      <c r="DZ2" s="68"/>
+      <c r="EA2" s="69"/>
+      <c r="EB2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="EC2" s="72"/>
-      <c r="ED2" s="72"/>
-      <c r="EE2" s="72"/>
-      <c r="EF2" s="72"/>
-      <c r="EG2" s="71"/>
-      <c r="EH2" s="71"/>
-      <c r="EI2" s="71"/>
-      <c r="EJ2" s="71"/>
-      <c r="EK2" s="71"/>
-      <c r="EL2" s="71"/>
-      <c r="EM2" s="71"/>
-      <c r="EN2" s="71"/>
-      <c r="EO2" s="71"/>
-      <c r="EP2" s="71"/>
-      <c r="EQ2" s="71"/>
-      <c r="ER2" s="71"/>
-      <c r="ES2" s="71"/>
-      <c r="ET2" s="71"/>
-      <c r="EU2" s="71"/>
-      <c r="EV2" s="71"/>
-      <c r="EW2" s="71"/>
-      <c r="EX2" s="71"/>
-      <c r="EY2" s="71"/>
-      <c r="EZ2" s="71"/>
-      <c r="FA2" s="71"/>
-      <c r="FB2" s="71"/>
-      <c r="FC2" s="75"/>
-      <c r="FD2" s="74" t="s">
+      <c r="EC2" s="74"/>
+      <c r="ED2" s="74"/>
+      <c r="EE2" s="74"/>
+      <c r="EF2" s="74"/>
+      <c r="EG2" s="68"/>
+      <c r="EH2" s="68"/>
+      <c r="EI2" s="68"/>
+      <c r="EJ2" s="68"/>
+      <c r="EK2" s="68"/>
+      <c r="EL2" s="68"/>
+      <c r="EM2" s="68"/>
+      <c r="EN2" s="68"/>
+      <c r="EO2" s="68"/>
+      <c r="EP2" s="68"/>
+      <c r="EQ2" s="68"/>
+      <c r="ER2" s="68"/>
+      <c r="ES2" s="68"/>
+      <c r="ET2" s="68"/>
+      <c r="EU2" s="68"/>
+      <c r="EV2" s="68"/>
+      <c r="EW2" s="68"/>
+      <c r="EX2" s="68"/>
+      <c r="EY2" s="68"/>
+      <c r="EZ2" s="68"/>
+      <c r="FA2" s="68"/>
+      <c r="FB2" s="68"/>
+      <c r="FC2" s="69"/>
+      <c r="FD2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="FE2" s="72"/>
-      <c r="FF2" s="72"/>
-      <c r="FG2" s="72"/>
-      <c r="FH2" s="72"/>
-      <c r="FI2" s="71"/>
-      <c r="FJ2" s="71"/>
-      <c r="FK2" s="71"/>
-      <c r="FL2" s="71"/>
-      <c r="FM2" s="71"/>
-      <c r="FN2" s="71"/>
-      <c r="FO2" s="71"/>
-      <c r="FP2" s="71"/>
-      <c r="FQ2" s="71"/>
-      <c r="FR2" s="71"/>
-      <c r="FS2" s="71"/>
-      <c r="FT2" s="71"/>
-      <c r="FU2" s="71"/>
-      <c r="FV2" s="71"/>
-      <c r="FW2" s="71"/>
-      <c r="FX2" s="71"/>
-      <c r="FY2" s="71"/>
-      <c r="FZ2" s="71"/>
-      <c r="GA2" s="71"/>
-      <c r="GB2" s="71"/>
-      <c r="GC2" s="71"/>
-      <c r="GD2" s="71"/>
-      <c r="GE2" s="71"/>
-      <c r="GF2" s="71"/>
-      <c r="GG2" s="71"/>
-      <c r="GH2" s="75"/>
-      <c r="GI2" s="70" t="s">
+      <c r="FE2" s="74"/>
+      <c r="FF2" s="74"/>
+      <c r="FG2" s="74"/>
+      <c r="FH2" s="74"/>
+      <c r="FI2" s="68"/>
+      <c r="FJ2" s="68"/>
+      <c r="FK2" s="68"/>
+      <c r="FL2" s="68"/>
+      <c r="FM2" s="68"/>
+      <c r="FN2" s="68"/>
+      <c r="FO2" s="68"/>
+      <c r="FP2" s="68"/>
+      <c r="FQ2" s="68"/>
+      <c r="FR2" s="68"/>
+      <c r="FS2" s="68"/>
+      <c r="FT2" s="68"/>
+      <c r="FU2" s="68"/>
+      <c r="FV2" s="68"/>
+      <c r="FW2" s="68"/>
+      <c r="FX2" s="68"/>
+      <c r="FY2" s="68"/>
+      <c r="FZ2" s="68"/>
+      <c r="GA2" s="68"/>
+      <c r="GB2" s="68"/>
+      <c r="GC2" s="68"/>
+      <c r="GD2" s="68"/>
+      <c r="GE2" s="68"/>
+      <c r="GF2" s="68"/>
+      <c r="GG2" s="68"/>
+      <c r="GH2" s="69"/>
+      <c r="GI2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="GJ2" s="71"/>
-      <c r="GK2" s="71"/>
-      <c r="GL2" s="71"/>
-      <c r="GM2" s="71"/>
-      <c r="GN2" s="71"/>
-      <c r="GO2" s="71"/>
-      <c r="GP2" s="71"/>
-      <c r="GQ2" s="71"/>
-      <c r="GR2" s="71"/>
-      <c r="GS2" s="71"/>
-      <c r="GT2" s="71"/>
-      <c r="GU2" s="71"/>
-      <c r="GV2" s="71"/>
-      <c r="GW2" s="71"/>
-      <c r="GX2" s="71"/>
-      <c r="GY2" s="71"/>
-      <c r="GZ2" s="71"/>
-      <c r="HA2" s="71"/>
-      <c r="HB2" s="71"/>
-      <c r="HC2" s="71"/>
-      <c r="HD2" s="71"/>
-      <c r="HE2" s="71"/>
-      <c r="HF2" s="71"/>
-      <c r="HG2" s="71"/>
-      <c r="HH2" s="71"/>
-      <c r="HI2" s="71"/>
-      <c r="HJ2" s="71"/>
-      <c r="HK2" s="71"/>
-      <c r="HL2" s="75"/>
-      <c r="HM2" s="70" t="s">
+      <c r="GJ2" s="68"/>
+      <c r="GK2" s="68"/>
+      <c r="GL2" s="68"/>
+      <c r="GM2" s="68"/>
+      <c r="GN2" s="68"/>
+      <c r="GO2" s="68"/>
+      <c r="GP2" s="68"/>
+      <c r="GQ2" s="68"/>
+      <c r="GR2" s="68"/>
+      <c r="GS2" s="68"/>
+      <c r="GT2" s="68"/>
+      <c r="GU2" s="68"/>
+      <c r="GV2" s="68"/>
+      <c r="GW2" s="68"/>
+      <c r="GX2" s="68"/>
+      <c r="GY2" s="68"/>
+      <c r="GZ2" s="68"/>
+      <c r="HA2" s="68"/>
+      <c r="HB2" s="68"/>
+      <c r="HC2" s="68"/>
+      <c r="HD2" s="68"/>
+      <c r="HE2" s="68"/>
+      <c r="HF2" s="68"/>
+      <c r="HG2" s="68"/>
+      <c r="HH2" s="68"/>
+      <c r="HI2" s="68"/>
+      <c r="HJ2" s="68"/>
+      <c r="HK2" s="68"/>
+      <c r="HL2" s="69"/>
+      <c r="HM2" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="HN2" s="71"/>
-      <c r="HO2" s="71"/>
-      <c r="HP2" s="71"/>
-      <c r="HQ2" s="71"/>
-      <c r="HR2" s="71"/>
-      <c r="HS2" s="71"/>
-      <c r="HT2" s="71"/>
-      <c r="HU2" s="71"/>
-      <c r="HV2" s="71"/>
-      <c r="HW2" s="71"/>
-      <c r="HX2" s="71"/>
-      <c r="HY2" s="71"/>
-      <c r="HZ2" s="71"/>
-      <c r="IA2" s="72"/>
-      <c r="IB2" s="72"/>
-      <c r="IC2" s="72"/>
-      <c r="ID2" s="72"/>
-      <c r="IE2" s="72"/>
-      <c r="IF2" s="72"/>
-      <c r="IG2" s="72"/>
-      <c r="IH2" s="72"/>
-      <c r="II2" s="72"/>
-      <c r="IJ2" s="72"/>
-      <c r="IK2" s="72"/>
-      <c r="IL2" s="72"/>
-      <c r="IM2" s="72"/>
-      <c r="IN2" s="72"/>
-      <c r="IO2" s="72"/>
-      <c r="IP2" s="72"/>
-      <c r="IQ2" s="73"/>
-      <c r="IR2" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="IS2" s="72"/>
-      <c r="IT2" s="73"/>
+      <c r="HN2" s="68"/>
+      <c r="HO2" s="68"/>
+      <c r="HP2" s="68"/>
+      <c r="HQ2" s="68"/>
+      <c r="HR2" s="68"/>
+      <c r="HS2" s="68"/>
+      <c r="HT2" s="68"/>
+      <c r="HU2" s="68"/>
+      <c r="HV2" s="68"/>
+      <c r="HW2" s="68"/>
+      <c r="HX2" s="68"/>
+      <c r="HY2" s="68"/>
+      <c r="HZ2" s="68"/>
+      <c r="IA2" s="74"/>
+      <c r="IB2" s="74"/>
+      <c r="IC2" s="74"/>
+      <c r="ID2" s="74"/>
+      <c r="IE2" s="74"/>
+      <c r="IF2" s="74"/>
+      <c r="IG2" s="74"/>
+      <c r="IH2" s="74"/>
+      <c r="II2" s="74"/>
+      <c r="IJ2" s="74"/>
+      <c r="IK2" s="74"/>
+      <c r="IL2" s="74"/>
+      <c r="IM2" s="74"/>
+      <c r="IN2" s="74"/>
+      <c r="IO2" s="74"/>
+      <c r="IP2" s="74"/>
+      <c r="IQ2" s="75"/>
+      <c r="IR2" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="IS2" s="74"/>
+      <c r="IT2" s="75"/>
     </row>
     <row r="3" spans="1:254" s="13" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="72" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74" t="s">
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="74" t="s">
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="74" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="74" t="s">
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="74" t="s">
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="74"/>
+      <c r="AL3" s="75"/>
+      <c r="AM3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="74" t="s">
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="75"/>
+      <c r="AT3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="74" t="s">
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="75"/>
+      <c r="BA3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72"/>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="74" t="s">
+      <c r="BB3" s="74"/>
+      <c r="BC3" s="74"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="74"/>
+      <c r="BF3" s="74"/>
+      <c r="BG3" s="75"/>
+      <c r="BH3" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="BI3" s="72"/>
-      <c r="BJ3" s="72"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="72"/>
-      <c r="BM3" s="72"/>
-      <c r="BN3" s="73"/>
-      <c r="BO3" s="74" t="s">
+      <c r="BI3" s="74"/>
+      <c r="BJ3" s="74"/>
+      <c r="BK3" s="74"/>
+      <c r="BL3" s="74"/>
+      <c r="BM3" s="74"/>
+      <c r="BN3" s="75"/>
+      <c r="BO3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="BP3" s="72"/>
-      <c r="BQ3" s="72"/>
-      <c r="BR3" s="72"/>
-      <c r="BS3" s="72"/>
-      <c r="BT3" s="72"/>
-      <c r="BU3" s="73"/>
-      <c r="BV3" s="74" t="s">
+      <c r="BP3" s="74"/>
+      <c r="BQ3" s="74"/>
+      <c r="BR3" s="74"/>
+      <c r="BS3" s="74"/>
+      <c r="BT3" s="74"/>
+      <c r="BU3" s="75"/>
+      <c r="BV3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="BW3" s="72"/>
-      <c r="BX3" s="72"/>
-      <c r="BY3" s="72"/>
-      <c r="BZ3" s="72"/>
-      <c r="CA3" s="72"/>
-      <c r="CB3" s="73"/>
-      <c r="CC3" s="74" t="s">
+      <c r="BW3" s="74"/>
+      <c r="BX3" s="74"/>
+      <c r="BY3" s="74"/>
+      <c r="BZ3" s="74"/>
+      <c r="CA3" s="74"/>
+      <c r="CB3" s="75"/>
+      <c r="CC3" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="CD3" s="72"/>
-      <c r="CE3" s="72"/>
-      <c r="CF3" s="72"/>
-      <c r="CG3" s="72"/>
-      <c r="CH3" s="72"/>
-      <c r="CI3" s="73"/>
-      <c r="CJ3" s="70" t="s">
+      <c r="CD3" s="74"/>
+      <c r="CE3" s="74"/>
+      <c r="CF3" s="74"/>
+      <c r="CG3" s="74"/>
+      <c r="CH3" s="74"/>
+      <c r="CI3" s="75"/>
+      <c r="CJ3" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="CK3" s="71"/>
-      <c r="CL3" s="71"/>
-      <c r="CM3" s="71"/>
-      <c r="CN3" s="71"/>
-      <c r="CO3" s="71"/>
-      <c r="CP3" s="75"/>
-      <c r="CQ3" s="70" t="s">
+      <c r="CK3" s="68"/>
+      <c r="CL3" s="68"/>
+      <c r="CM3" s="68"/>
+      <c r="CN3" s="68"/>
+      <c r="CO3" s="68"/>
+      <c r="CP3" s="69"/>
+      <c r="CQ3" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="CR3" s="71"/>
-      <c r="CS3" s="71"/>
-      <c r="CT3" s="71"/>
-      <c r="CU3" s="71"/>
-      <c r="CV3" s="71"/>
-      <c r="CW3" s="75"/>
-      <c r="CX3" s="70" t="s">
+      <c r="CR3" s="68"/>
+      <c r="CS3" s="68"/>
+      <c r="CT3" s="68"/>
+      <c r="CU3" s="68"/>
+      <c r="CV3" s="68"/>
+      <c r="CW3" s="69"/>
+      <c r="CX3" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="CY3" s="71"/>
-      <c r="CZ3" s="71"/>
-      <c r="DA3" s="71"/>
-      <c r="DB3" s="71"/>
-      <c r="DC3" s="71"/>
-      <c r="DD3" s="71"/>
-      <c r="DE3" s="67" t="s">
+      <c r="CY3" s="68"/>
+      <c r="CZ3" s="68"/>
+      <c r="DA3" s="68"/>
+      <c r="DB3" s="68"/>
+      <c r="DC3" s="68"/>
+      <c r="DD3" s="68"/>
+      <c r="DE3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="DF3" s="68"/>
-      <c r="DG3" s="68"/>
-      <c r="DH3" s="68"/>
-      <c r="DI3" s="68"/>
-      <c r="DJ3" s="68"/>
-      <c r="DK3" s="82"/>
-      <c r="DL3" s="83" t="s">
+      <c r="DF3" s="77"/>
+      <c r="DG3" s="77"/>
+      <c r="DH3" s="77"/>
+      <c r="DI3" s="77"/>
+      <c r="DJ3" s="77"/>
+      <c r="DK3" s="78"/>
+      <c r="DL3" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="DM3" s="68"/>
-      <c r="DN3" s="68"/>
-      <c r="DO3" s="68"/>
-      <c r="DP3" s="68"/>
-      <c r="DQ3" s="68"/>
-      <c r="DR3" s="69"/>
-      <c r="DS3" s="71" t="s">
+      <c r="DM3" s="77"/>
+      <c r="DN3" s="77"/>
+      <c r="DO3" s="77"/>
+      <c r="DP3" s="77"/>
+      <c r="DQ3" s="77"/>
+      <c r="DR3" s="80"/>
+      <c r="DS3" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="DT3" s="71"/>
-      <c r="DU3" s="71"/>
-      <c r="DV3" s="71"/>
-      <c r="DW3" s="71"/>
-      <c r="DX3" s="71"/>
-      <c r="DY3" s="75"/>
-      <c r="DZ3" s="70" t="s">
+      <c r="DT3" s="68"/>
+      <c r="DU3" s="68"/>
+      <c r="DV3" s="68"/>
+      <c r="DW3" s="68"/>
+      <c r="DX3" s="68"/>
+      <c r="DY3" s="69"/>
+      <c r="DZ3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="EA3" s="71"/>
-      <c r="EB3" s="71"/>
-      <c r="EC3" s="71"/>
-      <c r="ED3" s="71"/>
-      <c r="EE3" s="71"/>
-      <c r="EF3" s="75"/>
-      <c r="EG3" s="70" t="s">
+      <c r="EA3" s="68"/>
+      <c r="EB3" s="68"/>
+      <c r="EC3" s="68"/>
+      <c r="ED3" s="68"/>
+      <c r="EE3" s="68"/>
+      <c r="EF3" s="69"/>
+      <c r="EG3" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="EH3" s="71"/>
-      <c r="EI3" s="71"/>
-      <c r="EJ3" s="71"/>
-      <c r="EK3" s="71"/>
-      <c r="EL3" s="71"/>
-      <c r="EM3" s="75"/>
-      <c r="EN3" s="70" t="s">
+      <c r="EH3" s="68"/>
+      <c r="EI3" s="68"/>
+      <c r="EJ3" s="68"/>
+      <c r="EK3" s="68"/>
+      <c r="EL3" s="68"/>
+      <c r="EM3" s="69"/>
+      <c r="EN3" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="EO3" s="71"/>
-      <c r="EP3" s="71"/>
-      <c r="EQ3" s="71"/>
-      <c r="ER3" s="71"/>
-      <c r="ES3" s="71"/>
-      <c r="ET3" s="75"/>
-      <c r="EU3" s="70" t="s">
+      <c r="EO3" s="68"/>
+      <c r="EP3" s="68"/>
+      <c r="EQ3" s="68"/>
+      <c r="ER3" s="68"/>
+      <c r="ES3" s="68"/>
+      <c r="ET3" s="69"/>
+      <c r="EU3" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="EV3" s="71"/>
-      <c r="EW3" s="71"/>
-      <c r="EX3" s="71"/>
-      <c r="EY3" s="71"/>
-      <c r="EZ3" s="71"/>
-      <c r="FA3" s="75"/>
-      <c r="FB3" s="76" t="s">
+      <c r="EV3" s="68"/>
+      <c r="EW3" s="68"/>
+      <c r="EX3" s="68"/>
+      <c r="EY3" s="68"/>
+      <c r="EZ3" s="68"/>
+      <c r="FA3" s="69"/>
+      <c r="FB3" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="FC3" s="77"/>
-      <c r="FD3" s="72"/>
-      <c r="FE3" s="72"/>
-      <c r="FF3" s="72"/>
-      <c r="FG3" s="72"/>
-      <c r="FH3" s="73"/>
-      <c r="FI3" s="74" t="s">
+      <c r="FC3" s="71"/>
+      <c r="FD3" s="74"/>
+      <c r="FE3" s="74"/>
+      <c r="FF3" s="74"/>
+      <c r="FG3" s="74"/>
+      <c r="FH3" s="75"/>
+      <c r="FI3" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="FJ3" s="72"/>
-      <c r="FK3" s="72"/>
-      <c r="FL3" s="72"/>
-      <c r="FM3" s="72"/>
-      <c r="FN3" s="72"/>
-      <c r="FO3" s="73"/>
-      <c r="FP3" s="74" t="s">
+      <c r="FJ3" s="74"/>
+      <c r="FK3" s="74"/>
+      <c r="FL3" s="74"/>
+      <c r="FM3" s="74"/>
+      <c r="FN3" s="74"/>
+      <c r="FO3" s="75"/>
+      <c r="FP3" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="FQ3" s="72"/>
-      <c r="FR3" s="72"/>
-      <c r="FS3" s="72"/>
-      <c r="FT3" s="72"/>
-      <c r="FU3" s="72"/>
-      <c r="FV3" s="73"/>
-      <c r="FW3" s="74" t="s">
+      <c r="FQ3" s="74"/>
+      <c r="FR3" s="74"/>
+      <c r="FS3" s="74"/>
+      <c r="FT3" s="74"/>
+      <c r="FU3" s="74"/>
+      <c r="FV3" s="75"/>
+      <c r="FW3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="FX3" s="72"/>
-      <c r="FY3" s="72"/>
-      <c r="FZ3" s="72"/>
-      <c r="GA3" s="72"/>
-      <c r="GB3" s="72"/>
-      <c r="GC3" s="73"/>
-      <c r="GD3" s="78" t="s">
+      <c r="FX3" s="74"/>
+      <c r="FY3" s="74"/>
+      <c r="FZ3" s="74"/>
+      <c r="GA3" s="74"/>
+      <c r="GB3" s="74"/>
+      <c r="GC3" s="75"/>
+      <c r="GD3" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="GE3" s="79"/>
-      <c r="GF3" s="79"/>
-      <c r="GG3" s="79"/>
-      <c r="GH3" s="79"/>
-      <c r="GI3" s="71"/>
-      <c r="GJ3" s="75"/>
-      <c r="GK3" s="70" t="s">
+      <c r="GE3" s="65"/>
+      <c r="GF3" s="65"/>
+      <c r="GG3" s="65"/>
+      <c r="GH3" s="65"/>
+      <c r="GI3" s="68"/>
+      <c r="GJ3" s="69"/>
+      <c r="GK3" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="GL3" s="71"/>
-      <c r="GM3" s="71"/>
-      <c r="GN3" s="71"/>
-      <c r="GO3" s="71"/>
-      <c r="GP3" s="71"/>
-      <c r="GQ3" s="75"/>
-      <c r="GR3" s="70" t="s">
+      <c r="GL3" s="68"/>
+      <c r="GM3" s="68"/>
+      <c r="GN3" s="68"/>
+      <c r="GO3" s="68"/>
+      <c r="GP3" s="68"/>
+      <c r="GQ3" s="69"/>
+      <c r="GR3" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="GS3" s="71"/>
-      <c r="GT3" s="71"/>
-      <c r="GU3" s="71"/>
-      <c r="GV3" s="71"/>
-      <c r="GW3" s="71"/>
-      <c r="GX3" s="75"/>
-      <c r="GY3" s="74" t="s">
+      <c r="GS3" s="68"/>
+      <c r="GT3" s="68"/>
+      <c r="GU3" s="68"/>
+      <c r="GV3" s="68"/>
+      <c r="GW3" s="68"/>
+      <c r="GX3" s="69"/>
+      <c r="GY3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="GZ3" s="72"/>
-      <c r="HA3" s="72"/>
-      <c r="HB3" s="72"/>
-      <c r="HC3" s="72"/>
-      <c r="HD3" s="72"/>
-      <c r="HE3" s="73"/>
-      <c r="HF3" s="74" t="s">
+      <c r="GZ3" s="74"/>
+      <c r="HA3" s="74"/>
+      <c r="HB3" s="74"/>
+      <c r="HC3" s="74"/>
+      <c r="HD3" s="74"/>
+      <c r="HE3" s="75"/>
+      <c r="HF3" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="HG3" s="72"/>
-      <c r="HH3" s="72"/>
-      <c r="HI3" s="72"/>
-      <c r="HJ3" s="72"/>
-      <c r="HK3" s="72"/>
-      <c r="HL3" s="73"/>
-      <c r="HM3" s="76" t="s">
+      <c r="HG3" s="74"/>
+      <c r="HH3" s="74"/>
+      <c r="HI3" s="74"/>
+      <c r="HJ3" s="74"/>
+      <c r="HK3" s="74"/>
+      <c r="HL3" s="75"/>
+      <c r="HM3" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="HN3" s="77"/>
-      <c r="HO3" s="77"/>
-      <c r="HP3" s="77"/>
-      <c r="HQ3" s="77"/>
-      <c r="HR3" s="77"/>
-      <c r="HS3" s="81"/>
-      <c r="HT3" s="55" t="s">
+      <c r="HN3" s="71"/>
+      <c r="HO3" s="71"/>
+      <c r="HP3" s="71"/>
+      <c r="HQ3" s="71"/>
+      <c r="HR3" s="71"/>
+      <c r="HS3" s="72"/>
+      <c r="HT3" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="IA3" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="IB3" s="77"/>
+      <c r="IC3" s="77"/>
+      <c r="ID3" s="77"/>
+      <c r="IE3" s="77"/>
+      <c r="IF3" s="77"/>
+      <c r="IG3" s="80"/>
+      <c r="IH3" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="IA3" s="67" t="s">
+      <c r="II3" s="55"/>
+      <c r="IJ3" s="55"/>
+      <c r="IK3" s="55"/>
+      <c r="IL3" s="55"/>
+      <c r="IM3" s="56"/>
+      <c r="IN3" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="IB3" s="68"/>
-      <c r="IC3" s="68"/>
-      <c r="ID3" s="68"/>
-      <c r="IE3" s="68"/>
-      <c r="IF3" s="68"/>
-      <c r="IG3" s="69"/>
-      <c r="IH3" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="II3" s="57"/>
-      <c r="IJ3" s="57"/>
-      <c r="IK3" s="57"/>
-      <c r="IL3" s="57"/>
-      <c r="IM3" s="58"/>
-      <c r="IN3" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="IO3" s="68"/>
-      <c r="IP3" s="68"/>
-      <c r="IQ3" s="68"/>
-      <c r="IR3" s="68"/>
-      <c r="IS3" s="68"/>
-      <c r="IT3" s="69"/>
+      <c r="IO3" s="77"/>
+      <c r="IP3" s="77"/>
+      <c r="IQ3" s="77"/>
+      <c r="IR3" s="77"/>
+      <c r="IS3" s="77"/>
+      <c r="IT3" s="80"/>
     </row>
     <row r="4" spans="1:254" s="15" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="38"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="12">
         <v>26</v>
       </c>
@@ -2245,7 +2269,7 @@
       <c r="L4" s="9">
         <v>4</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>5</v>
       </c>
       <c r="N4" s="9">
@@ -2386,37 +2410,37 @@
       <c r="BG4" s="9">
         <v>20</v>
       </c>
-      <c r="BH4" s="43">
+      <c r="BH4" s="41">
         <v>21</v>
       </c>
-      <c r="BI4" s="43">
+      <c r="BI4" s="41">
         <v>22</v>
       </c>
-      <c r="BJ4" s="43">
+      <c r="BJ4" s="41">
         <v>23</v>
       </c>
-      <c r="BK4" s="43">
+      <c r="BK4" s="41">
         <v>24</v>
       </c>
-      <c r="BL4" s="43">
+      <c r="BL4" s="41">
         <v>25</v>
       </c>
-      <c r="BM4" s="43">
+      <c r="BM4" s="41">
         <v>26</v>
       </c>
-      <c r="BN4" s="43">
+      <c r="BN4" s="41">
         <v>27</v>
       </c>
-      <c r="BO4" s="43">
+      <c r="BO4" s="41">
         <v>28</v>
       </c>
-      <c r="BP4" s="43">
+      <c r="BP4" s="41">
         <v>29</v>
       </c>
-      <c r="BQ4" s="50">
+      <c r="BQ4" s="48">
         <v>30</v>
       </c>
-      <c r="BR4" s="29">
+      <c r="BR4" s="28">
         <v>1</v>
       </c>
       <c r="BS4" s="12">
@@ -2428,7 +2452,7 @@
       <c r="BU4" s="9">
         <v>4</v>
       </c>
-      <c r="BV4" s="43">
+      <c r="BV4" s="41">
         <v>5</v>
       </c>
       <c r="BW4" s="9">
@@ -2533,7 +2557,7 @@
       <c r="DD4" s="10">
         <v>8</v>
       </c>
-      <c r="DE4" s="18">
+      <c r="DE4" s="17">
         <v>9</v>
       </c>
       <c r="DF4" s="9">
@@ -2572,7 +2596,7 @@
       <c r="DQ4" s="9">
         <v>21</v>
       </c>
-      <c r="DR4" s="19">
+      <c r="DR4" s="18">
         <v>22</v>
       </c>
       <c r="DS4" s="12">
@@ -2644,7 +2668,7 @@
       <c r="EO4" s="9">
         <v>14</v>
       </c>
-      <c r="EP4" s="43">
+      <c r="EP4" s="41">
         <v>15</v>
       </c>
       <c r="EQ4" s="9">
@@ -2722,46 +2746,46 @@
       <c r="FO4" s="9">
         <v>12</v>
       </c>
-      <c r="FP4" s="43">
+      <c r="FP4" s="41">
         <v>13</v>
       </c>
-      <c r="FQ4" s="43">
+      <c r="FQ4" s="41">
         <v>14</v>
       </c>
-      <c r="FR4" s="43">
+      <c r="FR4" s="41">
         <v>15</v>
       </c>
-      <c r="FS4" s="43">
+      <c r="FS4" s="41">
         <v>16</v>
       </c>
-      <c r="FT4" s="43">
+      <c r="FT4" s="41">
         <v>17</v>
       </c>
-      <c r="FU4" s="43">
+      <c r="FU4" s="41">
         <v>18</v>
       </c>
-      <c r="FV4" s="43">
+      <c r="FV4" s="41">
         <v>19</v>
       </c>
-      <c r="FW4" s="43">
+      <c r="FW4" s="41">
         <v>20</v>
       </c>
-      <c r="FX4" s="43">
+      <c r="FX4" s="41">
         <v>21</v>
       </c>
-      <c r="FY4" s="43">
+      <c r="FY4" s="41">
         <v>22</v>
       </c>
-      <c r="FZ4" s="43">
+      <c r="FZ4" s="41">
         <v>23</v>
       </c>
-      <c r="GA4" s="43">
+      <c r="GA4" s="41">
         <v>24</v>
       </c>
-      <c r="GB4" s="43">
+      <c r="GB4" s="41">
         <v>25</v>
       </c>
-      <c r="GC4" s="43">
+      <c r="GC4" s="41">
         <v>26</v>
       </c>
       <c r="GD4" s="9">
@@ -2869,7 +2893,7 @@
       <c r="HL4" s="9">
         <v>30</v>
       </c>
-      <c r="HM4" s="43">
+      <c r="HM4" s="41">
         <v>1</v>
       </c>
       <c r="HN4" s="9">
@@ -2878,13 +2902,13 @@
       <c r="HO4" s="10">
         <v>3</v>
       </c>
-      <c r="HP4" s="29">
+      <c r="HP4" s="28">
         <v>4</v>
       </c>
       <c r="HQ4" s="11">
         <v>5</v>
       </c>
-      <c r="HR4" s="29">
+      <c r="HR4" s="28">
         <v>6</v>
       </c>
       <c r="HS4" s="12">
@@ -2911,7 +2935,7 @@
       <c r="HZ4" s="10">
         <v>14</v>
       </c>
-      <c r="IA4" s="18">
+      <c r="IA4" s="17">
         <v>15</v>
       </c>
       <c r="IB4" s="11">
@@ -2929,10 +2953,10 @@
       <c r="IF4" s="11">
         <v>20</v>
       </c>
-      <c r="IG4" s="54">
+      <c r="IG4" s="52">
         <v>21</v>
       </c>
-      <c r="IH4" s="18">
+      <c r="IH4" s="17">
         <v>22</v>
       </c>
       <c r="II4" s="9">
@@ -2950,7 +2974,7 @@
       <c r="IM4" s="10">
         <v>27</v>
       </c>
-      <c r="IN4" s="18">
+      <c r="IN4" s="17">
         <v>28</v>
       </c>
       <c r="IO4" s="9">
@@ -2968,217 +2992,229 @@
       <c r="IS4" s="9">
         <v>2</v>
       </c>
-      <c r="IT4" s="19">
+      <c r="IT4" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:254" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="40"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="J5" s="17"/>
+      <c r="A5" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="16"/>
       <c r="K5" s="14"/>
-      <c r="M5" s="44"/>
-      <c r="Q5" s="17"/>
+      <c r="M5" s="42"/>
+      <c r="Q5" s="16"/>
       <c r="R5" s="14"/>
-      <c r="X5" s="17"/>
+      <c r="X5" s="16"/>
       <c r="Y5" s="14"/>
-      <c r="AE5" s="17"/>
+      <c r="AE5" s="16"/>
       <c r="AF5" s="14"/>
-      <c r="AL5" s="17"/>
+      <c r="AL5" s="16"/>
       <c r="AM5" s="14"/>
-      <c r="AS5" s="17"/>
+      <c r="AS5" s="16"/>
       <c r="AT5" s="14"/>
-      <c r="AZ5" s="17"/>
+      <c r="AZ5" s="16"/>
       <c r="BA5" s="14"/>
-      <c r="BG5" s="17"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="44"/>
-      <c r="BJ5" s="44"/>
-      <c r="BK5" s="44"/>
-      <c r="BL5" s="44"/>
-      <c r="BM5" s="44"/>
-      <c r="BN5" s="51"/>
-      <c r="BO5" s="47"/>
-      <c r="BP5" s="44"/>
-      <c r="BQ5" s="44"/>
-      <c r="BR5" s="30"/>
-      <c r="BU5" s="17"/>
-      <c r="BV5" s="47"/>
-      <c r="CB5" s="17"/>
+      <c r="BG5" s="16"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="42"/>
+      <c r="BM5" s="42"/>
+      <c r="BN5" s="49"/>
+      <c r="BO5" s="45"/>
+      <c r="BP5" s="42"/>
+      <c r="BQ5" s="42"/>
+      <c r="BR5" s="29"/>
+      <c r="BU5" s="16"/>
+      <c r="BV5" s="45"/>
+      <c r="CB5" s="16"/>
       <c r="CC5" s="14"/>
-      <c r="CI5" s="17"/>
+      <c r="CI5" s="16"/>
       <c r="CJ5" s="14"/>
-      <c r="CP5" s="17"/>
+      <c r="CP5" s="16"/>
       <c r="CQ5" s="14"/>
-      <c r="CW5" s="17"/>
+      <c r="CW5" s="16"/>
       <c r="CX5" s="14"/>
-      <c r="DE5" s="20"/>
-      <c r="DK5" s="17"/>
+      <c r="DE5" s="19"/>
+      <c r="DK5" s="16"/>
       <c r="DL5" s="14"/>
-      <c r="DR5" s="21"/>
-      <c r="DY5" s="17"/>
+      <c r="DR5" s="20"/>
+      <c r="DY5" s="16"/>
       <c r="DZ5" s="14"/>
-      <c r="EF5" s="17"/>
+      <c r="EF5" s="16"/>
       <c r="EG5" s="14"/>
-      <c r="EM5" s="17"/>
+      <c r="EM5" s="16"/>
       <c r="EN5" s="14"/>
-      <c r="EP5" s="44"/>
-      <c r="ET5" s="17"/>
+      <c r="EP5" s="42"/>
+      <c r="ET5" s="16"/>
       <c r="EU5" s="14"/>
-      <c r="FA5" s="17"/>
+      <c r="FA5" s="16"/>
       <c r="FB5" s="14"/>
-      <c r="FH5" s="17"/>
+      <c r="FH5" s="16"/>
       <c r="FI5" s="14"/>
-      <c r="FO5" s="17"/>
-      <c r="FP5" s="47"/>
-      <c r="FQ5" s="44"/>
-      <c r="FR5" s="44"/>
-      <c r="FS5" s="44"/>
-      <c r="FT5" s="44"/>
-      <c r="FU5" s="44"/>
-      <c r="FV5" s="51"/>
-      <c r="FW5" s="47"/>
-      <c r="FX5" s="44"/>
-      <c r="FY5" s="44"/>
-      <c r="FZ5" s="44"/>
-      <c r="GA5" s="44"/>
-      <c r="GB5" s="44"/>
-      <c r="GC5" s="51"/>
+      <c r="FO5" s="16"/>
+      <c r="FP5" s="45"/>
+      <c r="FQ5" s="42"/>
+      <c r="FR5" s="42"/>
+      <c r="FS5" s="42"/>
+      <c r="FT5" s="42"/>
+      <c r="FU5" s="42"/>
+      <c r="FV5" s="49"/>
+      <c r="FW5" s="45"/>
+      <c r="FX5" s="42"/>
+      <c r="FY5" s="42"/>
+      <c r="FZ5" s="42"/>
+      <c r="GA5" s="42"/>
+      <c r="GB5" s="42"/>
+      <c r="GC5" s="49"/>
       <c r="GD5" s="14"/>
-      <c r="GJ5" s="17"/>
+      <c r="GJ5" s="16"/>
       <c r="GK5" s="14"/>
-      <c r="GQ5" s="17"/>
+      <c r="GQ5" s="16"/>
       <c r="GR5" s="14"/>
-      <c r="GX5" s="17"/>
+      <c r="GX5" s="16"/>
       <c r="GY5" s="14"/>
-      <c r="HE5" s="17"/>
+      <c r="HE5" s="16"/>
       <c r="HF5" s="14"/>
-      <c r="HL5" s="17"/>
-      <c r="HM5" s="47"/>
-      <c r="HP5" s="30"/>
-      <c r="HR5" s="30"/>
-      <c r="HS5" s="17"/>
+      <c r="HL5" s="16"/>
+      <c r="HM5" s="45"/>
+      <c r="HP5" s="29"/>
+      <c r="HR5" s="29"/>
+      <c r="HS5" s="16"/>
       <c r="HT5" s="14"/>
-      <c r="IA5" s="20"/>
-      <c r="IG5" s="21"/>
-      <c r="IH5" s="20"/>
-      <c r="IM5" s="21"/>
-      <c r="IN5" s="20"/>
-      <c r="IT5" s="21"/>
+      <c r="IA5" s="19"/>
+      <c r="IG5" s="20"/>
+      <c r="IH5" s="19"/>
+      <c r="IM5" s="20"/>
+      <c r="IN5" s="19"/>
+      <c r="IT5" s="20"/>
     </row>
-    <row r="6" spans="1:254" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="14"/>
-      <c r="M6" s="44"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="14"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="14"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="14"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="14"/>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="14"/>
-      <c r="AZ6" s="17"/>
-      <c r="BA6" s="14"/>
-      <c r="BG6" s="17"/>
-      <c r="BH6" s="47"/>
-      <c r="BI6" s="44"/>
-      <c r="BJ6" s="44"/>
-      <c r="BK6" s="44"/>
-      <c r="BL6" s="44"/>
-      <c r="BM6" s="44"/>
-      <c r="BN6" s="51"/>
-      <c r="BO6" s="47"/>
-      <c r="BP6" s="44"/>
-      <c r="BQ6" s="44"/>
+    <row r="6" spans="1:254" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="62"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="4"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="4"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="4"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="4"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="4"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="4"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="46"/>
+      <c r="BI6" s="43"/>
+      <c r="BJ6" s="43"/>
+      <c r="BK6" s="43"/>
+      <c r="BL6" s="43"/>
+      <c r="BM6" s="43"/>
+      <c r="BN6" s="50"/>
+      <c r="BO6" s="46"/>
+      <c r="BP6" s="43"/>
+      <c r="BQ6" s="43"/>
       <c r="BR6" s="30"/>
-      <c r="BU6" s="17"/>
-      <c r="BV6" s="47"/>
-      <c r="CB6" s="17"/>
-      <c r="CC6" s="14"/>
-      <c r="CI6" s="17"/>
-      <c r="CJ6" s="14"/>
-      <c r="CP6" s="17"/>
-      <c r="CQ6" s="14"/>
-      <c r="CW6" s="17"/>
-      <c r="CX6" s="14"/>
-      <c r="DE6" s="20"/>
-      <c r="DK6" s="17"/>
-      <c r="DL6" s="14"/>
-      <c r="DR6" s="21"/>
-      <c r="DY6" s="17"/>
-      <c r="DZ6" s="14"/>
-      <c r="EF6" s="17"/>
-      <c r="EG6" s="14"/>
-      <c r="EM6" s="17"/>
-      <c r="EN6" s="14"/>
-      <c r="EP6" s="44"/>
-      <c r="ET6" s="17"/>
-      <c r="EU6" s="14"/>
-      <c r="FA6" s="17"/>
-      <c r="FB6" s="14"/>
-      <c r="FH6" s="17"/>
-      <c r="FI6" s="14"/>
-      <c r="FO6" s="17"/>
-      <c r="FP6" s="47"/>
-      <c r="FQ6" s="44"/>
-      <c r="FR6" s="44"/>
-      <c r="FS6" s="44"/>
-      <c r="FT6" s="44"/>
-      <c r="FU6" s="44"/>
-      <c r="FV6" s="51"/>
-      <c r="FW6" s="47"/>
-      <c r="FX6" s="44"/>
-      <c r="FY6" s="44"/>
-      <c r="FZ6" s="44"/>
-      <c r="GA6" s="44"/>
-      <c r="GB6" s="44"/>
-      <c r="GC6" s="51"/>
-      <c r="GD6" s="14"/>
-      <c r="GJ6" s="17"/>
-      <c r="GK6" s="14"/>
-      <c r="GQ6" s="17"/>
-      <c r="GR6" s="14"/>
-      <c r="GX6" s="17"/>
-      <c r="GY6" s="14"/>
-      <c r="HE6" s="17"/>
-      <c r="HF6" s="14"/>
-      <c r="HL6" s="17"/>
-      <c r="HM6" s="47"/>
+      <c r="BU6" s="3"/>
+      <c r="BV6" s="46"/>
+      <c r="CB6" s="3"/>
+      <c r="CC6" s="4"/>
+      <c r="CI6" s="3"/>
+      <c r="CJ6" s="4"/>
+      <c r="CP6" s="3"/>
+      <c r="CQ6" s="4"/>
+      <c r="CW6" s="3"/>
+      <c r="CX6" s="4"/>
+      <c r="DE6" s="21"/>
+      <c r="DK6" s="3"/>
+      <c r="DL6" s="4"/>
+      <c r="DR6" s="22"/>
+      <c r="DY6" s="3"/>
+      <c r="DZ6" s="4"/>
+      <c r="EF6" s="3"/>
+      <c r="EG6" s="4"/>
+      <c r="EM6" s="3"/>
+      <c r="EN6" s="4"/>
+      <c r="EP6" s="43"/>
+      <c r="ET6" s="3"/>
+      <c r="EU6" s="4"/>
+      <c r="FA6" s="3"/>
+      <c r="FB6" s="4"/>
+      <c r="FH6" s="3"/>
+      <c r="FI6" s="4"/>
+      <c r="FO6" s="3"/>
+      <c r="FP6" s="46"/>
+      <c r="FQ6" s="43"/>
+      <c r="FR6" s="43"/>
+      <c r="FS6" s="43"/>
+      <c r="FT6" s="43"/>
+      <c r="FU6" s="43"/>
+      <c r="FV6" s="50"/>
+      <c r="FW6" s="46"/>
+      <c r="FX6" s="43"/>
+      <c r="FY6" s="43"/>
+      <c r="FZ6" s="43"/>
+      <c r="GA6" s="43"/>
+      <c r="GB6" s="43"/>
+      <c r="GC6" s="50"/>
+      <c r="GD6" s="4"/>
+      <c r="GJ6" s="3"/>
+      <c r="GK6" s="4"/>
+      <c r="GQ6" s="3"/>
+      <c r="GR6" s="4"/>
+      <c r="GX6" s="3"/>
+      <c r="GY6" s="4"/>
+      <c r="HE6" s="3"/>
+      <c r="HF6" s="4"/>
+      <c r="HL6" s="3"/>
+      <c r="HM6" s="46"/>
       <c r="HP6" s="30"/>
       <c r="HR6" s="30"/>
-      <c r="HS6" s="17"/>
-      <c r="HT6" s="14"/>
-      <c r="IA6" s="20"/>
-      <c r="IG6" s="21"/>
-      <c r="IH6" s="20"/>
-      <c r="IM6" s="21"/>
-      <c r="IN6" s="20"/>
-      <c r="IT6" s="21"/>
+      <c r="HS6" s="3"/>
+      <c r="HT6" s="4"/>
+      <c r="IA6" s="21"/>
+      <c r="IG6" s="22"/>
+      <c r="IH6" s="21"/>
+      <c r="IM6" s="22"/>
+      <c r="IN6" s="21"/>
+      <c r="IT6" s="22"/>
     </row>
     <row r="7" spans="1:254" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="1"/>
+      <c r="A7" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="M7" s="45"/>
-      <c r="Q7" s="3"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="84"/>
       <c r="R7" s="4"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="4"/>
@@ -3191,19 +3227,19 @@
       <c r="AZ7" s="3"/>
       <c r="BA7" s="4"/>
       <c r="BG7" s="3"/>
-      <c r="BH7" s="48"/>
-      <c r="BI7" s="45"/>
-      <c r="BJ7" s="45"/>
-      <c r="BK7" s="45"/>
-      <c r="BL7" s="45"/>
-      <c r="BM7" s="45"/>
-      <c r="BN7" s="52"/>
-      <c r="BO7" s="48"/>
-      <c r="BP7" s="45"/>
-      <c r="BQ7" s="45"/>
-      <c r="BR7" s="31"/>
+      <c r="BH7" s="46"/>
+      <c r="BI7" s="43"/>
+      <c r="BJ7" s="43"/>
+      <c r="BK7" s="43"/>
+      <c r="BL7" s="43"/>
+      <c r="BM7" s="43"/>
+      <c r="BN7" s="50"/>
+      <c r="BO7" s="46"/>
+      <c r="BP7" s="43"/>
+      <c r="BQ7" s="43"/>
+      <c r="BR7" s="30"/>
       <c r="BU7" s="3"/>
-      <c r="BV7" s="48"/>
+      <c r="BV7" s="46"/>
       <c r="CB7" s="3"/>
       <c r="CC7" s="4"/>
       <c r="CI7" s="3"/>
@@ -3212,17 +3248,17 @@
       <c r="CQ7" s="4"/>
       <c r="CW7" s="3"/>
       <c r="CX7" s="4"/>
-      <c r="DE7" s="22"/>
+      <c r="DE7" s="21"/>
       <c r="DK7" s="3"/>
       <c r="DL7" s="4"/>
-      <c r="DR7" s="23"/>
+      <c r="DR7" s="22"/>
       <c r="DY7" s="3"/>
       <c r="DZ7" s="4"/>
       <c r="EF7" s="3"/>
       <c r="EG7" s="4"/>
       <c r="EM7" s="3"/>
       <c r="EN7" s="4"/>
-      <c r="EP7" s="45"/>
+      <c r="EP7" s="43"/>
       <c r="ET7" s="3"/>
       <c r="EU7" s="4"/>
       <c r="FA7" s="3"/>
@@ -3230,20 +3266,20 @@
       <c r="FH7" s="3"/>
       <c r="FI7" s="4"/>
       <c r="FO7" s="3"/>
-      <c r="FP7" s="48"/>
-      <c r="FQ7" s="45"/>
-      <c r="FR7" s="45"/>
-      <c r="FS7" s="45"/>
-      <c r="FT7" s="45"/>
-      <c r="FU7" s="45"/>
-      <c r="FV7" s="52"/>
-      <c r="FW7" s="48"/>
-      <c r="FX7" s="45"/>
-      <c r="FY7" s="45"/>
-      <c r="FZ7" s="45"/>
-      <c r="GA7" s="45"/>
-      <c r="GB7" s="45"/>
-      <c r="GC7" s="52"/>
+      <c r="FP7" s="46"/>
+      <c r="FQ7" s="43"/>
+      <c r="FR7" s="43"/>
+      <c r="FS7" s="43"/>
+      <c r="FT7" s="43"/>
+      <c r="FU7" s="43"/>
+      <c r="FV7" s="50"/>
+      <c r="FW7" s="46"/>
+      <c r="FX7" s="43"/>
+      <c r="FY7" s="43"/>
+      <c r="FZ7" s="43"/>
+      <c r="GA7" s="43"/>
+      <c r="GB7" s="43"/>
+      <c r="GC7" s="50"/>
       <c r="GD7" s="4"/>
       <c r="GJ7" s="3"/>
       <c r="GK7" s="4"/>
@@ -3254,35 +3290,32 @@
       <c r="HE7" s="3"/>
       <c r="HF7" s="4"/>
       <c r="HL7" s="3"/>
-      <c r="HM7" s="48"/>
-      <c r="HP7" s="31"/>
-      <c r="HR7" s="31"/>
+      <c r="HM7" s="46"/>
+      <c r="HP7" s="30"/>
+      <c r="HR7" s="30"/>
       <c r="HS7" s="3"/>
       <c r="HT7" s="4"/>
-      <c r="IA7" s="22"/>
-      <c r="IG7" s="23"/>
-      <c r="IH7" s="22"/>
-      <c r="IM7" s="23"/>
-      <c r="IN7" s="22"/>
-      <c r="IT7" s="23"/>
+      <c r="IA7" s="21"/>
+      <c r="IG7" s="22"/>
+      <c r="IH7" s="21"/>
+      <c r="IM7" s="22"/>
+      <c r="IN7" s="21"/>
+      <c r="IT7" s="22"/>
     </row>
-    <row r="8" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>51</v>
-      </c>
+    <row r="8" spans="1:254" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>0</v>
       </c>
+      <c r="J8" s="3"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="60"/>
+      <c r="M8" s="43"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="4"/>
+      <c r="T8" s="85"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="4"/>
       <c r="AE8" s="3"/>
@@ -3294,19 +3327,19 @@
       <c r="AZ8" s="3"/>
       <c r="BA8" s="4"/>
       <c r="BG8" s="3"/>
-      <c r="BH8" s="48"/>
-      <c r="BI8" s="45"/>
-      <c r="BJ8" s="45"/>
-      <c r="BK8" s="45"/>
-      <c r="BL8" s="45"/>
-      <c r="BM8" s="45"/>
-      <c r="BN8" s="52"/>
-      <c r="BO8" s="48"/>
-      <c r="BP8" s="45"/>
-      <c r="BQ8" s="45"/>
-      <c r="BR8" s="31"/>
+      <c r="BH8" s="46"/>
+      <c r="BI8" s="43"/>
+      <c r="BJ8" s="43"/>
+      <c r="BK8" s="43"/>
+      <c r="BL8" s="43"/>
+      <c r="BM8" s="43"/>
+      <c r="BN8" s="50"/>
+      <c r="BO8" s="46"/>
+      <c r="BP8" s="43"/>
+      <c r="BQ8" s="43"/>
+      <c r="BR8" s="30"/>
       <c r="BU8" s="3"/>
-      <c r="BV8" s="48"/>
+      <c r="BV8" s="46"/>
       <c r="CB8" s="3"/>
       <c r="CC8" s="4"/>
       <c r="CI8" s="3"/>
@@ -3315,17 +3348,17 @@
       <c r="CQ8" s="4"/>
       <c r="CW8" s="3"/>
       <c r="CX8" s="4"/>
-      <c r="DE8" s="22"/>
+      <c r="DE8" s="21"/>
       <c r="DK8" s="3"/>
       <c r="DL8" s="4"/>
-      <c r="DR8" s="23"/>
+      <c r="DR8" s="22"/>
       <c r="DY8" s="3"/>
       <c r="DZ8" s="4"/>
       <c r="EF8" s="3"/>
       <c r="EG8" s="4"/>
       <c r="EM8" s="3"/>
       <c r="EN8" s="4"/>
-      <c r="EP8" s="45"/>
+      <c r="EP8" s="43"/>
       <c r="ET8" s="3"/>
       <c r="EU8" s="4"/>
       <c r="FA8" s="3"/>
@@ -3333,20 +3366,20 @@
       <c r="FH8" s="3"/>
       <c r="FI8" s="4"/>
       <c r="FO8" s="3"/>
-      <c r="FP8" s="48"/>
-      <c r="FQ8" s="45"/>
-      <c r="FR8" s="45"/>
-      <c r="FS8" s="45"/>
-      <c r="FT8" s="45"/>
-      <c r="FU8" s="45"/>
-      <c r="FV8" s="52"/>
-      <c r="FW8" s="48"/>
-      <c r="FX8" s="45"/>
-      <c r="FY8" s="45"/>
-      <c r="FZ8" s="45"/>
-      <c r="GA8" s="45"/>
-      <c r="GB8" s="45"/>
-      <c r="GC8" s="52"/>
+      <c r="FP8" s="46"/>
+      <c r="FQ8" s="43"/>
+      <c r="FR8" s="43"/>
+      <c r="FS8" s="43"/>
+      <c r="FT8" s="43"/>
+      <c r="FU8" s="43"/>
+      <c r="FV8" s="50"/>
+      <c r="FW8" s="46"/>
+      <c r="FX8" s="43"/>
+      <c r="FY8" s="43"/>
+      <c r="FZ8" s="43"/>
+      <c r="GA8" s="43"/>
+      <c r="GB8" s="43"/>
+      <c r="GC8" s="50"/>
       <c r="GD8" s="4"/>
       <c r="GJ8" s="3"/>
       <c r="GK8" s="4"/>
@@ -3357,35 +3390,33 @@
       <c r="HE8" s="3"/>
       <c r="HF8" s="4"/>
       <c r="HL8" s="3"/>
-      <c r="HM8" s="48"/>
-      <c r="HP8" s="31"/>
-      <c r="HR8" s="31"/>
+      <c r="HM8" s="46"/>
+      <c r="HP8" s="30"/>
+      <c r="HR8" s="30"/>
       <c r="HS8" s="3"/>
       <c r="HT8" s="4"/>
-      <c r="IA8" s="22"/>
-      <c r="IG8" s="23"/>
-      <c r="IH8" s="22"/>
-      <c r="IM8" s="23"/>
-      <c r="IN8" s="22"/>
-      <c r="IT8" s="23"/>
+      <c r="IA8" s="21"/>
+      <c r="IG8" s="22"/>
+      <c r="IH8" s="21"/>
+      <c r="IM8" s="22"/>
+      <c r="IN8" s="21"/>
+      <c r="IT8" s="22"/>
     </row>
-    <row r="9" spans="1:254" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
-        <v>48</v>
+    <row r="9" spans="1:254" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="60"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="43"/>
+      <c r="Q9" s="3"/>
       <c r="R9" s="4"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="4"/>
@@ -3398,19 +3429,19 @@
       <c r="AZ9" s="3"/>
       <c r="BA9" s="4"/>
       <c r="BG9" s="3"/>
-      <c r="BH9" s="48"/>
-      <c r="BI9" s="45"/>
-      <c r="BJ9" s="45"/>
-      <c r="BK9" s="45"/>
-      <c r="BL9" s="45"/>
-      <c r="BM9" s="45"/>
-      <c r="BN9" s="52"/>
-      <c r="BO9" s="48"/>
-      <c r="BP9" s="45"/>
-      <c r="BQ9" s="45"/>
-      <c r="BR9" s="31"/>
+      <c r="BH9" s="46"/>
+      <c r="BI9" s="43"/>
+      <c r="BJ9" s="43"/>
+      <c r="BK9" s="43"/>
+      <c r="BL9" s="43"/>
+      <c r="BM9" s="43"/>
+      <c r="BN9" s="50"/>
+      <c r="BO9" s="46"/>
+      <c r="BP9" s="43"/>
+      <c r="BQ9" s="43"/>
+      <c r="BR9" s="30"/>
       <c r="BU9" s="3"/>
-      <c r="BV9" s="48"/>
+      <c r="BV9" s="46"/>
       <c r="CB9" s="3"/>
       <c r="CC9" s="4"/>
       <c r="CI9" s="3"/>
@@ -3419,17 +3450,17 @@
       <c r="CQ9" s="4"/>
       <c r="CW9" s="3"/>
       <c r="CX9" s="4"/>
-      <c r="DE9" s="22"/>
+      <c r="DE9" s="21"/>
       <c r="DK9" s="3"/>
       <c r="DL9" s="4"/>
-      <c r="DR9" s="23"/>
+      <c r="DR9" s="22"/>
       <c r="DY9" s="3"/>
       <c r="DZ9" s="4"/>
       <c r="EF9" s="3"/>
       <c r="EG9" s="4"/>
       <c r="EM9" s="3"/>
       <c r="EN9" s="4"/>
-      <c r="EP9" s="45"/>
+      <c r="EP9" s="43"/>
       <c r="ET9" s="3"/>
       <c r="EU9" s="4"/>
       <c r="FA9" s="3"/>
@@ -3437,20 +3468,20 @@
       <c r="FH9" s="3"/>
       <c r="FI9" s="4"/>
       <c r="FO9" s="3"/>
-      <c r="FP9" s="48"/>
-      <c r="FQ9" s="45"/>
-      <c r="FR9" s="45"/>
-      <c r="FS9" s="45"/>
-      <c r="FT9" s="45"/>
-      <c r="FU9" s="45"/>
-      <c r="FV9" s="52"/>
-      <c r="FW9" s="48"/>
-      <c r="FX9" s="45"/>
-      <c r="FY9" s="45"/>
-      <c r="FZ9" s="45"/>
-      <c r="GA9" s="45"/>
-      <c r="GB9" s="45"/>
-      <c r="GC9" s="52"/>
+      <c r="FP9" s="46"/>
+      <c r="FQ9" s="43"/>
+      <c r="FR9" s="43"/>
+      <c r="FS9" s="43"/>
+      <c r="FT9" s="43"/>
+      <c r="FU9" s="43"/>
+      <c r="FV9" s="50"/>
+      <c r="FW9" s="46"/>
+      <c r="FX9" s="43"/>
+      <c r="FY9" s="43"/>
+      <c r="FZ9" s="43"/>
+      <c r="GA9" s="43"/>
+      <c r="GB9" s="43"/>
+      <c r="GC9" s="50"/>
       <c r="GD9" s="4"/>
       <c r="GJ9" s="3"/>
       <c r="GK9" s="4"/>
@@ -3461,29 +3492,32 @@
       <c r="HE9" s="3"/>
       <c r="HF9" s="4"/>
       <c r="HL9" s="3"/>
-      <c r="HM9" s="48"/>
-      <c r="HP9" s="31"/>
-      <c r="HR9" s="31"/>
+      <c r="HM9" s="46"/>
+      <c r="HP9" s="30"/>
+      <c r="HR9" s="30"/>
       <c r="HS9" s="3"/>
       <c r="HT9" s="4"/>
-      <c r="IA9" s="22"/>
-      <c r="IG9" s="23"/>
-      <c r="IH9" s="22"/>
-      <c r="IM9" s="23"/>
-      <c r="IN9" s="22"/>
-      <c r="IT9" s="23"/>
+      <c r="IA9" s="21"/>
+      <c r="IG9" s="22"/>
+      <c r="IH9" s="21"/>
+      <c r="IM9" s="22"/>
+      <c r="IN9" s="21"/>
+      <c r="IT9" s="22"/>
     </row>
-    <row r="10" spans="1:254" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:254" x14ac:dyDescent="0.35">
+      <c r="A10" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
-      <c r="M10" s="45"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="43"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="4"/>
       <c r="X10" s="3"/>
@@ -3497,19 +3531,19 @@
       <c r="AZ10" s="3"/>
       <c r="BA10" s="4"/>
       <c r="BG10" s="3"/>
-      <c r="BH10" s="48"/>
-      <c r="BI10" s="45"/>
-      <c r="BJ10" s="45"/>
-      <c r="BK10" s="45"/>
-      <c r="BL10" s="45"/>
-      <c r="BM10" s="45"/>
-      <c r="BN10" s="52"/>
-      <c r="BO10" s="48"/>
-      <c r="BP10" s="45"/>
-      <c r="BQ10" s="45"/>
-      <c r="BR10" s="31"/>
+      <c r="BH10" s="46"/>
+      <c r="BI10" s="43"/>
+      <c r="BJ10" s="43"/>
+      <c r="BK10" s="43"/>
+      <c r="BL10" s="43"/>
+      <c r="BM10" s="43"/>
+      <c r="BN10" s="50"/>
+      <c r="BO10" s="46"/>
+      <c r="BP10" s="43"/>
+      <c r="BQ10" s="43"/>
+      <c r="BR10" s="30"/>
       <c r="BU10" s="3"/>
-      <c r="BV10" s="48"/>
+      <c r="BV10" s="46"/>
       <c r="CB10" s="3"/>
       <c r="CC10" s="4"/>
       <c r="CI10" s="3"/>
@@ -3518,17 +3552,17 @@
       <c r="CQ10" s="4"/>
       <c r="CW10" s="3"/>
       <c r="CX10" s="4"/>
-      <c r="DE10" s="22"/>
+      <c r="DE10" s="21"/>
       <c r="DK10" s="3"/>
       <c r="DL10" s="4"/>
-      <c r="DR10" s="23"/>
+      <c r="DR10" s="22"/>
       <c r="DY10" s="3"/>
       <c r="DZ10" s="4"/>
       <c r="EF10" s="3"/>
       <c r="EG10" s="4"/>
       <c r="EM10" s="3"/>
       <c r="EN10" s="4"/>
-      <c r="EP10" s="45"/>
+      <c r="EP10" s="43"/>
       <c r="ET10" s="3"/>
       <c r="EU10" s="4"/>
       <c r="FA10" s="3"/>
@@ -3536,20 +3570,20 @@
       <c r="FH10" s="3"/>
       <c r="FI10" s="4"/>
       <c r="FO10" s="3"/>
-      <c r="FP10" s="48"/>
-      <c r="FQ10" s="45"/>
-      <c r="FR10" s="45"/>
-      <c r="FS10" s="45"/>
-      <c r="FT10" s="45"/>
-      <c r="FU10" s="45"/>
-      <c r="FV10" s="52"/>
-      <c r="FW10" s="48"/>
-      <c r="FX10" s="45"/>
-      <c r="FY10" s="45"/>
-      <c r="FZ10" s="45"/>
-      <c r="GA10" s="45"/>
-      <c r="GB10" s="45"/>
-      <c r="GC10" s="52"/>
+      <c r="FP10" s="46"/>
+      <c r="FQ10" s="43"/>
+      <c r="FR10" s="43"/>
+      <c r="FS10" s="43"/>
+      <c r="FT10" s="43"/>
+      <c r="FU10" s="43"/>
+      <c r="FV10" s="50"/>
+      <c r="FW10" s="46"/>
+      <c r="FX10" s="43"/>
+      <c r="FY10" s="43"/>
+      <c r="FZ10" s="43"/>
+      <c r="GA10" s="43"/>
+      <c r="GB10" s="43"/>
+      <c r="GC10" s="50"/>
       <c r="GD10" s="4"/>
       <c r="GJ10" s="3"/>
       <c r="GK10" s="4"/>
@@ -3560,31 +3594,33 @@
       <c r="HE10" s="3"/>
       <c r="HF10" s="4"/>
       <c r="HL10" s="3"/>
-      <c r="HM10" s="48"/>
-      <c r="HP10" s="31"/>
-      <c r="HR10" s="31"/>
+      <c r="HM10" s="46"/>
+      <c r="HP10" s="30"/>
+      <c r="HR10" s="30"/>
       <c r="HS10" s="3"/>
       <c r="HT10" s="4"/>
-      <c r="IA10" s="22"/>
-      <c r="IG10" s="23"/>
-      <c r="IH10" s="22"/>
-      <c r="IM10" s="23"/>
-      <c r="IN10" s="22"/>
-      <c r="IT10" s="23"/>
+      <c r="IA10" s="21"/>
+      <c r="IG10" s="22"/>
+      <c r="IH10" s="21"/>
+      <c r="IM10" s="22"/>
+      <c r="IN10" s="21"/>
+      <c r="IT10" s="22"/>
     </row>
     <row r="11" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A11" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="1"/>
+      <c r="A11" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
-      <c r="M11" s="45"/>
+      <c r="M11" s="43"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="4"/>
+      <c r="R11" s="62"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="4"/>
       <c r="AE11" s="3"/>
@@ -3596,19 +3632,19 @@
       <c r="AZ11" s="3"/>
       <c r="BA11" s="4"/>
       <c r="BG11" s="3"/>
-      <c r="BH11" s="48"/>
-      <c r="BI11" s="45"/>
-      <c r="BJ11" s="45"/>
-      <c r="BK11" s="45"/>
-      <c r="BL11" s="45"/>
-      <c r="BM11" s="45"/>
-      <c r="BN11" s="52"/>
-      <c r="BO11" s="48"/>
-      <c r="BP11" s="45"/>
-      <c r="BQ11" s="45"/>
-      <c r="BR11" s="31"/>
+      <c r="BH11" s="46"/>
+      <c r="BI11" s="43"/>
+      <c r="BJ11" s="43"/>
+      <c r="BK11" s="43"/>
+      <c r="BL11" s="43"/>
+      <c r="BM11" s="43"/>
+      <c r="BN11" s="50"/>
+      <c r="BO11" s="46"/>
+      <c r="BP11" s="43"/>
+      <c r="BQ11" s="43"/>
+      <c r="BR11" s="30"/>
       <c r="BU11" s="3"/>
-      <c r="BV11" s="48"/>
+      <c r="BV11" s="46"/>
       <c r="CB11" s="3"/>
       <c r="CC11" s="4"/>
       <c r="CI11" s="3"/>
@@ -3617,17 +3653,17 @@
       <c r="CQ11" s="4"/>
       <c r="CW11" s="3"/>
       <c r="CX11" s="4"/>
-      <c r="DE11" s="22"/>
+      <c r="DE11" s="21"/>
       <c r="DK11" s="3"/>
       <c r="DL11" s="4"/>
-      <c r="DR11" s="23"/>
+      <c r="DR11" s="22"/>
       <c r="DY11" s="3"/>
       <c r="DZ11" s="4"/>
       <c r="EF11" s="3"/>
       <c r="EG11" s="4"/>
       <c r="EM11" s="3"/>
       <c r="EN11" s="4"/>
-      <c r="EP11" s="45"/>
+      <c r="EP11" s="43"/>
       <c r="ET11" s="3"/>
       <c r="EU11" s="4"/>
       <c r="FA11" s="3"/>
@@ -3635,20 +3671,20 @@
       <c r="FH11" s="3"/>
       <c r="FI11" s="4"/>
       <c r="FO11" s="3"/>
-      <c r="FP11" s="48"/>
-      <c r="FQ11" s="45"/>
-      <c r="FR11" s="45"/>
-      <c r="FS11" s="45"/>
-      <c r="FT11" s="45"/>
-      <c r="FU11" s="45"/>
-      <c r="FV11" s="52"/>
-      <c r="FW11" s="48"/>
-      <c r="FX11" s="45"/>
-      <c r="FY11" s="45"/>
-      <c r="FZ11" s="45"/>
-      <c r="GA11" s="45"/>
-      <c r="GB11" s="45"/>
-      <c r="GC11" s="52"/>
+      <c r="FP11" s="46"/>
+      <c r="FQ11" s="43"/>
+      <c r="FR11" s="43"/>
+      <c r="FS11" s="43"/>
+      <c r="FT11" s="43"/>
+      <c r="FU11" s="43"/>
+      <c r="FV11" s="50"/>
+      <c r="FW11" s="46"/>
+      <c r="FX11" s="43"/>
+      <c r="FY11" s="43"/>
+      <c r="FZ11" s="43"/>
+      <c r="GA11" s="43"/>
+      <c r="GB11" s="43"/>
+      <c r="GC11" s="50"/>
       <c r="GD11" s="4"/>
       <c r="GJ11" s="3"/>
       <c r="GK11" s="4"/>
@@ -3659,32 +3695,33 @@
       <c r="HE11" s="3"/>
       <c r="HF11" s="4"/>
       <c r="HL11" s="3"/>
-      <c r="HM11" s="48"/>
-      <c r="HP11" s="31"/>
-      <c r="HR11" s="31"/>
+      <c r="HM11" s="46"/>
+      <c r="HP11" s="30"/>
+      <c r="HR11" s="30"/>
       <c r="HS11" s="3"/>
       <c r="HT11" s="4"/>
-      <c r="IA11" s="22"/>
-      <c r="IG11" s="23"/>
-      <c r="IH11" s="22"/>
-      <c r="IM11" s="23"/>
-      <c r="IN11" s="22"/>
-      <c r="IT11" s="23"/>
+      <c r="IA11" s="21"/>
+      <c r="IG11" s="22"/>
+      <c r="IH11" s="21"/>
+      <c r="IM11" s="22"/>
+      <c r="IN11" s="21"/>
+      <c r="IT11" s="22"/>
     </row>
-    <row r="12" spans="1:254" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:254" x14ac:dyDescent="0.35">
+      <c r="A12" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C12" s="1">
         <v>100</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="45"/>
+      <c r="M12" s="43"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="4"/>
+      <c r="R12" s="62"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="4"/>
       <c r="AE12" s="3"/>
@@ -3696,19 +3733,19 @@
       <c r="AZ12" s="3"/>
       <c r="BA12" s="4"/>
       <c r="BG12" s="3"/>
-      <c r="BH12" s="48"/>
-      <c r="BI12" s="45"/>
-      <c r="BJ12" s="45"/>
-      <c r="BK12" s="45"/>
-      <c r="BL12" s="45"/>
-      <c r="BM12" s="45"/>
-      <c r="BN12" s="52"/>
-      <c r="BO12" s="48"/>
-      <c r="BP12" s="45"/>
-      <c r="BQ12" s="45"/>
-      <c r="BR12" s="31"/>
+      <c r="BH12" s="46"/>
+      <c r="BI12" s="43"/>
+      <c r="BJ12" s="43"/>
+      <c r="BK12" s="43"/>
+      <c r="BL12" s="43"/>
+      <c r="BM12" s="43"/>
+      <c r="BN12" s="50"/>
+      <c r="BO12" s="46"/>
+      <c r="BP12" s="43"/>
+      <c r="BQ12" s="43"/>
+      <c r="BR12" s="30"/>
       <c r="BU12" s="3"/>
-      <c r="BV12" s="48"/>
+      <c r="BV12" s="46"/>
       <c r="CB12" s="3"/>
       <c r="CC12" s="4"/>
       <c r="CI12" s="3"/>
@@ -3717,17 +3754,17 @@
       <c r="CQ12" s="4"/>
       <c r="CW12" s="3"/>
       <c r="CX12" s="4"/>
-      <c r="DE12" s="22"/>
+      <c r="DE12" s="21"/>
       <c r="DK12" s="3"/>
       <c r="DL12" s="4"/>
-      <c r="DR12" s="23"/>
+      <c r="DR12" s="22"/>
       <c r="DY12" s="3"/>
       <c r="DZ12" s="4"/>
       <c r="EF12" s="3"/>
       <c r="EG12" s="4"/>
       <c r="EM12" s="3"/>
       <c r="EN12" s="4"/>
-      <c r="EP12" s="45"/>
+      <c r="EP12" s="43"/>
       <c r="ET12" s="3"/>
       <c r="EU12" s="4"/>
       <c r="FA12" s="3"/>
@@ -3735,20 +3772,20 @@
       <c r="FH12" s="3"/>
       <c r="FI12" s="4"/>
       <c r="FO12" s="3"/>
-      <c r="FP12" s="48"/>
-      <c r="FQ12" s="45"/>
-      <c r="FR12" s="45"/>
-      <c r="FS12" s="45"/>
-      <c r="FT12" s="45"/>
-      <c r="FU12" s="45"/>
-      <c r="FV12" s="52"/>
-      <c r="FW12" s="48"/>
-      <c r="FX12" s="45"/>
-      <c r="FY12" s="45"/>
-      <c r="FZ12" s="45"/>
-      <c r="GA12" s="45"/>
-      <c r="GB12" s="45"/>
-      <c r="GC12" s="52"/>
+      <c r="FP12" s="46"/>
+      <c r="FQ12" s="43"/>
+      <c r="FR12" s="43"/>
+      <c r="FS12" s="43"/>
+      <c r="FT12" s="43"/>
+      <c r="FU12" s="43"/>
+      <c r="FV12" s="50"/>
+      <c r="FW12" s="46"/>
+      <c r="FX12" s="43"/>
+      <c r="FY12" s="43"/>
+      <c r="FZ12" s="43"/>
+      <c r="GA12" s="43"/>
+      <c r="GB12" s="43"/>
+      <c r="GC12" s="50"/>
       <c r="GD12" s="4"/>
       <c r="GJ12" s="3"/>
       <c r="GK12" s="4"/>
@@ -3759,30 +3796,32 @@
       <c r="HE12" s="3"/>
       <c r="HF12" s="4"/>
       <c r="HL12" s="3"/>
-      <c r="HM12" s="48"/>
-      <c r="HP12" s="31"/>
-      <c r="HR12" s="31"/>
+      <c r="HM12" s="46"/>
+      <c r="HP12" s="30"/>
+      <c r="HR12" s="30"/>
       <c r="HS12" s="3"/>
       <c r="HT12" s="4"/>
-      <c r="IA12" s="22"/>
-      <c r="IG12" s="23"/>
-      <c r="IH12" s="22"/>
-      <c r="IM12" s="23"/>
-      <c r="IN12" s="22"/>
-      <c r="IT12" s="23"/>
+      <c r="IA12" s="21"/>
+      <c r="IG12" s="22"/>
+      <c r="IH12" s="21"/>
+      <c r="IM12" s="22"/>
+      <c r="IN12" s="21"/>
+      <c r="IT12" s="22"/>
     </row>
     <row r="13" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A13" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="1"/>
+      <c r="A13" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C13" s="1">
         <v>100</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="45"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="43"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="4"/>
       <c r="X13" s="3"/>
@@ -3796,19 +3835,19 @@
       <c r="AZ13" s="3"/>
       <c r="BA13" s="4"/>
       <c r="BG13" s="3"/>
-      <c r="BH13" s="48"/>
-      <c r="BI13" s="45"/>
-      <c r="BJ13" s="45"/>
-      <c r="BK13" s="45"/>
-      <c r="BL13" s="45"/>
-      <c r="BM13" s="45"/>
-      <c r="BN13" s="52"/>
-      <c r="BO13" s="48"/>
-      <c r="BP13" s="45"/>
-      <c r="BQ13" s="45"/>
-      <c r="BR13" s="31"/>
+      <c r="BH13" s="46"/>
+      <c r="BI13" s="43"/>
+      <c r="BJ13" s="43"/>
+      <c r="BK13" s="43"/>
+      <c r="BL13" s="43"/>
+      <c r="BM13" s="43"/>
+      <c r="BN13" s="50"/>
+      <c r="BO13" s="46"/>
+      <c r="BP13" s="43"/>
+      <c r="BQ13" s="43"/>
+      <c r="BR13" s="30"/>
       <c r="BU13" s="3"/>
-      <c r="BV13" s="48"/>
+      <c r="BV13" s="46"/>
       <c r="CB13" s="3"/>
       <c r="CC13" s="4"/>
       <c r="CI13" s="3"/>
@@ -3817,17 +3856,17 @@
       <c r="CQ13" s="4"/>
       <c r="CW13" s="3"/>
       <c r="CX13" s="4"/>
-      <c r="DE13" s="22"/>
+      <c r="DE13" s="21"/>
       <c r="DK13" s="3"/>
       <c r="DL13" s="4"/>
-      <c r="DR13" s="23"/>
+      <c r="DR13" s="22"/>
       <c r="DY13" s="3"/>
       <c r="DZ13" s="4"/>
       <c r="EF13" s="3"/>
       <c r="EG13" s="4"/>
       <c r="EM13" s="3"/>
       <c r="EN13" s="4"/>
-      <c r="EP13" s="45"/>
+      <c r="EP13" s="43"/>
       <c r="ET13" s="3"/>
       <c r="EU13" s="4"/>
       <c r="FA13" s="3"/>
@@ -3835,20 +3874,20 @@
       <c r="FH13" s="3"/>
       <c r="FI13" s="4"/>
       <c r="FO13" s="3"/>
-      <c r="FP13" s="48"/>
-      <c r="FQ13" s="45"/>
-      <c r="FR13" s="45"/>
-      <c r="FS13" s="45"/>
-      <c r="FT13" s="45"/>
-      <c r="FU13" s="45"/>
-      <c r="FV13" s="52"/>
-      <c r="FW13" s="48"/>
-      <c r="FX13" s="45"/>
-      <c r="FY13" s="45"/>
-      <c r="FZ13" s="45"/>
-      <c r="GA13" s="45"/>
-      <c r="GB13" s="45"/>
-      <c r="GC13" s="52"/>
+      <c r="FP13" s="46"/>
+      <c r="FQ13" s="43"/>
+      <c r="FR13" s="43"/>
+      <c r="FS13" s="43"/>
+      <c r="FT13" s="43"/>
+      <c r="FU13" s="43"/>
+      <c r="FV13" s="50"/>
+      <c r="FW13" s="46"/>
+      <c r="FX13" s="43"/>
+      <c r="FY13" s="43"/>
+      <c r="FZ13" s="43"/>
+      <c r="GA13" s="43"/>
+      <c r="GB13" s="43"/>
+      <c r="GC13" s="50"/>
       <c r="GD13" s="4"/>
       <c r="GJ13" s="3"/>
       <c r="GK13" s="4"/>
@@ -3859,29 +3898,32 @@
       <c r="HE13" s="3"/>
       <c r="HF13" s="4"/>
       <c r="HL13" s="3"/>
-      <c r="HM13" s="48"/>
-      <c r="HP13" s="31"/>
-      <c r="HR13" s="31"/>
+      <c r="HM13" s="46"/>
+      <c r="HP13" s="30"/>
+      <c r="HR13" s="30"/>
       <c r="HS13" s="3"/>
       <c r="HT13" s="4"/>
-      <c r="IA13" s="22"/>
-      <c r="IG13" s="23"/>
-      <c r="IH13" s="22"/>
-      <c r="IM13" s="23"/>
-      <c r="IN13" s="22"/>
-      <c r="IT13" s="23"/>
+      <c r="IA13" s="21"/>
+      <c r="IG13" s="22"/>
+      <c r="IH13" s="21"/>
+      <c r="IM13" s="22"/>
+      <c r="IN13" s="21"/>
+      <c r="IT13" s="22"/>
     </row>
-    <row r="14" spans="1:254" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:254" x14ac:dyDescent="0.35">
+      <c r="A14" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
-      <c r="M14" s="45"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="43"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="4"/>
       <c r="X14" s="3"/>
@@ -3895,19 +3937,19 @@
       <c r="AZ14" s="3"/>
       <c r="BA14" s="4"/>
       <c r="BG14" s="3"/>
-      <c r="BH14" s="48"/>
-      <c r="BI14" s="45"/>
-      <c r="BJ14" s="45"/>
-      <c r="BK14" s="45"/>
-      <c r="BL14" s="45"/>
-      <c r="BM14" s="45"/>
-      <c r="BN14" s="52"/>
-      <c r="BO14" s="48"/>
-      <c r="BP14" s="45"/>
-      <c r="BQ14" s="45"/>
-      <c r="BR14" s="31"/>
+      <c r="BH14" s="46"/>
+      <c r="BI14" s="43"/>
+      <c r="BJ14" s="43"/>
+      <c r="BK14" s="43"/>
+      <c r="BL14" s="43"/>
+      <c r="BM14" s="43"/>
+      <c r="BN14" s="50"/>
+      <c r="BO14" s="46"/>
+      <c r="BP14" s="43"/>
+      <c r="BQ14" s="43"/>
+      <c r="BR14" s="30"/>
       <c r="BU14" s="3"/>
-      <c r="BV14" s="48"/>
+      <c r="BV14" s="46"/>
       <c r="CB14" s="3"/>
       <c r="CC14" s="4"/>
       <c r="CI14" s="3"/>
@@ -3916,17 +3958,17 @@
       <c r="CQ14" s="4"/>
       <c r="CW14" s="3"/>
       <c r="CX14" s="4"/>
-      <c r="DE14" s="22"/>
+      <c r="DE14" s="21"/>
       <c r="DK14" s="3"/>
       <c r="DL14" s="4"/>
-      <c r="DR14" s="23"/>
+      <c r="DR14" s="22"/>
       <c r="DY14" s="3"/>
       <c r="DZ14" s="4"/>
       <c r="EF14" s="3"/>
       <c r="EG14" s="4"/>
       <c r="EM14" s="3"/>
       <c r="EN14" s="4"/>
-      <c r="EP14" s="45"/>
+      <c r="EP14" s="43"/>
       <c r="ET14" s="3"/>
       <c r="EU14" s="4"/>
       <c r="FA14" s="3"/>
@@ -3934,20 +3976,20 @@
       <c r="FH14" s="3"/>
       <c r="FI14" s="4"/>
       <c r="FO14" s="3"/>
-      <c r="FP14" s="48"/>
-      <c r="FQ14" s="45"/>
-      <c r="FR14" s="45"/>
-      <c r="FS14" s="45"/>
-      <c r="FT14" s="45"/>
-      <c r="FU14" s="45"/>
-      <c r="FV14" s="52"/>
-      <c r="FW14" s="48"/>
-      <c r="FX14" s="45"/>
-      <c r="FY14" s="45"/>
-      <c r="FZ14" s="45"/>
-      <c r="GA14" s="45"/>
-      <c r="GB14" s="45"/>
-      <c r="GC14" s="52"/>
+      <c r="FP14" s="46"/>
+      <c r="FQ14" s="43"/>
+      <c r="FR14" s="43"/>
+      <c r="FS14" s="43"/>
+      <c r="FT14" s="43"/>
+      <c r="FU14" s="43"/>
+      <c r="FV14" s="50"/>
+      <c r="FW14" s="46"/>
+      <c r="FX14" s="43"/>
+      <c r="FY14" s="43"/>
+      <c r="FZ14" s="43"/>
+      <c r="GA14" s="43"/>
+      <c r="GB14" s="43"/>
+      <c r="GC14" s="50"/>
       <c r="GD14" s="4"/>
       <c r="GJ14" s="3"/>
       <c r="GK14" s="4"/>
@@ -3958,35 +4000,36 @@
       <c r="HE14" s="3"/>
       <c r="HF14" s="4"/>
       <c r="HL14" s="3"/>
-      <c r="HM14" s="48"/>
-      <c r="HP14" s="31"/>
-      <c r="HR14" s="31"/>
+      <c r="HM14" s="46"/>
+      <c r="HP14" s="30"/>
+      <c r="HR14" s="30"/>
       <c r="HS14" s="3"/>
       <c r="HT14" s="4"/>
-      <c r="IA14" s="22"/>
-      <c r="IG14" s="23"/>
-      <c r="IH14" s="22"/>
-      <c r="IM14" s="23"/>
-      <c r="IN14" s="22"/>
-      <c r="IT14" s="23"/>
+      <c r="IA14" s="21"/>
+      <c r="IG14" s="22"/>
+      <c r="IH14" s="21"/>
+      <c r="IM14" s="22"/>
+      <c r="IN14" s="21"/>
+      <c r="IT14" s="22"/>
     </row>
     <row r="15" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="1"/>
+      <c r="A15" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="4"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="84"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="4"/>
       <c r="AE15" s="3"/>
@@ -3998,19 +4041,19 @@
       <c r="AZ15" s="3"/>
       <c r="BA15" s="4"/>
       <c r="BG15" s="3"/>
-      <c r="BH15" s="48"/>
-      <c r="BI15" s="45"/>
-      <c r="BJ15" s="45"/>
-      <c r="BK15" s="45"/>
-      <c r="BL15" s="45"/>
-      <c r="BM15" s="45"/>
-      <c r="BN15" s="52"/>
-      <c r="BO15" s="48"/>
-      <c r="BP15" s="45"/>
-      <c r="BQ15" s="45"/>
-      <c r="BR15" s="31"/>
+      <c r="BH15" s="46"/>
+      <c r="BI15" s="43"/>
+      <c r="BJ15" s="43"/>
+      <c r="BK15" s="43"/>
+      <c r="BL15" s="43"/>
+      <c r="BM15" s="43"/>
+      <c r="BN15" s="50"/>
+      <c r="BO15" s="46"/>
+      <c r="BP15" s="43"/>
+      <c r="BQ15" s="43"/>
+      <c r="BR15" s="30"/>
       <c r="BU15" s="3"/>
-      <c r="BV15" s="48"/>
+      <c r="BV15" s="46"/>
       <c r="CB15" s="3"/>
       <c r="CC15" s="4"/>
       <c r="CI15" s="3"/>
@@ -4019,17 +4062,17 @@
       <c r="CQ15" s="4"/>
       <c r="CW15" s="3"/>
       <c r="CX15" s="4"/>
-      <c r="DE15" s="22"/>
+      <c r="DE15" s="21"/>
       <c r="DK15" s="3"/>
       <c r="DL15" s="4"/>
-      <c r="DR15" s="23"/>
+      <c r="DR15" s="22"/>
       <c r="DY15" s="3"/>
       <c r="DZ15" s="4"/>
       <c r="EF15" s="3"/>
       <c r="EG15" s="4"/>
       <c r="EM15" s="3"/>
       <c r="EN15" s="4"/>
-      <c r="EP15" s="45"/>
+      <c r="EP15" s="43"/>
       <c r="ET15" s="3"/>
       <c r="EU15" s="4"/>
       <c r="FA15" s="3"/>
@@ -4037,20 +4080,20 @@
       <c r="FH15" s="3"/>
       <c r="FI15" s="4"/>
       <c r="FO15" s="3"/>
-      <c r="FP15" s="48"/>
-      <c r="FQ15" s="45"/>
-      <c r="FR15" s="45"/>
-      <c r="FS15" s="45"/>
-      <c r="FT15" s="45"/>
-      <c r="FU15" s="45"/>
-      <c r="FV15" s="52"/>
-      <c r="FW15" s="48"/>
-      <c r="FX15" s="45"/>
-      <c r="FY15" s="45"/>
-      <c r="FZ15" s="45"/>
-      <c r="GA15" s="45"/>
-      <c r="GB15" s="45"/>
-      <c r="GC15" s="52"/>
+      <c r="FP15" s="46"/>
+      <c r="FQ15" s="43"/>
+      <c r="FR15" s="43"/>
+      <c r="FS15" s="43"/>
+      <c r="FT15" s="43"/>
+      <c r="FU15" s="43"/>
+      <c r="FV15" s="50"/>
+      <c r="FW15" s="46"/>
+      <c r="FX15" s="43"/>
+      <c r="FY15" s="43"/>
+      <c r="FZ15" s="43"/>
+      <c r="GA15" s="43"/>
+      <c r="GB15" s="43"/>
+      <c r="GC15" s="50"/>
       <c r="GD15" s="4"/>
       <c r="GJ15" s="3"/>
       <c r="GK15" s="4"/>
@@ -4061,34 +4104,33 @@
       <c r="HE15" s="3"/>
       <c r="HF15" s="4"/>
       <c r="HL15" s="3"/>
-      <c r="HM15" s="48"/>
-      <c r="HP15" s="31"/>
-      <c r="HR15" s="31"/>
+      <c r="HM15" s="46"/>
+      <c r="HP15" s="30"/>
+      <c r="HR15" s="30"/>
       <c r="HS15" s="3"/>
       <c r="HT15" s="4"/>
-      <c r="IA15" s="22"/>
-      <c r="IG15" s="23"/>
-      <c r="IH15" s="22"/>
-      <c r="IM15" s="23"/>
-      <c r="IN15" s="22"/>
-      <c r="IT15" s="23"/>
+      <c r="IA15" s="21"/>
+      <c r="IG15" s="22"/>
+      <c r="IH15" s="21"/>
+      <c r="IM15" s="22"/>
+      <c r="IN15" s="21"/>
+      <c r="IT15" s="22"/>
     </row>
     <row r="16" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A16" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="1"/>
+      <c r="A16" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="60"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="43"/>
+      <c r="Q16" s="3"/>
       <c r="R16" s="4"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="4"/>
@@ -4101,19 +4143,19 @@
       <c r="AZ16" s="3"/>
       <c r="BA16" s="4"/>
       <c r="BG16" s="3"/>
-      <c r="BH16" s="48"/>
-      <c r="BI16" s="45"/>
-      <c r="BJ16" s="45"/>
-      <c r="BK16" s="45"/>
-      <c r="BL16" s="45"/>
-      <c r="BM16" s="45"/>
-      <c r="BN16" s="52"/>
-      <c r="BO16" s="48"/>
-      <c r="BP16" s="45"/>
-      <c r="BQ16" s="45"/>
-      <c r="BR16" s="31"/>
+      <c r="BH16" s="46"/>
+      <c r="BI16" s="43"/>
+      <c r="BJ16" s="43"/>
+      <c r="BK16" s="43"/>
+      <c r="BL16" s="43"/>
+      <c r="BM16" s="43"/>
+      <c r="BN16" s="50"/>
+      <c r="BO16" s="46"/>
+      <c r="BP16" s="43"/>
+      <c r="BQ16" s="43"/>
+      <c r="BR16" s="30"/>
       <c r="BU16" s="3"/>
-      <c r="BV16" s="48"/>
+      <c r="BV16" s="46"/>
       <c r="CB16" s="3"/>
       <c r="CC16" s="4"/>
       <c r="CI16" s="3"/>
@@ -4122,17 +4164,17 @@
       <c r="CQ16" s="4"/>
       <c r="CW16" s="3"/>
       <c r="CX16" s="4"/>
-      <c r="DE16" s="22"/>
+      <c r="DE16" s="21"/>
       <c r="DK16" s="3"/>
       <c r="DL16" s="4"/>
-      <c r="DR16" s="23"/>
+      <c r="DR16" s="22"/>
       <c r="DY16" s="3"/>
       <c r="DZ16" s="4"/>
       <c r="EF16" s="3"/>
       <c r="EG16" s="4"/>
       <c r="EM16" s="3"/>
       <c r="EN16" s="4"/>
-      <c r="EP16" s="45"/>
+      <c r="EP16" s="43"/>
       <c r="ET16" s="3"/>
       <c r="EU16" s="4"/>
       <c r="FA16" s="3"/>
@@ -4140,20 +4182,20 @@
       <c r="FH16" s="3"/>
       <c r="FI16" s="4"/>
       <c r="FO16" s="3"/>
-      <c r="FP16" s="48"/>
-      <c r="FQ16" s="45"/>
-      <c r="FR16" s="45"/>
-      <c r="FS16" s="45"/>
-      <c r="FT16" s="45"/>
-      <c r="FU16" s="45"/>
-      <c r="FV16" s="52"/>
-      <c r="FW16" s="48"/>
-      <c r="FX16" s="45"/>
-      <c r="FY16" s="45"/>
-      <c r="FZ16" s="45"/>
-      <c r="GA16" s="45"/>
-      <c r="GB16" s="45"/>
-      <c r="GC16" s="52"/>
+      <c r="FP16" s="46"/>
+      <c r="FQ16" s="43"/>
+      <c r="FR16" s="43"/>
+      <c r="FS16" s="43"/>
+      <c r="FT16" s="43"/>
+      <c r="FU16" s="43"/>
+      <c r="FV16" s="50"/>
+      <c r="FW16" s="46"/>
+      <c r="FX16" s="43"/>
+      <c r="FY16" s="43"/>
+      <c r="FZ16" s="43"/>
+      <c r="GA16" s="43"/>
+      <c r="GB16" s="43"/>
+      <c r="GC16" s="50"/>
       <c r="GD16" s="4"/>
       <c r="GJ16" s="3"/>
       <c r="GK16" s="4"/>
@@ -4164,30 +4206,32 @@
       <c r="HE16" s="3"/>
       <c r="HF16" s="4"/>
       <c r="HL16" s="3"/>
-      <c r="HM16" s="48"/>
-      <c r="HP16" s="31"/>
-      <c r="HR16" s="31"/>
+      <c r="HM16" s="46"/>
+      <c r="HP16" s="30"/>
+      <c r="HR16" s="30"/>
       <c r="HS16" s="3"/>
       <c r="HT16" s="4"/>
-      <c r="IA16" s="22"/>
-      <c r="IG16" s="23"/>
-      <c r="IH16" s="22"/>
-      <c r="IM16" s="23"/>
-      <c r="IN16" s="22"/>
-      <c r="IT16" s="23"/>
+      <c r="IA16" s="21"/>
+      <c r="IG16" s="22"/>
+      <c r="IH16" s="21"/>
+      <c r="IM16" s="22"/>
+      <c r="IN16" s="21"/>
+      <c r="IT16" s="22"/>
     </row>
     <row r="17" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C17" s="1">
         <v>100</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="45"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="43"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="4"/>
       <c r="X17" s="3"/>
@@ -4201,19 +4245,19 @@
       <c r="AZ17" s="3"/>
       <c r="BA17" s="4"/>
       <c r="BG17" s="3"/>
-      <c r="BH17" s="48"/>
-      <c r="BI17" s="45"/>
-      <c r="BJ17" s="45"/>
-      <c r="BK17" s="45"/>
-      <c r="BL17" s="45"/>
-      <c r="BM17" s="45"/>
-      <c r="BN17" s="52"/>
-      <c r="BO17" s="48"/>
-      <c r="BP17" s="45"/>
-      <c r="BQ17" s="45"/>
-      <c r="BR17" s="31"/>
+      <c r="BH17" s="46"/>
+      <c r="BI17" s="43"/>
+      <c r="BJ17" s="43"/>
+      <c r="BK17" s="43"/>
+      <c r="BL17" s="43"/>
+      <c r="BM17" s="43"/>
+      <c r="BN17" s="50"/>
+      <c r="BO17" s="46"/>
+      <c r="BP17" s="43"/>
+      <c r="BQ17" s="43"/>
+      <c r="BR17" s="30"/>
       <c r="BU17" s="3"/>
-      <c r="BV17" s="48"/>
+      <c r="BV17" s="46"/>
       <c r="CB17" s="3"/>
       <c r="CC17" s="4"/>
       <c r="CI17" s="3"/>
@@ -4222,17 +4266,17 @@
       <c r="CQ17" s="4"/>
       <c r="CW17" s="3"/>
       <c r="CX17" s="4"/>
-      <c r="DE17" s="22"/>
+      <c r="DE17" s="21"/>
       <c r="DK17" s="3"/>
       <c r="DL17" s="4"/>
-      <c r="DR17" s="23"/>
+      <c r="DR17" s="22"/>
       <c r="DY17" s="3"/>
       <c r="DZ17" s="4"/>
       <c r="EF17" s="3"/>
       <c r="EG17" s="4"/>
       <c r="EM17" s="3"/>
       <c r="EN17" s="4"/>
-      <c r="EP17" s="45"/>
+      <c r="EP17" s="43"/>
       <c r="ET17" s="3"/>
       <c r="EU17" s="4"/>
       <c r="FA17" s="3"/>
@@ -4240,20 +4284,20 @@
       <c r="FH17" s="3"/>
       <c r="FI17" s="4"/>
       <c r="FO17" s="3"/>
-      <c r="FP17" s="48"/>
-      <c r="FQ17" s="45"/>
-      <c r="FR17" s="45"/>
-      <c r="FS17" s="45"/>
-      <c r="FT17" s="45"/>
-      <c r="FU17" s="45"/>
-      <c r="FV17" s="52"/>
-      <c r="FW17" s="48"/>
-      <c r="FX17" s="45"/>
-      <c r="FY17" s="45"/>
-      <c r="FZ17" s="45"/>
-      <c r="GA17" s="45"/>
-      <c r="GB17" s="45"/>
-      <c r="GC17" s="52"/>
+      <c r="FP17" s="46"/>
+      <c r="FQ17" s="43"/>
+      <c r="FR17" s="43"/>
+      <c r="FS17" s="43"/>
+      <c r="FT17" s="43"/>
+      <c r="FU17" s="43"/>
+      <c r="FV17" s="50"/>
+      <c r="FW17" s="46"/>
+      <c r="FX17" s="43"/>
+      <c r="FY17" s="43"/>
+      <c r="FZ17" s="43"/>
+      <c r="GA17" s="43"/>
+      <c r="GB17" s="43"/>
+      <c r="GC17" s="50"/>
       <c r="GD17" s="4"/>
       <c r="GJ17" s="3"/>
       <c r="GK17" s="4"/>
@@ -4264,30 +4308,32 @@
       <c r="HE17" s="3"/>
       <c r="HF17" s="4"/>
       <c r="HL17" s="3"/>
-      <c r="HM17" s="48"/>
-      <c r="HP17" s="31"/>
-      <c r="HR17" s="31"/>
+      <c r="HM17" s="46"/>
+      <c r="HP17" s="30"/>
+      <c r="HR17" s="30"/>
       <c r="HS17" s="3"/>
       <c r="HT17" s="4"/>
-      <c r="IA17" s="22"/>
-      <c r="IG17" s="23"/>
-      <c r="IH17" s="22"/>
-      <c r="IM17" s="23"/>
-      <c r="IN17" s="22"/>
-      <c r="IT17" s="23"/>
+      <c r="IA17" s="21"/>
+      <c r="IG17" s="22"/>
+      <c r="IH17" s="21"/>
+      <c r="IM17" s="22"/>
+      <c r="IN17" s="21"/>
+      <c r="IT17" s="22"/>
     </row>
     <row r="18" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A18" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="1"/>
+      <c r="A18" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C18" s="1">
         <v>100</v>
       </c>
+      <c r="G18" s="5"/>
       <c r="J18" s="3"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="45"/>
+      <c r="M18" s="64"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="4"/>
       <c r="X18" s="3"/>
@@ -4301,19 +4347,19 @@
       <c r="AZ18" s="3"/>
       <c r="BA18" s="4"/>
       <c r="BG18" s="3"/>
-      <c r="BH18" s="48"/>
-      <c r="BI18" s="45"/>
-      <c r="BJ18" s="45"/>
-      <c r="BK18" s="45"/>
-      <c r="BL18" s="45"/>
-      <c r="BM18" s="45"/>
-      <c r="BN18" s="52"/>
-      <c r="BO18" s="48"/>
-      <c r="BP18" s="45"/>
-      <c r="BQ18" s="45"/>
-      <c r="BR18" s="31"/>
+      <c r="BH18" s="46"/>
+      <c r="BI18" s="43"/>
+      <c r="BJ18" s="43"/>
+      <c r="BK18" s="43"/>
+      <c r="BL18" s="43"/>
+      <c r="BM18" s="43"/>
+      <c r="BN18" s="50"/>
+      <c r="BO18" s="46"/>
+      <c r="BP18" s="43"/>
+      <c r="BQ18" s="43"/>
+      <c r="BR18" s="30"/>
       <c r="BU18" s="3"/>
-      <c r="BV18" s="48"/>
+      <c r="BV18" s="46"/>
       <c r="CB18" s="3"/>
       <c r="CC18" s="4"/>
       <c r="CI18" s="3"/>
@@ -4322,17 +4368,17 @@
       <c r="CQ18" s="4"/>
       <c r="CW18" s="3"/>
       <c r="CX18" s="4"/>
-      <c r="DE18" s="22"/>
+      <c r="DE18" s="21"/>
       <c r="DK18" s="3"/>
       <c r="DL18" s="4"/>
-      <c r="DR18" s="23"/>
+      <c r="DR18" s="22"/>
       <c r="DY18" s="3"/>
       <c r="DZ18" s="4"/>
       <c r="EF18" s="3"/>
       <c r="EG18" s="4"/>
       <c r="EM18" s="3"/>
       <c r="EN18" s="4"/>
-      <c r="EP18" s="45"/>
+      <c r="EP18" s="43"/>
       <c r="ET18" s="3"/>
       <c r="EU18" s="4"/>
       <c r="FA18" s="3"/>
@@ -4340,20 +4386,20 @@
       <c r="FH18" s="3"/>
       <c r="FI18" s="4"/>
       <c r="FO18" s="3"/>
-      <c r="FP18" s="48"/>
-      <c r="FQ18" s="45"/>
-      <c r="FR18" s="45"/>
-      <c r="FS18" s="45"/>
-      <c r="FT18" s="45"/>
-      <c r="FU18" s="45"/>
-      <c r="FV18" s="52"/>
-      <c r="FW18" s="48"/>
-      <c r="FX18" s="45"/>
-      <c r="FY18" s="45"/>
-      <c r="FZ18" s="45"/>
-      <c r="GA18" s="45"/>
-      <c r="GB18" s="45"/>
-      <c r="GC18" s="52"/>
+      <c r="FP18" s="46"/>
+      <c r="FQ18" s="43"/>
+      <c r="FR18" s="43"/>
+      <c r="FS18" s="43"/>
+      <c r="FT18" s="43"/>
+      <c r="FU18" s="43"/>
+      <c r="FV18" s="50"/>
+      <c r="FW18" s="46"/>
+      <c r="FX18" s="43"/>
+      <c r="FY18" s="43"/>
+      <c r="FZ18" s="43"/>
+      <c r="GA18" s="43"/>
+      <c r="GB18" s="43"/>
+      <c r="GC18" s="50"/>
       <c r="GD18" s="4"/>
       <c r="GJ18" s="3"/>
       <c r="GK18" s="4"/>
@@ -4364,38 +4410,48 @@
       <c r="HE18" s="3"/>
       <c r="HF18" s="4"/>
       <c r="HL18" s="3"/>
-      <c r="HM18" s="48"/>
-      <c r="HP18" s="31"/>
-      <c r="HR18" s="31"/>
+      <c r="HM18" s="46"/>
+      <c r="HP18" s="30"/>
+      <c r="HR18" s="30"/>
       <c r="HS18" s="3"/>
       <c r="HT18" s="4"/>
-      <c r="IA18" s="22"/>
-      <c r="IG18" s="23"/>
-      <c r="IH18" s="22"/>
-      <c r="IM18" s="23"/>
-      <c r="IN18" s="22"/>
-      <c r="IT18" s="23"/>
+      <c r="IA18" s="21"/>
+      <c r="IG18" s="22"/>
+      <c r="IH18" s="21"/>
+      <c r="IM18" s="22"/>
+      <c r="IN18" s="21"/>
+      <c r="IT18" s="22"/>
     </row>
     <row r="19" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="1"/>
+      <c r="A19" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C19" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="60"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="4"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="4"/>
+      <c r="M19" s="43"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="4"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="58"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="4"/>
       <c r="AS19" s="3"/>
@@ -4403,19 +4459,19 @@
       <c r="AZ19" s="3"/>
       <c r="BA19" s="4"/>
       <c r="BG19" s="3"/>
-      <c r="BH19" s="48"/>
-      <c r="BI19" s="45"/>
-      <c r="BJ19" s="45"/>
-      <c r="BK19" s="45"/>
-      <c r="BL19" s="45"/>
-      <c r="BM19" s="45"/>
-      <c r="BN19" s="52"/>
-      <c r="BO19" s="48"/>
-      <c r="BP19" s="45"/>
-      <c r="BQ19" s="45"/>
-      <c r="BR19" s="31"/>
+      <c r="BH19" s="46"/>
+      <c r="BI19" s="43"/>
+      <c r="BJ19" s="43"/>
+      <c r="BK19" s="43"/>
+      <c r="BL19" s="43"/>
+      <c r="BM19" s="43"/>
+      <c r="BN19" s="50"/>
+      <c r="BO19" s="46"/>
+      <c r="BP19" s="43"/>
+      <c r="BQ19" s="43"/>
+      <c r="BR19" s="30"/>
       <c r="BU19" s="3"/>
-      <c r="BV19" s="48"/>
+      <c r="BV19" s="46"/>
       <c r="CB19" s="3"/>
       <c r="CC19" s="4"/>
       <c r="CI19" s="3"/>
@@ -4424,17 +4480,17 @@
       <c r="CQ19" s="4"/>
       <c r="CW19" s="3"/>
       <c r="CX19" s="4"/>
-      <c r="DE19" s="22"/>
+      <c r="DE19" s="21"/>
       <c r="DK19" s="3"/>
       <c r="DL19" s="4"/>
-      <c r="DR19" s="23"/>
+      <c r="DR19" s="22"/>
       <c r="DY19" s="3"/>
       <c r="DZ19" s="4"/>
       <c r="EF19" s="3"/>
       <c r="EG19" s="4"/>
       <c r="EM19" s="3"/>
       <c r="EN19" s="4"/>
-      <c r="EP19" s="45"/>
+      <c r="EP19" s="43"/>
       <c r="ET19" s="3"/>
       <c r="EU19" s="4"/>
       <c r="FA19" s="3"/>
@@ -4442,20 +4498,20 @@
       <c r="FH19" s="3"/>
       <c r="FI19" s="4"/>
       <c r="FO19" s="3"/>
-      <c r="FP19" s="48"/>
-      <c r="FQ19" s="45"/>
-      <c r="FR19" s="45"/>
-      <c r="FS19" s="45"/>
-      <c r="FT19" s="45"/>
-      <c r="FU19" s="45"/>
-      <c r="FV19" s="52"/>
-      <c r="FW19" s="48"/>
-      <c r="FX19" s="45"/>
-      <c r="FY19" s="45"/>
-      <c r="FZ19" s="45"/>
-      <c r="GA19" s="45"/>
-      <c r="GB19" s="45"/>
-      <c r="GC19" s="52"/>
+      <c r="FP19" s="46"/>
+      <c r="FQ19" s="43"/>
+      <c r="FR19" s="43"/>
+      <c r="FS19" s="43"/>
+      <c r="FT19" s="43"/>
+      <c r="FU19" s="43"/>
+      <c r="FV19" s="50"/>
+      <c r="FW19" s="46"/>
+      <c r="FX19" s="43"/>
+      <c r="FY19" s="43"/>
+      <c r="FZ19" s="43"/>
+      <c r="GA19" s="43"/>
+      <c r="GB19" s="43"/>
+      <c r="GC19" s="50"/>
       <c r="GD19" s="4"/>
       <c r="GJ19" s="3"/>
       <c r="GK19" s="4"/>
@@ -4466,30 +4522,31 @@
       <c r="HE19" s="3"/>
       <c r="HF19" s="4"/>
       <c r="HL19" s="3"/>
-      <c r="HM19" s="48"/>
-      <c r="HP19" s="31"/>
-      <c r="HR19" s="31"/>
+      <c r="HM19" s="46"/>
+      <c r="HP19" s="30"/>
+      <c r="HR19" s="30"/>
       <c r="HS19" s="3"/>
       <c r="HT19" s="4"/>
-      <c r="IA19" s="22"/>
-      <c r="IG19" s="23"/>
-      <c r="IH19" s="22"/>
-      <c r="IM19" s="23"/>
-      <c r="IN19" s="22"/>
-      <c r="IT19" s="23"/>
+      <c r="IA19" s="21"/>
+      <c r="IG19" s="22"/>
+      <c r="IH19" s="21"/>
+      <c r="IM19" s="22"/>
+      <c r="IN19" s="21"/>
+      <c r="IT19" s="22"/>
     </row>
     <row r="20" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="1"/>
       <c r="C20" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="45"/>
+      <c r="M20" s="43"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="4"/>
       <c r="X20" s="3"/>
@@ -4503,19 +4560,19 @@
       <c r="AZ20" s="3"/>
       <c r="BA20" s="4"/>
       <c r="BG20" s="3"/>
-      <c r="BH20" s="48"/>
-      <c r="BI20" s="45"/>
-      <c r="BJ20" s="45"/>
-      <c r="BK20" s="45"/>
-      <c r="BL20" s="45"/>
-      <c r="BM20" s="45"/>
-      <c r="BN20" s="52"/>
-      <c r="BO20" s="48"/>
-      <c r="BP20" s="45"/>
-      <c r="BQ20" s="45"/>
-      <c r="BR20" s="31"/>
+      <c r="BH20" s="46"/>
+      <c r="BI20" s="43"/>
+      <c r="BJ20" s="43"/>
+      <c r="BK20" s="43"/>
+      <c r="BL20" s="43"/>
+      <c r="BM20" s="43"/>
+      <c r="BN20" s="50"/>
+      <c r="BO20" s="46"/>
+      <c r="BP20" s="43"/>
+      <c r="BQ20" s="43"/>
+      <c r="BR20" s="30"/>
       <c r="BU20" s="3"/>
-      <c r="BV20" s="48"/>
+      <c r="BV20" s="46"/>
       <c r="CB20" s="3"/>
       <c r="CC20" s="4"/>
       <c r="CI20" s="3"/>
@@ -4524,17 +4581,17 @@
       <c r="CQ20" s="4"/>
       <c r="CW20" s="3"/>
       <c r="CX20" s="4"/>
-      <c r="DE20" s="22"/>
+      <c r="DE20" s="21"/>
       <c r="DK20" s="3"/>
       <c r="DL20" s="4"/>
-      <c r="DR20" s="23"/>
+      <c r="DR20" s="22"/>
       <c r="DY20" s="3"/>
       <c r="DZ20" s="4"/>
       <c r="EF20" s="3"/>
       <c r="EG20" s="4"/>
       <c r="EM20" s="3"/>
       <c r="EN20" s="4"/>
-      <c r="EP20" s="45"/>
+      <c r="EP20" s="43"/>
       <c r="ET20" s="3"/>
       <c r="EU20" s="4"/>
       <c r="FA20" s="3"/>
@@ -4542,20 +4599,20 @@
       <c r="FH20" s="3"/>
       <c r="FI20" s="4"/>
       <c r="FO20" s="3"/>
-      <c r="FP20" s="48"/>
-      <c r="FQ20" s="45"/>
-      <c r="FR20" s="45"/>
-      <c r="FS20" s="45"/>
-      <c r="FT20" s="45"/>
-      <c r="FU20" s="45"/>
-      <c r="FV20" s="52"/>
-      <c r="FW20" s="48"/>
-      <c r="FX20" s="45"/>
-      <c r="FY20" s="45"/>
-      <c r="FZ20" s="45"/>
-      <c r="GA20" s="45"/>
-      <c r="GB20" s="45"/>
-      <c r="GC20" s="52"/>
+      <c r="FP20" s="46"/>
+      <c r="FQ20" s="43"/>
+      <c r="FR20" s="43"/>
+      <c r="FS20" s="43"/>
+      <c r="FT20" s="43"/>
+      <c r="FU20" s="43"/>
+      <c r="FV20" s="50"/>
+      <c r="FW20" s="46"/>
+      <c r="FX20" s="43"/>
+      <c r="FY20" s="43"/>
+      <c r="FZ20" s="43"/>
+      <c r="GA20" s="43"/>
+      <c r="GB20" s="43"/>
+      <c r="GC20" s="50"/>
       <c r="GD20" s="4"/>
       <c r="GJ20" s="3"/>
       <c r="GK20" s="4"/>
@@ -4566,30 +4623,29 @@
       <c r="HE20" s="3"/>
       <c r="HF20" s="4"/>
       <c r="HL20" s="3"/>
-      <c r="HM20" s="48"/>
-      <c r="HP20" s="31"/>
-      <c r="HR20" s="31"/>
+      <c r="HM20" s="46"/>
+      <c r="HP20" s="30"/>
+      <c r="HR20" s="30"/>
       <c r="HS20" s="3"/>
       <c r="HT20" s="4"/>
-      <c r="IA20" s="22"/>
-      <c r="IG20" s="23"/>
-      <c r="IH20" s="22"/>
-      <c r="IM20" s="23"/>
-      <c r="IN20" s="22"/>
-      <c r="IT20" s="23"/>
+      <c r="IA20" s="21"/>
+      <c r="IG20" s="22"/>
+      <c r="IH20" s="21"/>
+      <c r="IM20" s="22"/>
+      <c r="IN20" s="21"/>
+      <c r="IT20" s="22"/>
     </row>
     <row r="21" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A21" s="37" t="s">
-        <v>67</v>
+      <c r="A21" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="45"/>
+      <c r="M21" s="43"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="4"/>
       <c r="X21" s="3"/>
@@ -4603,19 +4659,19 @@
       <c r="AZ21" s="3"/>
       <c r="BA21" s="4"/>
       <c r="BG21" s="3"/>
-      <c r="BH21" s="48"/>
-      <c r="BI21" s="45"/>
-      <c r="BJ21" s="45"/>
-      <c r="BK21" s="45"/>
-      <c r="BL21" s="45"/>
-      <c r="BM21" s="45"/>
-      <c r="BN21" s="52"/>
-      <c r="BO21" s="48"/>
-      <c r="BP21" s="45"/>
-      <c r="BQ21" s="45"/>
-      <c r="BR21" s="31"/>
+      <c r="BH21" s="46"/>
+      <c r="BI21" s="43"/>
+      <c r="BJ21" s="43"/>
+      <c r="BK21" s="43"/>
+      <c r="BL21" s="43"/>
+      <c r="BM21" s="43"/>
+      <c r="BN21" s="50"/>
+      <c r="BO21" s="46"/>
+      <c r="BP21" s="43"/>
+      <c r="BQ21" s="43"/>
+      <c r="BR21" s="30"/>
       <c r="BU21" s="3"/>
-      <c r="BV21" s="48"/>
+      <c r="BV21" s="46"/>
       <c r="CB21" s="3"/>
       <c r="CC21" s="4"/>
       <c r="CI21" s="3"/>
@@ -4624,17 +4680,17 @@
       <c r="CQ21" s="4"/>
       <c r="CW21" s="3"/>
       <c r="CX21" s="4"/>
-      <c r="DE21" s="22"/>
+      <c r="DE21" s="21"/>
       <c r="DK21" s="3"/>
       <c r="DL21" s="4"/>
-      <c r="DR21" s="23"/>
+      <c r="DR21" s="22"/>
       <c r="DY21" s="3"/>
       <c r="DZ21" s="4"/>
       <c r="EF21" s="3"/>
       <c r="EG21" s="4"/>
       <c r="EM21" s="3"/>
       <c r="EN21" s="4"/>
-      <c r="EP21" s="45"/>
+      <c r="EP21" s="43"/>
       <c r="ET21" s="3"/>
       <c r="EU21" s="4"/>
       <c r="FA21" s="3"/>
@@ -4642,20 +4698,20 @@
       <c r="FH21" s="3"/>
       <c r="FI21" s="4"/>
       <c r="FO21" s="3"/>
-      <c r="FP21" s="48"/>
-      <c r="FQ21" s="45"/>
-      <c r="FR21" s="45"/>
-      <c r="FS21" s="45"/>
-      <c r="FT21" s="45"/>
-      <c r="FU21" s="45"/>
-      <c r="FV21" s="52"/>
-      <c r="FW21" s="48"/>
-      <c r="FX21" s="45"/>
-      <c r="FY21" s="45"/>
-      <c r="FZ21" s="45"/>
-      <c r="GA21" s="45"/>
-      <c r="GB21" s="45"/>
-      <c r="GC21" s="52"/>
+      <c r="FP21" s="46"/>
+      <c r="FQ21" s="43"/>
+      <c r="FR21" s="43"/>
+      <c r="FS21" s="43"/>
+      <c r="FT21" s="43"/>
+      <c r="FU21" s="43"/>
+      <c r="FV21" s="50"/>
+      <c r="FW21" s="46"/>
+      <c r="FX21" s="43"/>
+      <c r="FY21" s="43"/>
+      <c r="FZ21" s="43"/>
+      <c r="GA21" s="43"/>
+      <c r="GB21" s="43"/>
+      <c r="GC21" s="50"/>
       <c r="GD21" s="4"/>
       <c r="GJ21" s="3"/>
       <c r="GK21" s="4"/>
@@ -4666,25 +4722,29 @@
       <c r="HE21" s="3"/>
       <c r="HF21" s="4"/>
       <c r="HL21" s="3"/>
-      <c r="HM21" s="48"/>
-      <c r="HP21" s="31"/>
-      <c r="HR21" s="31"/>
+      <c r="HM21" s="46"/>
+      <c r="HP21" s="30"/>
+      <c r="HR21" s="30"/>
       <c r="HS21" s="3"/>
       <c r="HT21" s="4"/>
-      <c r="IA21" s="22"/>
-      <c r="IG21" s="23"/>
-      <c r="IH21" s="22"/>
-      <c r="IM21" s="23"/>
-      <c r="IN21" s="22"/>
-      <c r="IT21" s="23"/>
+      <c r="IA21" s="21"/>
+      <c r="IG21" s="22"/>
+      <c r="IH21" s="21"/>
+      <c r="IM21" s="22"/>
+      <c r="IN21" s="21"/>
+      <c r="IT21" s="22"/>
     </row>
     <row r="22" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A22" s="37"/>
+      <c r="A22" s="36" t="s">
+        <v>74</v>
+      </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
-      <c r="M22" s="45"/>
+      <c r="M22" s="43"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="4"/>
       <c r="X22" s="3"/>
@@ -4698,19 +4758,19 @@
       <c r="AZ22" s="3"/>
       <c r="BA22" s="4"/>
       <c r="BG22" s="3"/>
-      <c r="BH22" s="48"/>
-      <c r="BI22" s="45"/>
-      <c r="BJ22" s="45"/>
-      <c r="BK22" s="45"/>
-      <c r="BL22" s="45"/>
-      <c r="BM22" s="45"/>
-      <c r="BN22" s="52"/>
-      <c r="BO22" s="48"/>
-      <c r="BP22" s="45"/>
-      <c r="BQ22" s="45"/>
-      <c r="BR22" s="31"/>
+      <c r="BH22" s="46"/>
+      <c r="BI22" s="43"/>
+      <c r="BJ22" s="43"/>
+      <c r="BK22" s="43"/>
+      <c r="BL22" s="43"/>
+      <c r="BM22" s="43"/>
+      <c r="BN22" s="50"/>
+      <c r="BO22" s="46"/>
+      <c r="BP22" s="43"/>
+      <c r="BQ22" s="43"/>
+      <c r="BR22" s="30"/>
       <c r="BU22" s="3"/>
-      <c r="BV22" s="48"/>
+      <c r="BV22" s="46"/>
       <c r="CB22" s="3"/>
       <c r="CC22" s="4"/>
       <c r="CI22" s="3"/>
@@ -4719,17 +4779,17 @@
       <c r="CQ22" s="4"/>
       <c r="CW22" s="3"/>
       <c r="CX22" s="4"/>
-      <c r="DE22" s="22"/>
+      <c r="DE22" s="21"/>
       <c r="DK22" s="3"/>
       <c r="DL22" s="4"/>
-      <c r="DR22" s="23"/>
+      <c r="DR22" s="22"/>
       <c r="DY22" s="3"/>
       <c r="DZ22" s="4"/>
       <c r="EF22" s="3"/>
       <c r="EG22" s="4"/>
       <c r="EM22" s="3"/>
       <c r="EN22" s="4"/>
-      <c r="EP22" s="45"/>
+      <c r="EP22" s="43"/>
       <c r="ET22" s="3"/>
       <c r="EU22" s="4"/>
       <c r="FA22" s="3"/>
@@ -4737,20 +4797,20 @@
       <c r="FH22" s="3"/>
       <c r="FI22" s="4"/>
       <c r="FO22" s="3"/>
-      <c r="FP22" s="48"/>
-      <c r="FQ22" s="45"/>
-      <c r="FR22" s="45"/>
-      <c r="FS22" s="45"/>
-      <c r="FT22" s="45"/>
-      <c r="FU22" s="45"/>
-      <c r="FV22" s="52"/>
-      <c r="FW22" s="48"/>
-      <c r="FX22" s="45"/>
-      <c r="FY22" s="45"/>
-      <c r="FZ22" s="45"/>
-      <c r="GA22" s="45"/>
-      <c r="GB22" s="45"/>
-      <c r="GC22" s="52"/>
+      <c r="FP22" s="46"/>
+      <c r="FQ22" s="43"/>
+      <c r="FR22" s="43"/>
+      <c r="FS22" s="43"/>
+      <c r="FT22" s="43"/>
+      <c r="FU22" s="43"/>
+      <c r="FV22" s="50"/>
+      <c r="FW22" s="46"/>
+      <c r="FX22" s="43"/>
+      <c r="FY22" s="43"/>
+      <c r="FZ22" s="43"/>
+      <c r="GA22" s="43"/>
+      <c r="GB22" s="43"/>
+      <c r="GC22" s="50"/>
       <c r="GD22" s="4"/>
       <c r="GJ22" s="3"/>
       <c r="GK22" s="4"/>
@@ -4761,26 +4821,29 @@
       <c r="HE22" s="3"/>
       <c r="HF22" s="4"/>
       <c r="HL22" s="3"/>
-      <c r="HM22" s="48"/>
-      <c r="HP22" s="31"/>
-      <c r="HR22" s="31"/>
+      <c r="HM22" s="46"/>
+      <c r="HP22" s="30"/>
+      <c r="HR22" s="30"/>
       <c r="HS22" s="3"/>
       <c r="HT22" s="4"/>
-      <c r="IA22" s="22"/>
-      <c r="IG22" s="23"/>
-      <c r="IH22" s="22"/>
-      <c r="IM22" s="23"/>
-      <c r="IN22" s="22"/>
-      <c r="IT22" s="23"/>
+      <c r="IA22" s="21"/>
+      <c r="IG22" s="22"/>
+      <c r="IH22" s="21"/>
+      <c r="IM22" s="22"/>
+      <c r="IN22" s="21"/>
+      <c r="IT22" s="22"/>
     </row>
     <row r="23" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A23" s="37"/>
+      <c r="A23" s="36" t="s">
+        <v>75</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="G23" s="5"/>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="4"/>
-      <c r="M23" s="45"/>
+      <c r="M23" s="43"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="4"/>
       <c r="X23" s="3"/>
@@ -4794,19 +4857,19 @@
       <c r="AZ23" s="3"/>
       <c r="BA23" s="4"/>
       <c r="BG23" s="3"/>
-      <c r="BH23" s="48"/>
-      <c r="BI23" s="45"/>
-      <c r="BJ23" s="45"/>
-      <c r="BK23" s="45"/>
-      <c r="BL23" s="45"/>
-      <c r="BM23" s="45"/>
-      <c r="BN23" s="52"/>
-      <c r="BO23" s="48"/>
-      <c r="BP23" s="45"/>
-      <c r="BQ23" s="45"/>
-      <c r="BR23" s="31"/>
+      <c r="BH23" s="46"/>
+      <c r="BI23" s="43"/>
+      <c r="BJ23" s="43"/>
+      <c r="BK23" s="43"/>
+      <c r="BL23" s="43"/>
+      <c r="BM23" s="43"/>
+      <c r="BN23" s="50"/>
+      <c r="BO23" s="46"/>
+      <c r="BP23" s="43"/>
+      <c r="BQ23" s="43"/>
+      <c r="BR23" s="30"/>
       <c r="BU23" s="3"/>
-      <c r="BV23" s="48"/>
+      <c r="BV23" s="46"/>
       <c r="CB23" s="3"/>
       <c r="CC23" s="4"/>
       <c r="CI23" s="3"/>
@@ -4815,17 +4878,17 @@
       <c r="CQ23" s="4"/>
       <c r="CW23" s="3"/>
       <c r="CX23" s="4"/>
-      <c r="DE23" s="22"/>
+      <c r="DE23" s="21"/>
       <c r="DK23" s="3"/>
       <c r="DL23" s="4"/>
-      <c r="DR23" s="23"/>
+      <c r="DR23" s="22"/>
       <c r="DY23" s="3"/>
       <c r="DZ23" s="4"/>
       <c r="EF23" s="3"/>
       <c r="EG23" s="4"/>
       <c r="EM23" s="3"/>
       <c r="EN23" s="4"/>
-      <c r="EP23" s="45"/>
+      <c r="EP23" s="43"/>
       <c r="ET23" s="3"/>
       <c r="EU23" s="4"/>
       <c r="FA23" s="3"/>
@@ -4833,20 +4896,20 @@
       <c r="FH23" s="3"/>
       <c r="FI23" s="4"/>
       <c r="FO23" s="3"/>
-      <c r="FP23" s="48"/>
-      <c r="FQ23" s="45"/>
-      <c r="FR23" s="45"/>
-      <c r="FS23" s="45"/>
-      <c r="FT23" s="45"/>
-      <c r="FU23" s="45"/>
-      <c r="FV23" s="52"/>
-      <c r="FW23" s="48"/>
-      <c r="FX23" s="45"/>
-      <c r="FY23" s="45"/>
-      <c r="FZ23" s="45"/>
-      <c r="GA23" s="45"/>
-      <c r="GB23" s="45"/>
-      <c r="GC23" s="52"/>
+      <c r="FP23" s="46"/>
+      <c r="FQ23" s="43"/>
+      <c r="FR23" s="43"/>
+      <c r="FS23" s="43"/>
+      <c r="FT23" s="43"/>
+      <c r="FU23" s="43"/>
+      <c r="FV23" s="50"/>
+      <c r="FW23" s="46"/>
+      <c r="FX23" s="43"/>
+      <c r="FY23" s="43"/>
+      <c r="FZ23" s="43"/>
+      <c r="GA23" s="43"/>
+      <c r="GB23" s="43"/>
+      <c r="GC23" s="50"/>
       <c r="GD23" s="4"/>
       <c r="GJ23" s="3"/>
       <c r="GK23" s="4"/>
@@ -4857,25 +4920,25 @@
       <c r="HE23" s="3"/>
       <c r="HF23" s="4"/>
       <c r="HL23" s="3"/>
-      <c r="HM23" s="48"/>
-      <c r="HP23" s="31"/>
-      <c r="HR23" s="31"/>
+      <c r="HM23" s="46"/>
+      <c r="HP23" s="30"/>
+      <c r="HR23" s="30"/>
       <c r="HS23" s="3"/>
       <c r="HT23" s="4"/>
-      <c r="IA23" s="22"/>
-      <c r="IG23" s="23"/>
-      <c r="IH23" s="22"/>
-      <c r="IM23" s="23"/>
-      <c r="IN23" s="22"/>
-      <c r="IT23" s="23"/>
+      <c r="IA23" s="21"/>
+      <c r="IG23" s="22"/>
+      <c r="IH23" s="21"/>
+      <c r="IM23" s="22"/>
+      <c r="IN23" s="21"/>
+      <c r="IT23" s="22"/>
     </row>
     <row r="24" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A24" s="37"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="J24" s="3"/>
       <c r="K24" s="4"/>
-      <c r="M24" s="45"/>
+      <c r="M24" s="43"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="4"/>
       <c r="X24" s="3"/>
@@ -4889,19 +4952,19 @@
       <c r="AZ24" s="3"/>
       <c r="BA24" s="4"/>
       <c r="BG24" s="3"/>
-      <c r="BH24" s="48"/>
-      <c r="BI24" s="45"/>
-      <c r="BJ24" s="45"/>
-      <c r="BK24" s="45"/>
-      <c r="BL24" s="45"/>
-      <c r="BM24" s="45"/>
-      <c r="BN24" s="52"/>
-      <c r="BO24" s="48"/>
-      <c r="BP24" s="45"/>
-      <c r="BQ24" s="45"/>
-      <c r="BR24" s="31"/>
+      <c r="BH24" s="46"/>
+      <c r="BI24" s="43"/>
+      <c r="BJ24" s="43"/>
+      <c r="BK24" s="43"/>
+      <c r="BL24" s="43"/>
+      <c r="BM24" s="43"/>
+      <c r="BN24" s="50"/>
+      <c r="BO24" s="46"/>
+      <c r="BP24" s="43"/>
+      <c r="BQ24" s="43"/>
+      <c r="BR24" s="30"/>
       <c r="BU24" s="3"/>
-      <c r="BV24" s="48"/>
+      <c r="BV24" s="46"/>
       <c r="CB24" s="3"/>
       <c r="CC24" s="4"/>
       <c r="CI24" s="3"/>
@@ -4910,17 +4973,17 @@
       <c r="CQ24" s="4"/>
       <c r="CW24" s="3"/>
       <c r="CX24" s="4"/>
-      <c r="DE24" s="22"/>
+      <c r="DE24" s="21"/>
       <c r="DK24" s="3"/>
       <c r="DL24" s="4"/>
-      <c r="DR24" s="23"/>
+      <c r="DR24" s="22"/>
       <c r="DY24" s="3"/>
       <c r="DZ24" s="4"/>
       <c r="EF24" s="3"/>
       <c r="EG24" s="4"/>
       <c r="EM24" s="3"/>
       <c r="EN24" s="4"/>
-      <c r="EP24" s="45"/>
+      <c r="EP24" s="43"/>
       <c r="ET24" s="3"/>
       <c r="EU24" s="4"/>
       <c r="FA24" s="3"/>
@@ -4928,20 +4991,20 @@
       <c r="FH24" s="3"/>
       <c r="FI24" s="4"/>
       <c r="FO24" s="3"/>
-      <c r="FP24" s="48"/>
-      <c r="FQ24" s="45"/>
-      <c r="FR24" s="45"/>
-      <c r="FS24" s="45"/>
-      <c r="FT24" s="45"/>
-      <c r="FU24" s="45"/>
-      <c r="FV24" s="52"/>
-      <c r="FW24" s="48"/>
-      <c r="FX24" s="45"/>
-      <c r="FY24" s="45"/>
-      <c r="FZ24" s="45"/>
-      <c r="GA24" s="45"/>
-      <c r="GB24" s="45"/>
-      <c r="GC24" s="52"/>
+      <c r="FP24" s="46"/>
+      <c r="FQ24" s="43"/>
+      <c r="FR24" s="43"/>
+      <c r="FS24" s="43"/>
+      <c r="FT24" s="43"/>
+      <c r="FU24" s="43"/>
+      <c r="FV24" s="50"/>
+      <c r="FW24" s="46"/>
+      <c r="FX24" s="43"/>
+      <c r="FY24" s="43"/>
+      <c r="FZ24" s="43"/>
+      <c r="GA24" s="43"/>
+      <c r="GB24" s="43"/>
+      <c r="GC24" s="50"/>
       <c r="GD24" s="4"/>
       <c r="GJ24" s="3"/>
       <c r="GK24" s="4"/>
@@ -4952,25 +5015,25 @@
       <c r="HE24" s="3"/>
       <c r="HF24" s="4"/>
       <c r="HL24" s="3"/>
-      <c r="HM24" s="48"/>
-      <c r="HP24" s="31"/>
-      <c r="HR24" s="31"/>
+      <c r="HM24" s="46"/>
+      <c r="HP24" s="30"/>
+      <c r="HR24" s="30"/>
       <c r="HS24" s="3"/>
       <c r="HT24" s="4"/>
-      <c r="IA24" s="22"/>
-      <c r="IG24" s="23"/>
-      <c r="IH24" s="22"/>
-      <c r="IM24" s="23"/>
-      <c r="IN24" s="22"/>
-      <c r="IT24" s="23"/>
+      <c r="IA24" s="21"/>
+      <c r="IG24" s="22"/>
+      <c r="IH24" s="21"/>
+      <c r="IM24" s="22"/>
+      <c r="IN24" s="21"/>
+      <c r="IT24" s="22"/>
     </row>
     <row r="25" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A25" s="37"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="J25" s="3"/>
       <c r="K25" s="4"/>
-      <c r="M25" s="45"/>
+      <c r="M25" s="43"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="4"/>
       <c r="X25" s="3"/>
@@ -4984,19 +5047,19 @@
       <c r="AZ25" s="3"/>
       <c r="BA25" s="4"/>
       <c r="BG25" s="3"/>
-      <c r="BH25" s="48"/>
-      <c r="BI25" s="45"/>
-      <c r="BJ25" s="45"/>
-      <c r="BK25" s="45"/>
-      <c r="BL25" s="45"/>
-      <c r="BM25" s="45"/>
-      <c r="BN25" s="52"/>
-      <c r="BO25" s="48"/>
-      <c r="BP25" s="45"/>
-      <c r="BQ25" s="45"/>
-      <c r="BR25" s="31"/>
+      <c r="BH25" s="46"/>
+      <c r="BI25" s="43"/>
+      <c r="BJ25" s="43"/>
+      <c r="BK25" s="43"/>
+      <c r="BL25" s="43"/>
+      <c r="BM25" s="43"/>
+      <c r="BN25" s="50"/>
+      <c r="BO25" s="46"/>
+      <c r="BP25" s="43"/>
+      <c r="BQ25" s="43"/>
+      <c r="BR25" s="30"/>
       <c r="BU25" s="3"/>
-      <c r="BV25" s="48"/>
+      <c r="BV25" s="46"/>
       <c r="CB25" s="3"/>
       <c r="CC25" s="4"/>
       <c r="CI25" s="3"/>
@@ -5005,17 +5068,17 @@
       <c r="CQ25" s="4"/>
       <c r="CW25" s="3"/>
       <c r="CX25" s="4"/>
-      <c r="DE25" s="22"/>
+      <c r="DE25" s="21"/>
       <c r="DK25" s="3"/>
       <c r="DL25" s="4"/>
-      <c r="DR25" s="23"/>
+      <c r="DR25" s="22"/>
       <c r="DY25" s="3"/>
       <c r="DZ25" s="4"/>
       <c r="EF25" s="3"/>
       <c r="EG25" s="4"/>
       <c r="EM25" s="3"/>
       <c r="EN25" s="4"/>
-      <c r="EP25" s="45"/>
+      <c r="EP25" s="43"/>
       <c r="ET25" s="3"/>
       <c r="EU25" s="4"/>
       <c r="FA25" s="3"/>
@@ -5023,20 +5086,20 @@
       <c r="FH25" s="3"/>
       <c r="FI25" s="4"/>
       <c r="FO25" s="3"/>
-      <c r="FP25" s="48"/>
-      <c r="FQ25" s="45"/>
-      <c r="FR25" s="45"/>
-      <c r="FS25" s="45"/>
-      <c r="FT25" s="45"/>
-      <c r="FU25" s="45"/>
-      <c r="FV25" s="52"/>
-      <c r="FW25" s="48"/>
-      <c r="FX25" s="45"/>
-      <c r="FY25" s="45"/>
-      <c r="FZ25" s="45"/>
-      <c r="GA25" s="45"/>
-      <c r="GB25" s="45"/>
-      <c r="GC25" s="52"/>
+      <c r="FP25" s="46"/>
+      <c r="FQ25" s="43"/>
+      <c r="FR25" s="43"/>
+      <c r="FS25" s="43"/>
+      <c r="FT25" s="43"/>
+      <c r="FU25" s="43"/>
+      <c r="FV25" s="50"/>
+      <c r="FW25" s="46"/>
+      <c r="FX25" s="43"/>
+      <c r="FY25" s="43"/>
+      <c r="FZ25" s="43"/>
+      <c r="GA25" s="43"/>
+      <c r="GB25" s="43"/>
+      <c r="GC25" s="50"/>
       <c r="GD25" s="4"/>
       <c r="GJ25" s="3"/>
       <c r="GK25" s="4"/>
@@ -5047,25 +5110,25 @@
       <c r="HE25" s="3"/>
       <c r="HF25" s="4"/>
       <c r="HL25" s="3"/>
-      <c r="HM25" s="48"/>
-      <c r="HP25" s="31"/>
-      <c r="HR25" s="31"/>
+      <c r="HM25" s="46"/>
+      <c r="HP25" s="30"/>
+      <c r="HR25" s="30"/>
       <c r="HS25" s="3"/>
       <c r="HT25" s="4"/>
-      <c r="IA25" s="22"/>
-      <c r="IG25" s="23"/>
-      <c r="IH25" s="22"/>
-      <c r="IM25" s="23"/>
-      <c r="IN25" s="22"/>
-      <c r="IT25" s="23"/>
+      <c r="IA25" s="21"/>
+      <c r="IG25" s="22"/>
+      <c r="IH25" s="21"/>
+      <c r="IM25" s="22"/>
+      <c r="IN25" s="21"/>
+      <c r="IT25" s="22"/>
     </row>
     <row r="26" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A26" s="37"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="J26" s="3"/>
       <c r="K26" s="4"/>
-      <c r="M26" s="45"/>
+      <c r="M26" s="43"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="4"/>
       <c r="X26" s="3"/>
@@ -5079,19 +5142,19 @@
       <c r="AZ26" s="3"/>
       <c r="BA26" s="4"/>
       <c r="BG26" s="3"/>
-      <c r="BH26" s="48"/>
-      <c r="BI26" s="45"/>
-      <c r="BJ26" s="45"/>
-      <c r="BK26" s="45"/>
-      <c r="BL26" s="45"/>
-      <c r="BM26" s="45"/>
-      <c r="BN26" s="52"/>
-      <c r="BO26" s="48"/>
-      <c r="BP26" s="45"/>
-      <c r="BQ26" s="45"/>
-      <c r="BR26" s="31"/>
+      <c r="BH26" s="46"/>
+      <c r="BI26" s="43"/>
+      <c r="BJ26" s="43"/>
+      <c r="BK26" s="43"/>
+      <c r="BL26" s="43"/>
+      <c r="BM26" s="43"/>
+      <c r="BN26" s="50"/>
+      <c r="BO26" s="46"/>
+      <c r="BP26" s="43"/>
+      <c r="BQ26" s="43"/>
+      <c r="BR26" s="30"/>
       <c r="BU26" s="3"/>
-      <c r="BV26" s="48"/>
+      <c r="BV26" s="46"/>
       <c r="CB26" s="3"/>
       <c r="CC26" s="4"/>
       <c r="CI26" s="3"/>
@@ -5100,17 +5163,17 @@
       <c r="CQ26" s="4"/>
       <c r="CW26" s="3"/>
       <c r="CX26" s="4"/>
-      <c r="DE26" s="22"/>
+      <c r="DE26" s="21"/>
       <c r="DK26" s="3"/>
       <c r="DL26" s="4"/>
-      <c r="DR26" s="23"/>
+      <c r="DR26" s="22"/>
       <c r="DY26" s="3"/>
       <c r="DZ26" s="4"/>
       <c r="EF26" s="3"/>
       <c r="EG26" s="4"/>
       <c r="EM26" s="3"/>
       <c r="EN26" s="4"/>
-      <c r="EP26" s="45"/>
+      <c r="EP26" s="43"/>
       <c r="ET26" s="3"/>
       <c r="EU26" s="4"/>
       <c r="FA26" s="3"/>
@@ -5118,20 +5181,20 @@
       <c r="FH26" s="3"/>
       <c r="FI26" s="4"/>
       <c r="FO26" s="3"/>
-      <c r="FP26" s="48"/>
-      <c r="FQ26" s="45"/>
-      <c r="FR26" s="45"/>
-      <c r="FS26" s="45"/>
-      <c r="FT26" s="45"/>
-      <c r="FU26" s="45"/>
-      <c r="FV26" s="52"/>
-      <c r="FW26" s="48"/>
-      <c r="FX26" s="45"/>
-      <c r="FY26" s="45"/>
-      <c r="FZ26" s="45"/>
-      <c r="GA26" s="45"/>
-      <c r="GB26" s="45"/>
-      <c r="GC26" s="52"/>
+      <c r="FP26" s="46"/>
+      <c r="FQ26" s="43"/>
+      <c r="FR26" s="43"/>
+      <c r="FS26" s="43"/>
+      <c r="FT26" s="43"/>
+      <c r="FU26" s="43"/>
+      <c r="FV26" s="50"/>
+      <c r="FW26" s="46"/>
+      <c r="FX26" s="43"/>
+      <c r="FY26" s="43"/>
+      <c r="FZ26" s="43"/>
+      <c r="GA26" s="43"/>
+      <c r="GB26" s="43"/>
+      <c r="GC26" s="50"/>
       <c r="GD26" s="4"/>
       <c r="GJ26" s="3"/>
       <c r="GK26" s="4"/>
@@ -5142,25 +5205,25 @@
       <c r="HE26" s="3"/>
       <c r="HF26" s="4"/>
       <c r="HL26" s="3"/>
-      <c r="HM26" s="48"/>
-      <c r="HP26" s="31"/>
-      <c r="HR26" s="31"/>
+      <c r="HM26" s="46"/>
+      <c r="HP26" s="30"/>
+      <c r="HR26" s="30"/>
       <c r="HS26" s="3"/>
       <c r="HT26" s="4"/>
-      <c r="IA26" s="22"/>
-      <c r="IG26" s="23"/>
-      <c r="IH26" s="22"/>
-      <c r="IM26" s="23"/>
-      <c r="IN26" s="22"/>
-      <c r="IT26" s="23"/>
+      <c r="IA26" s="21"/>
+      <c r="IG26" s="22"/>
+      <c r="IH26" s="21"/>
+      <c r="IM26" s="22"/>
+      <c r="IN26" s="21"/>
+      <c r="IT26" s="22"/>
     </row>
     <row r="27" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A27" s="37"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="J27" s="3"/>
       <c r="K27" s="4"/>
-      <c r="M27" s="45"/>
+      <c r="M27" s="43"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="4"/>
       <c r="X27" s="3"/>
@@ -5174,19 +5237,19 @@
       <c r="AZ27" s="3"/>
       <c r="BA27" s="4"/>
       <c r="BG27" s="3"/>
-      <c r="BH27" s="48"/>
-      <c r="BI27" s="45"/>
-      <c r="BJ27" s="45"/>
-      <c r="BK27" s="45"/>
-      <c r="BL27" s="45"/>
-      <c r="BM27" s="45"/>
-      <c r="BN27" s="52"/>
-      <c r="BO27" s="48"/>
-      <c r="BP27" s="45"/>
-      <c r="BQ27" s="45"/>
-      <c r="BR27" s="31"/>
+      <c r="BH27" s="46"/>
+      <c r="BI27" s="43"/>
+      <c r="BJ27" s="43"/>
+      <c r="BK27" s="43"/>
+      <c r="BL27" s="43"/>
+      <c r="BM27" s="43"/>
+      <c r="BN27" s="50"/>
+      <c r="BO27" s="46"/>
+      <c r="BP27" s="43"/>
+      <c r="BQ27" s="43"/>
+      <c r="BR27" s="30"/>
       <c r="BU27" s="3"/>
-      <c r="BV27" s="48"/>
+      <c r="BV27" s="46"/>
       <c r="CB27" s="3"/>
       <c r="CC27" s="4"/>
       <c r="CI27" s="3"/>
@@ -5195,17 +5258,17 @@
       <c r="CQ27" s="4"/>
       <c r="CW27" s="3"/>
       <c r="CX27" s="4"/>
-      <c r="DE27" s="22"/>
+      <c r="DE27" s="21"/>
       <c r="DK27" s="3"/>
       <c r="DL27" s="4"/>
-      <c r="DR27" s="23"/>
+      <c r="DR27" s="22"/>
       <c r="DY27" s="3"/>
       <c r="DZ27" s="4"/>
       <c r="EF27" s="3"/>
       <c r="EG27" s="4"/>
       <c r="EM27" s="3"/>
       <c r="EN27" s="4"/>
-      <c r="EP27" s="45"/>
+      <c r="EP27" s="43"/>
       <c r="ET27" s="3"/>
       <c r="EU27" s="4"/>
       <c r="FA27" s="3"/>
@@ -5213,20 +5276,20 @@
       <c r="FH27" s="3"/>
       <c r="FI27" s="4"/>
       <c r="FO27" s="3"/>
-      <c r="FP27" s="48"/>
-      <c r="FQ27" s="45"/>
-      <c r="FR27" s="45"/>
-      <c r="FS27" s="45"/>
-      <c r="FT27" s="45"/>
-      <c r="FU27" s="45"/>
-      <c r="FV27" s="52"/>
-      <c r="FW27" s="48"/>
-      <c r="FX27" s="45"/>
-      <c r="FY27" s="45"/>
-      <c r="FZ27" s="45"/>
-      <c r="GA27" s="45"/>
-      <c r="GB27" s="45"/>
-      <c r="GC27" s="52"/>
+      <c r="FP27" s="46"/>
+      <c r="FQ27" s="43"/>
+      <c r="FR27" s="43"/>
+      <c r="FS27" s="43"/>
+      <c r="FT27" s="43"/>
+      <c r="FU27" s="43"/>
+      <c r="FV27" s="50"/>
+      <c r="FW27" s="46"/>
+      <c r="FX27" s="43"/>
+      <c r="FY27" s="43"/>
+      <c r="FZ27" s="43"/>
+      <c r="GA27" s="43"/>
+      <c r="GB27" s="43"/>
+      <c r="GC27" s="50"/>
       <c r="GD27" s="4"/>
       <c r="GJ27" s="3"/>
       <c r="GK27" s="4"/>
@@ -5237,25 +5300,25 @@
       <c r="HE27" s="3"/>
       <c r="HF27" s="4"/>
       <c r="HL27" s="3"/>
-      <c r="HM27" s="48"/>
-      <c r="HP27" s="31"/>
-      <c r="HR27" s="31"/>
+      <c r="HM27" s="46"/>
+      <c r="HP27" s="30"/>
+      <c r="HR27" s="30"/>
       <c r="HS27" s="3"/>
       <c r="HT27" s="4"/>
-      <c r="IA27" s="22"/>
-      <c r="IG27" s="23"/>
-      <c r="IH27" s="22"/>
-      <c r="IM27" s="23"/>
-      <c r="IN27" s="22"/>
-      <c r="IT27" s="23"/>
+      <c r="IA27" s="21"/>
+      <c r="IG27" s="22"/>
+      <c r="IH27" s="21"/>
+      <c r="IM27" s="22"/>
+      <c r="IN27" s="21"/>
+      <c r="IT27" s="22"/>
     </row>
     <row r="28" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A28" s="37"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="J28" s="3"/>
       <c r="K28" s="4"/>
-      <c r="M28" s="45"/>
+      <c r="M28" s="43"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="4"/>
       <c r="X28" s="3"/>
@@ -5269,19 +5332,19 @@
       <c r="AZ28" s="3"/>
       <c r="BA28" s="4"/>
       <c r="BG28" s="3"/>
-      <c r="BH28" s="48"/>
-      <c r="BI28" s="45"/>
-      <c r="BJ28" s="45"/>
-      <c r="BK28" s="45"/>
-      <c r="BL28" s="45"/>
-      <c r="BM28" s="45"/>
-      <c r="BN28" s="52"/>
-      <c r="BO28" s="48"/>
-      <c r="BP28" s="45"/>
-      <c r="BQ28" s="45"/>
-      <c r="BR28" s="31"/>
+      <c r="BH28" s="46"/>
+      <c r="BI28" s="43"/>
+      <c r="BJ28" s="43"/>
+      <c r="BK28" s="43"/>
+      <c r="BL28" s="43"/>
+      <c r="BM28" s="43"/>
+      <c r="BN28" s="50"/>
+      <c r="BO28" s="46"/>
+      <c r="BP28" s="43"/>
+      <c r="BQ28" s="43"/>
+      <c r="BR28" s="30"/>
       <c r="BU28" s="3"/>
-      <c r="BV28" s="48"/>
+      <c r="BV28" s="46"/>
       <c r="CB28" s="3"/>
       <c r="CC28" s="4"/>
       <c r="CI28" s="3"/>
@@ -5290,17 +5353,17 @@
       <c r="CQ28" s="4"/>
       <c r="CW28" s="3"/>
       <c r="CX28" s="4"/>
-      <c r="DE28" s="22"/>
+      <c r="DE28" s="21"/>
       <c r="DK28" s="3"/>
       <c r="DL28" s="4"/>
-      <c r="DR28" s="23"/>
+      <c r="DR28" s="22"/>
       <c r="DY28" s="3"/>
       <c r="DZ28" s="4"/>
       <c r="EF28" s="3"/>
       <c r="EG28" s="4"/>
       <c r="EM28" s="3"/>
       <c r="EN28" s="4"/>
-      <c r="EP28" s="45"/>
+      <c r="EP28" s="43"/>
       <c r="ET28" s="3"/>
       <c r="EU28" s="4"/>
       <c r="FA28" s="3"/>
@@ -5308,20 +5371,20 @@
       <c r="FH28" s="3"/>
       <c r="FI28" s="4"/>
       <c r="FO28" s="3"/>
-      <c r="FP28" s="48"/>
-      <c r="FQ28" s="45"/>
-      <c r="FR28" s="45"/>
-      <c r="FS28" s="45"/>
-      <c r="FT28" s="45"/>
-      <c r="FU28" s="45"/>
-      <c r="FV28" s="52"/>
-      <c r="FW28" s="48"/>
-      <c r="FX28" s="45"/>
-      <c r="FY28" s="45"/>
-      <c r="FZ28" s="45"/>
-      <c r="GA28" s="45"/>
-      <c r="GB28" s="45"/>
-      <c r="GC28" s="52"/>
+      <c r="FP28" s="46"/>
+      <c r="FQ28" s="43"/>
+      <c r="FR28" s="43"/>
+      <c r="FS28" s="43"/>
+      <c r="FT28" s="43"/>
+      <c r="FU28" s="43"/>
+      <c r="FV28" s="50"/>
+      <c r="FW28" s="46"/>
+      <c r="FX28" s="43"/>
+      <c r="FY28" s="43"/>
+      <c r="FZ28" s="43"/>
+      <c r="GA28" s="43"/>
+      <c r="GB28" s="43"/>
+      <c r="GC28" s="50"/>
       <c r="GD28" s="4"/>
       <c r="GJ28" s="3"/>
       <c r="GK28" s="4"/>
@@ -5332,25 +5395,25 @@
       <c r="HE28" s="3"/>
       <c r="HF28" s="4"/>
       <c r="HL28" s="3"/>
-      <c r="HM28" s="48"/>
-      <c r="HP28" s="31"/>
-      <c r="HR28" s="31"/>
+      <c r="HM28" s="46"/>
+      <c r="HP28" s="30"/>
+      <c r="HR28" s="30"/>
       <c r="HS28" s="3"/>
       <c r="HT28" s="4"/>
-      <c r="IA28" s="22"/>
-      <c r="IG28" s="23"/>
-      <c r="IH28" s="22"/>
-      <c r="IM28" s="23"/>
-      <c r="IN28" s="22"/>
-      <c r="IT28" s="23"/>
+      <c r="IA28" s="21"/>
+      <c r="IG28" s="22"/>
+      <c r="IH28" s="21"/>
+      <c r="IM28" s="22"/>
+      <c r="IN28" s="21"/>
+      <c r="IT28" s="22"/>
     </row>
     <row r="29" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A29" s="37"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="J29" s="3"/>
       <c r="K29" s="4"/>
-      <c r="M29" s="45"/>
+      <c r="M29" s="43"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="4"/>
       <c r="X29" s="3"/>
@@ -5364,19 +5427,19 @@
       <c r="AZ29" s="3"/>
       <c r="BA29" s="4"/>
       <c r="BG29" s="3"/>
-      <c r="BH29" s="48"/>
-      <c r="BI29" s="45"/>
-      <c r="BJ29" s="45"/>
-      <c r="BK29" s="45"/>
-      <c r="BL29" s="45"/>
-      <c r="BM29" s="45"/>
-      <c r="BN29" s="52"/>
-      <c r="BO29" s="48"/>
-      <c r="BP29" s="45"/>
-      <c r="BQ29" s="45"/>
-      <c r="BR29" s="31"/>
+      <c r="BH29" s="46"/>
+      <c r="BI29" s="43"/>
+      <c r="BJ29" s="43"/>
+      <c r="BK29" s="43"/>
+      <c r="BL29" s="43"/>
+      <c r="BM29" s="43"/>
+      <c r="BN29" s="50"/>
+      <c r="BO29" s="46"/>
+      <c r="BP29" s="43"/>
+      <c r="BQ29" s="43"/>
+      <c r="BR29" s="30"/>
       <c r="BU29" s="3"/>
-      <c r="BV29" s="48"/>
+      <c r="BV29" s="46"/>
       <c r="CB29" s="3"/>
       <c r="CC29" s="4"/>
       <c r="CI29" s="3"/>
@@ -5385,17 +5448,17 @@
       <c r="CQ29" s="4"/>
       <c r="CW29" s="3"/>
       <c r="CX29" s="4"/>
-      <c r="DE29" s="22"/>
+      <c r="DE29" s="21"/>
       <c r="DK29" s="3"/>
       <c r="DL29" s="4"/>
-      <c r="DR29" s="23"/>
+      <c r="DR29" s="22"/>
       <c r="DY29" s="3"/>
       <c r="DZ29" s="4"/>
       <c r="EF29" s="3"/>
       <c r="EG29" s="4"/>
       <c r="EM29" s="3"/>
       <c r="EN29" s="4"/>
-      <c r="EP29" s="45"/>
+      <c r="EP29" s="43"/>
       <c r="ET29" s="3"/>
       <c r="EU29" s="4"/>
       <c r="FA29" s="3"/>
@@ -5403,20 +5466,20 @@
       <c r="FH29" s="3"/>
       <c r="FI29" s="4"/>
       <c r="FO29" s="3"/>
-      <c r="FP29" s="48"/>
-      <c r="FQ29" s="45"/>
-      <c r="FR29" s="45"/>
-      <c r="FS29" s="45"/>
-      <c r="FT29" s="45"/>
-      <c r="FU29" s="45"/>
-      <c r="FV29" s="52"/>
-      <c r="FW29" s="48"/>
-      <c r="FX29" s="45"/>
-      <c r="FY29" s="45"/>
-      <c r="FZ29" s="45"/>
-      <c r="GA29" s="45"/>
-      <c r="GB29" s="45"/>
-      <c r="GC29" s="52"/>
+      <c r="FP29" s="46"/>
+      <c r="FQ29" s="43"/>
+      <c r="FR29" s="43"/>
+      <c r="FS29" s="43"/>
+      <c r="FT29" s="43"/>
+      <c r="FU29" s="43"/>
+      <c r="FV29" s="50"/>
+      <c r="FW29" s="46"/>
+      <c r="FX29" s="43"/>
+      <c r="FY29" s="43"/>
+      <c r="FZ29" s="43"/>
+      <c r="GA29" s="43"/>
+      <c r="GB29" s="43"/>
+      <c r="GC29" s="50"/>
       <c r="GD29" s="4"/>
       <c r="GJ29" s="3"/>
       <c r="GK29" s="4"/>
@@ -5427,25 +5490,25 @@
       <c r="HE29" s="3"/>
       <c r="HF29" s="4"/>
       <c r="HL29" s="3"/>
-      <c r="HM29" s="48"/>
-      <c r="HP29" s="31"/>
-      <c r="HR29" s="31"/>
+      <c r="HM29" s="46"/>
+      <c r="HP29" s="30"/>
+      <c r="HR29" s="30"/>
       <c r="HS29" s="3"/>
       <c r="HT29" s="4"/>
-      <c r="IA29" s="22"/>
-      <c r="IG29" s="23"/>
-      <c r="IH29" s="22"/>
-      <c r="IM29" s="23"/>
-      <c r="IN29" s="22"/>
-      <c r="IT29" s="23"/>
+      <c r="IA29" s="21"/>
+      <c r="IG29" s="22"/>
+      <c r="IH29" s="21"/>
+      <c r="IM29" s="22"/>
+      <c r="IN29" s="21"/>
+      <c r="IT29" s="22"/>
     </row>
     <row r="30" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A30" s="37"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="J30" s="3"/>
       <c r="K30" s="4"/>
-      <c r="M30" s="45"/>
+      <c r="M30" s="43"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="4"/>
       <c r="X30" s="3"/>
@@ -5459,19 +5522,19 @@
       <c r="AZ30" s="3"/>
       <c r="BA30" s="4"/>
       <c r="BG30" s="3"/>
-      <c r="BH30" s="48"/>
-      <c r="BI30" s="45"/>
-      <c r="BJ30" s="45"/>
-      <c r="BK30" s="45"/>
-      <c r="BL30" s="45"/>
-      <c r="BM30" s="45"/>
-      <c r="BN30" s="52"/>
-      <c r="BO30" s="48"/>
-      <c r="BP30" s="45"/>
-      <c r="BQ30" s="45"/>
-      <c r="BR30" s="31"/>
+      <c r="BH30" s="46"/>
+      <c r="BI30" s="43"/>
+      <c r="BJ30" s="43"/>
+      <c r="BK30" s="43"/>
+      <c r="BL30" s="43"/>
+      <c r="BM30" s="43"/>
+      <c r="BN30" s="50"/>
+      <c r="BO30" s="46"/>
+      <c r="BP30" s="43"/>
+      <c r="BQ30" s="43"/>
+      <c r="BR30" s="30"/>
       <c r="BU30" s="3"/>
-      <c r="BV30" s="48"/>
+      <c r="BV30" s="46"/>
       <c r="CB30" s="3"/>
       <c r="CC30" s="4"/>
       <c r="CI30" s="3"/>
@@ -5480,17 +5543,17 @@
       <c r="CQ30" s="4"/>
       <c r="CW30" s="3"/>
       <c r="CX30" s="4"/>
-      <c r="DE30" s="22"/>
+      <c r="DE30" s="21"/>
       <c r="DK30" s="3"/>
       <c r="DL30" s="4"/>
-      <c r="DR30" s="23"/>
+      <c r="DR30" s="22"/>
       <c r="DY30" s="3"/>
       <c r="DZ30" s="4"/>
       <c r="EF30" s="3"/>
       <c r="EG30" s="4"/>
       <c r="EM30" s="3"/>
       <c r="EN30" s="4"/>
-      <c r="EP30" s="45"/>
+      <c r="EP30" s="43"/>
       <c r="ET30" s="3"/>
       <c r="EU30" s="4"/>
       <c r="FA30" s="3"/>
@@ -5498,20 +5561,20 @@
       <c r="FH30" s="3"/>
       <c r="FI30" s="4"/>
       <c r="FO30" s="3"/>
-      <c r="FP30" s="48"/>
-      <c r="FQ30" s="45"/>
-      <c r="FR30" s="45"/>
-      <c r="FS30" s="45"/>
-      <c r="FT30" s="45"/>
-      <c r="FU30" s="45"/>
-      <c r="FV30" s="52"/>
-      <c r="FW30" s="48"/>
-      <c r="FX30" s="45"/>
-      <c r="FY30" s="45"/>
-      <c r="FZ30" s="45"/>
-      <c r="GA30" s="45"/>
-      <c r="GB30" s="45"/>
-      <c r="GC30" s="52"/>
+      <c r="FP30" s="46"/>
+      <c r="FQ30" s="43"/>
+      <c r="FR30" s="43"/>
+      <c r="FS30" s="43"/>
+      <c r="FT30" s="43"/>
+      <c r="FU30" s="43"/>
+      <c r="FV30" s="50"/>
+      <c r="FW30" s="46"/>
+      <c r="FX30" s="43"/>
+      <c r="FY30" s="43"/>
+      <c r="FZ30" s="43"/>
+      <c r="GA30" s="43"/>
+      <c r="GB30" s="43"/>
+      <c r="GC30" s="50"/>
       <c r="GD30" s="4"/>
       <c r="GJ30" s="3"/>
       <c r="GK30" s="4"/>
@@ -5522,25 +5585,25 @@
       <c r="HE30" s="3"/>
       <c r="HF30" s="4"/>
       <c r="HL30" s="3"/>
-      <c r="HM30" s="48"/>
-      <c r="HP30" s="31"/>
-      <c r="HR30" s="31"/>
+      <c r="HM30" s="46"/>
+      <c r="HP30" s="30"/>
+      <c r="HR30" s="30"/>
       <c r="HS30" s="3"/>
       <c r="HT30" s="4"/>
-      <c r="IA30" s="22"/>
-      <c r="IG30" s="23"/>
-      <c r="IH30" s="22"/>
-      <c r="IM30" s="23"/>
-      <c r="IN30" s="22"/>
-      <c r="IT30" s="23"/>
+      <c r="IA30" s="21"/>
+      <c r="IG30" s="22"/>
+      <c r="IH30" s="21"/>
+      <c r="IM30" s="22"/>
+      <c r="IN30" s="21"/>
+      <c r="IT30" s="22"/>
     </row>
     <row r="31" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A31" s="37"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="J31" s="3"/>
       <c r="K31" s="4"/>
-      <c r="M31" s="45"/>
+      <c r="M31" s="43"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="4"/>
       <c r="X31" s="3"/>
@@ -5554,19 +5617,19 @@
       <c r="AZ31" s="3"/>
       <c r="BA31" s="4"/>
       <c r="BG31" s="3"/>
-      <c r="BH31" s="48"/>
-      <c r="BI31" s="45"/>
-      <c r="BJ31" s="45"/>
-      <c r="BK31" s="45"/>
-      <c r="BL31" s="45"/>
-      <c r="BM31" s="45"/>
-      <c r="BN31" s="52"/>
-      <c r="BO31" s="48"/>
-      <c r="BP31" s="45"/>
-      <c r="BQ31" s="45"/>
-      <c r="BR31" s="31"/>
+      <c r="BH31" s="46"/>
+      <c r="BI31" s="43"/>
+      <c r="BJ31" s="43"/>
+      <c r="BK31" s="43"/>
+      <c r="BL31" s="43"/>
+      <c r="BM31" s="43"/>
+      <c r="BN31" s="50"/>
+      <c r="BO31" s="46"/>
+      <c r="BP31" s="43"/>
+      <c r="BQ31" s="43"/>
+      <c r="BR31" s="30"/>
       <c r="BU31" s="3"/>
-      <c r="BV31" s="48"/>
+      <c r="BV31" s="46"/>
       <c r="CB31" s="3"/>
       <c r="CC31" s="4"/>
       <c r="CI31" s="3"/>
@@ -5575,17 +5638,17 @@
       <c r="CQ31" s="4"/>
       <c r="CW31" s="3"/>
       <c r="CX31" s="4"/>
-      <c r="DE31" s="22"/>
+      <c r="DE31" s="21"/>
       <c r="DK31" s="3"/>
       <c r="DL31" s="4"/>
-      <c r="DR31" s="23"/>
+      <c r="DR31" s="22"/>
       <c r="DY31" s="3"/>
       <c r="DZ31" s="4"/>
       <c r="EF31" s="3"/>
       <c r="EG31" s="4"/>
       <c r="EM31" s="3"/>
       <c r="EN31" s="4"/>
-      <c r="EP31" s="45"/>
+      <c r="EP31" s="43"/>
       <c r="ET31" s="3"/>
       <c r="EU31" s="4"/>
       <c r="FA31" s="3"/>
@@ -5593,20 +5656,20 @@
       <c r="FH31" s="3"/>
       <c r="FI31" s="4"/>
       <c r="FO31" s="3"/>
-      <c r="FP31" s="48"/>
-      <c r="FQ31" s="45"/>
-      <c r="FR31" s="45"/>
-      <c r="FS31" s="45"/>
-      <c r="FT31" s="45"/>
-      <c r="FU31" s="45"/>
-      <c r="FV31" s="52"/>
-      <c r="FW31" s="48"/>
-      <c r="FX31" s="45"/>
-      <c r="FY31" s="45"/>
-      <c r="FZ31" s="45"/>
-      <c r="GA31" s="45"/>
-      <c r="GB31" s="45"/>
-      <c r="GC31" s="52"/>
+      <c r="FP31" s="46"/>
+      <c r="FQ31" s="43"/>
+      <c r="FR31" s="43"/>
+      <c r="FS31" s="43"/>
+      <c r="FT31" s="43"/>
+      <c r="FU31" s="43"/>
+      <c r="FV31" s="50"/>
+      <c r="FW31" s="46"/>
+      <c r="FX31" s="43"/>
+      <c r="FY31" s="43"/>
+      <c r="FZ31" s="43"/>
+      <c r="GA31" s="43"/>
+      <c r="GB31" s="43"/>
+      <c r="GC31" s="50"/>
       <c r="GD31" s="4"/>
       <c r="GJ31" s="3"/>
       <c r="GK31" s="4"/>
@@ -5617,25 +5680,25 @@
       <c r="HE31" s="3"/>
       <c r="HF31" s="4"/>
       <c r="HL31" s="3"/>
-      <c r="HM31" s="48"/>
-      <c r="HP31" s="31"/>
-      <c r="HR31" s="31"/>
+      <c r="HM31" s="46"/>
+      <c r="HP31" s="30"/>
+      <c r="HR31" s="30"/>
       <c r="HS31" s="3"/>
       <c r="HT31" s="4"/>
-      <c r="IA31" s="22"/>
-      <c r="IG31" s="23"/>
-      <c r="IH31" s="22"/>
-      <c r="IM31" s="23"/>
-      <c r="IN31" s="22"/>
-      <c r="IT31" s="23"/>
+      <c r="IA31" s="21"/>
+      <c r="IG31" s="22"/>
+      <c r="IH31" s="21"/>
+      <c r="IM31" s="22"/>
+      <c r="IN31" s="21"/>
+      <c r="IT31" s="22"/>
     </row>
     <row r="32" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A32" s="37"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="J32" s="3"/>
       <c r="K32" s="4"/>
-      <c r="M32" s="45"/>
+      <c r="M32" s="43"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="4"/>
       <c r="X32" s="3"/>
@@ -5649,19 +5712,19 @@
       <c r="AZ32" s="3"/>
       <c r="BA32" s="4"/>
       <c r="BG32" s="3"/>
-      <c r="BH32" s="48"/>
-      <c r="BI32" s="45"/>
-      <c r="BJ32" s="45"/>
-      <c r="BK32" s="45"/>
-      <c r="BL32" s="45"/>
-      <c r="BM32" s="45"/>
-      <c r="BN32" s="52"/>
-      <c r="BO32" s="48"/>
-      <c r="BP32" s="45"/>
-      <c r="BQ32" s="45"/>
-      <c r="BR32" s="31"/>
+      <c r="BH32" s="46"/>
+      <c r="BI32" s="43"/>
+      <c r="BJ32" s="43"/>
+      <c r="BK32" s="43"/>
+      <c r="BL32" s="43"/>
+      <c r="BM32" s="43"/>
+      <c r="BN32" s="50"/>
+      <c r="BO32" s="46"/>
+      <c r="BP32" s="43"/>
+      <c r="BQ32" s="43"/>
+      <c r="BR32" s="30"/>
       <c r="BU32" s="3"/>
-      <c r="BV32" s="48"/>
+      <c r="BV32" s="46"/>
       <c r="CB32" s="3"/>
       <c r="CC32" s="4"/>
       <c r="CI32" s="3"/>
@@ -5670,17 +5733,17 @@
       <c r="CQ32" s="4"/>
       <c r="CW32" s="3"/>
       <c r="CX32" s="4"/>
-      <c r="DE32" s="22"/>
+      <c r="DE32" s="21"/>
       <c r="DK32" s="3"/>
       <c r="DL32" s="4"/>
-      <c r="DR32" s="23"/>
+      <c r="DR32" s="22"/>
       <c r="DY32" s="3"/>
       <c r="DZ32" s="4"/>
       <c r="EF32" s="3"/>
       <c r="EG32" s="4"/>
       <c r="EM32" s="3"/>
       <c r="EN32" s="4"/>
-      <c r="EP32" s="45"/>
+      <c r="EP32" s="43"/>
       <c r="ET32" s="3"/>
       <c r="EU32" s="4"/>
       <c r="FA32" s="3"/>
@@ -5688,20 +5751,20 @@
       <c r="FH32" s="3"/>
       <c r="FI32" s="4"/>
       <c r="FO32" s="3"/>
-      <c r="FP32" s="48"/>
-      <c r="FQ32" s="45"/>
-      <c r="FR32" s="45"/>
-      <c r="FS32" s="45"/>
-      <c r="FT32" s="45"/>
-      <c r="FU32" s="45"/>
-      <c r="FV32" s="52"/>
-      <c r="FW32" s="48"/>
-      <c r="FX32" s="45"/>
-      <c r="FY32" s="45"/>
-      <c r="FZ32" s="45"/>
-      <c r="GA32" s="45"/>
-      <c r="GB32" s="45"/>
-      <c r="GC32" s="52"/>
+      <c r="FP32" s="46"/>
+      <c r="FQ32" s="43"/>
+      <c r="FR32" s="43"/>
+      <c r="FS32" s="43"/>
+      <c r="FT32" s="43"/>
+      <c r="FU32" s="43"/>
+      <c r="FV32" s="50"/>
+      <c r="FW32" s="46"/>
+      <c r="FX32" s="43"/>
+      <c r="FY32" s="43"/>
+      <c r="FZ32" s="43"/>
+      <c r="GA32" s="43"/>
+      <c r="GB32" s="43"/>
+      <c r="GC32" s="50"/>
       <c r="GD32" s="4"/>
       <c r="GJ32" s="3"/>
       <c r="GK32" s="4"/>
@@ -5712,25 +5775,25 @@
       <c r="HE32" s="3"/>
       <c r="HF32" s="4"/>
       <c r="HL32" s="3"/>
-      <c r="HM32" s="48"/>
-      <c r="HP32" s="31"/>
-      <c r="HR32" s="31"/>
+      <c r="HM32" s="46"/>
+      <c r="HP32" s="30"/>
+      <c r="HR32" s="30"/>
       <c r="HS32" s="3"/>
       <c r="HT32" s="4"/>
-      <c r="IA32" s="22"/>
-      <c r="IG32" s="23"/>
-      <c r="IH32" s="22"/>
-      <c r="IM32" s="23"/>
-      <c r="IN32" s="22"/>
-      <c r="IT32" s="23"/>
+      <c r="IA32" s="21"/>
+      <c r="IG32" s="22"/>
+      <c r="IH32" s="21"/>
+      <c r="IM32" s="22"/>
+      <c r="IN32" s="21"/>
+      <c r="IT32" s="22"/>
     </row>
     <row r="33" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A33" s="37"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="J33" s="3"/>
       <c r="K33" s="4"/>
-      <c r="M33" s="45"/>
+      <c r="M33" s="43"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="4"/>
       <c r="X33" s="3"/>
@@ -5744,19 +5807,19 @@
       <c r="AZ33" s="3"/>
       <c r="BA33" s="4"/>
       <c r="BG33" s="3"/>
-      <c r="BH33" s="48"/>
-      <c r="BI33" s="45"/>
-      <c r="BJ33" s="45"/>
-      <c r="BK33" s="45"/>
-      <c r="BL33" s="45"/>
-      <c r="BM33" s="45"/>
-      <c r="BN33" s="52"/>
-      <c r="BO33" s="48"/>
-      <c r="BP33" s="45"/>
-      <c r="BQ33" s="45"/>
-      <c r="BR33" s="31"/>
+      <c r="BH33" s="46"/>
+      <c r="BI33" s="43"/>
+      <c r="BJ33" s="43"/>
+      <c r="BK33" s="43"/>
+      <c r="BL33" s="43"/>
+      <c r="BM33" s="43"/>
+      <c r="BN33" s="50"/>
+      <c r="BO33" s="46"/>
+      <c r="BP33" s="43"/>
+      <c r="BQ33" s="43"/>
+      <c r="BR33" s="30"/>
       <c r="BU33" s="3"/>
-      <c r="BV33" s="48"/>
+      <c r="BV33" s="46"/>
       <c r="CB33" s="3"/>
       <c r="CC33" s="4"/>
       <c r="CI33" s="3"/>
@@ -5765,17 +5828,17 @@
       <c r="CQ33" s="4"/>
       <c r="CW33" s="3"/>
       <c r="CX33" s="4"/>
-      <c r="DE33" s="22"/>
+      <c r="DE33" s="21"/>
       <c r="DK33" s="3"/>
       <c r="DL33" s="4"/>
-      <c r="DR33" s="23"/>
+      <c r="DR33" s="22"/>
       <c r="DY33" s="3"/>
       <c r="DZ33" s="4"/>
       <c r="EF33" s="3"/>
       <c r="EG33" s="4"/>
       <c r="EM33" s="3"/>
       <c r="EN33" s="4"/>
-      <c r="EP33" s="45"/>
+      <c r="EP33" s="43"/>
       <c r="ET33" s="3"/>
       <c r="EU33" s="4"/>
       <c r="FA33" s="3"/>
@@ -5783,20 +5846,20 @@
       <c r="FH33" s="3"/>
       <c r="FI33" s="4"/>
       <c r="FO33" s="3"/>
-      <c r="FP33" s="48"/>
-      <c r="FQ33" s="45"/>
-      <c r="FR33" s="45"/>
-      <c r="FS33" s="45"/>
-      <c r="FT33" s="45"/>
-      <c r="FU33" s="45"/>
-      <c r="FV33" s="52"/>
-      <c r="FW33" s="48"/>
-      <c r="FX33" s="45"/>
-      <c r="FY33" s="45"/>
-      <c r="FZ33" s="45"/>
-      <c r="GA33" s="45"/>
-      <c r="GB33" s="45"/>
-      <c r="GC33" s="52"/>
+      <c r="FP33" s="46"/>
+      <c r="FQ33" s="43"/>
+      <c r="FR33" s="43"/>
+      <c r="FS33" s="43"/>
+      <c r="FT33" s="43"/>
+      <c r="FU33" s="43"/>
+      <c r="FV33" s="50"/>
+      <c r="FW33" s="46"/>
+      <c r="FX33" s="43"/>
+      <c r="FY33" s="43"/>
+      <c r="FZ33" s="43"/>
+      <c r="GA33" s="43"/>
+      <c r="GB33" s="43"/>
+      <c r="GC33" s="50"/>
       <c r="GD33" s="4"/>
       <c r="GJ33" s="3"/>
       <c r="GK33" s="4"/>
@@ -5807,25 +5870,25 @@
       <c r="HE33" s="3"/>
       <c r="HF33" s="4"/>
       <c r="HL33" s="3"/>
-      <c r="HM33" s="48"/>
-      <c r="HP33" s="31"/>
-      <c r="HR33" s="31"/>
+      <c r="HM33" s="46"/>
+      <c r="HP33" s="30"/>
+      <c r="HR33" s="30"/>
       <c r="HS33" s="3"/>
       <c r="HT33" s="4"/>
-      <c r="IA33" s="22"/>
-      <c r="IG33" s="23"/>
-      <c r="IH33" s="22"/>
-      <c r="IM33" s="23"/>
-      <c r="IN33" s="22"/>
-      <c r="IT33" s="23"/>
+      <c r="IA33" s="21"/>
+      <c r="IG33" s="22"/>
+      <c r="IH33" s="21"/>
+      <c r="IM33" s="22"/>
+      <c r="IN33" s="21"/>
+      <c r="IT33" s="22"/>
     </row>
     <row r="34" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A34" s="37"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="J34" s="3"/>
       <c r="K34" s="4"/>
-      <c r="M34" s="45"/>
+      <c r="M34" s="43"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="4"/>
       <c r="X34" s="3"/>
@@ -5839,19 +5902,19 @@
       <c r="AZ34" s="3"/>
       <c r="BA34" s="4"/>
       <c r="BG34" s="3"/>
-      <c r="BH34" s="48"/>
-      <c r="BI34" s="45"/>
-      <c r="BJ34" s="45"/>
-      <c r="BK34" s="45"/>
-      <c r="BL34" s="45"/>
-      <c r="BM34" s="45"/>
-      <c r="BN34" s="52"/>
-      <c r="BO34" s="48"/>
-      <c r="BP34" s="45"/>
-      <c r="BQ34" s="45"/>
-      <c r="BR34" s="31"/>
+      <c r="BH34" s="46"/>
+      <c r="BI34" s="43"/>
+      <c r="BJ34" s="43"/>
+      <c r="BK34" s="43"/>
+      <c r="BL34" s="43"/>
+      <c r="BM34" s="43"/>
+      <c r="BN34" s="50"/>
+      <c r="BO34" s="46"/>
+      <c r="BP34" s="43"/>
+      <c r="BQ34" s="43"/>
+      <c r="BR34" s="30"/>
       <c r="BU34" s="3"/>
-      <c r="BV34" s="48"/>
+      <c r="BV34" s="46"/>
       <c r="CB34" s="3"/>
       <c r="CC34" s="4"/>
       <c r="CI34" s="3"/>
@@ -5860,17 +5923,17 @@
       <c r="CQ34" s="4"/>
       <c r="CW34" s="3"/>
       <c r="CX34" s="4"/>
-      <c r="DE34" s="22"/>
+      <c r="DE34" s="21"/>
       <c r="DK34" s="3"/>
       <c r="DL34" s="4"/>
-      <c r="DR34" s="23"/>
+      <c r="DR34" s="22"/>
       <c r="DY34" s="3"/>
       <c r="DZ34" s="4"/>
       <c r="EF34" s="3"/>
       <c r="EG34" s="4"/>
       <c r="EM34" s="3"/>
       <c r="EN34" s="4"/>
-      <c r="EP34" s="45"/>
+      <c r="EP34" s="43"/>
       <c r="ET34" s="3"/>
       <c r="EU34" s="4"/>
       <c r="FA34" s="3"/>
@@ -5878,20 +5941,20 @@
       <c r="FH34" s="3"/>
       <c r="FI34" s="4"/>
       <c r="FO34" s="3"/>
-      <c r="FP34" s="48"/>
-      <c r="FQ34" s="45"/>
-      <c r="FR34" s="45"/>
-      <c r="FS34" s="45"/>
-      <c r="FT34" s="45"/>
-      <c r="FU34" s="45"/>
-      <c r="FV34" s="52"/>
-      <c r="FW34" s="48"/>
-      <c r="FX34" s="45"/>
-      <c r="FY34" s="45"/>
-      <c r="FZ34" s="45"/>
-      <c r="GA34" s="45"/>
-      <c r="GB34" s="45"/>
-      <c r="GC34" s="52"/>
+      <c r="FP34" s="46"/>
+      <c r="FQ34" s="43"/>
+      <c r="FR34" s="43"/>
+      <c r="FS34" s="43"/>
+      <c r="FT34" s="43"/>
+      <c r="FU34" s="43"/>
+      <c r="FV34" s="50"/>
+      <c r="FW34" s="46"/>
+      <c r="FX34" s="43"/>
+      <c r="FY34" s="43"/>
+      <c r="FZ34" s="43"/>
+      <c r="GA34" s="43"/>
+      <c r="GB34" s="43"/>
+      <c r="GC34" s="50"/>
       <c r="GD34" s="4"/>
       <c r="GJ34" s="3"/>
       <c r="GK34" s="4"/>
@@ -5902,25 +5965,25 @@
       <c r="HE34" s="3"/>
       <c r="HF34" s="4"/>
       <c r="HL34" s="3"/>
-      <c r="HM34" s="48"/>
-      <c r="HP34" s="31"/>
-      <c r="HR34" s="31"/>
+      <c r="HM34" s="46"/>
+      <c r="HP34" s="30"/>
+      <c r="HR34" s="30"/>
       <c r="HS34" s="3"/>
       <c r="HT34" s="4"/>
-      <c r="IA34" s="22"/>
-      <c r="IG34" s="23"/>
-      <c r="IH34" s="22"/>
-      <c r="IM34" s="23"/>
-      <c r="IN34" s="22"/>
-      <c r="IT34" s="23"/>
+      <c r="IA34" s="21"/>
+      <c r="IG34" s="22"/>
+      <c r="IH34" s="21"/>
+      <c r="IM34" s="22"/>
+      <c r="IN34" s="21"/>
+      <c r="IT34" s="22"/>
     </row>
     <row r="35" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A35" s="37"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="J35" s="3"/>
       <c r="K35" s="4"/>
-      <c r="M35" s="45"/>
+      <c r="M35" s="43"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="4"/>
       <c r="X35" s="3"/>
@@ -5934,19 +5997,19 @@
       <c r="AZ35" s="3"/>
       <c r="BA35" s="4"/>
       <c r="BG35" s="3"/>
-      <c r="BH35" s="48"/>
-      <c r="BI35" s="45"/>
-      <c r="BJ35" s="45"/>
-      <c r="BK35" s="45"/>
-      <c r="BL35" s="45"/>
-      <c r="BM35" s="45"/>
-      <c r="BN35" s="52"/>
-      <c r="BO35" s="48"/>
-      <c r="BP35" s="45"/>
-      <c r="BQ35" s="45"/>
-      <c r="BR35" s="31"/>
+      <c r="BH35" s="46"/>
+      <c r="BI35" s="43"/>
+      <c r="BJ35" s="43"/>
+      <c r="BK35" s="43"/>
+      <c r="BL35" s="43"/>
+      <c r="BM35" s="43"/>
+      <c r="BN35" s="50"/>
+      <c r="BO35" s="46"/>
+      <c r="BP35" s="43"/>
+      <c r="BQ35" s="43"/>
+      <c r="BR35" s="30"/>
       <c r="BU35" s="3"/>
-      <c r="BV35" s="48"/>
+      <c r="BV35" s="46"/>
       <c r="CB35" s="3"/>
       <c r="CC35" s="4"/>
       <c r="CI35" s="3"/>
@@ -5955,17 +6018,17 @@
       <c r="CQ35" s="4"/>
       <c r="CW35" s="3"/>
       <c r="CX35" s="4"/>
-      <c r="DE35" s="22"/>
+      <c r="DE35" s="21"/>
       <c r="DK35" s="3"/>
       <c r="DL35" s="4"/>
-      <c r="DR35" s="23"/>
+      <c r="DR35" s="22"/>
       <c r="DY35" s="3"/>
       <c r="DZ35" s="4"/>
       <c r="EF35" s="3"/>
       <c r="EG35" s="4"/>
       <c r="EM35" s="3"/>
       <c r="EN35" s="4"/>
-      <c r="EP35" s="45"/>
+      <c r="EP35" s="43"/>
       <c r="ET35" s="3"/>
       <c r="EU35" s="4"/>
       <c r="FA35" s="3"/>
@@ -5973,20 +6036,20 @@
       <c r="FH35" s="3"/>
       <c r="FI35" s="4"/>
       <c r="FO35" s="3"/>
-      <c r="FP35" s="48"/>
-      <c r="FQ35" s="45"/>
-      <c r="FR35" s="45"/>
-      <c r="FS35" s="45"/>
-      <c r="FT35" s="45"/>
-      <c r="FU35" s="45"/>
-      <c r="FV35" s="52"/>
-      <c r="FW35" s="48"/>
-      <c r="FX35" s="45"/>
-      <c r="FY35" s="45"/>
-      <c r="FZ35" s="45"/>
-      <c r="GA35" s="45"/>
-      <c r="GB35" s="45"/>
-      <c r="GC35" s="52"/>
+      <c r="FP35" s="46"/>
+      <c r="FQ35" s="43"/>
+      <c r="FR35" s="43"/>
+      <c r="FS35" s="43"/>
+      <c r="FT35" s="43"/>
+      <c r="FU35" s="43"/>
+      <c r="FV35" s="50"/>
+      <c r="FW35" s="46"/>
+      <c r="FX35" s="43"/>
+      <c r="FY35" s="43"/>
+      <c r="FZ35" s="43"/>
+      <c r="GA35" s="43"/>
+      <c r="GB35" s="43"/>
+      <c r="GC35" s="50"/>
       <c r="GD35" s="4"/>
       <c r="GJ35" s="3"/>
       <c r="GK35" s="4"/>
@@ -5997,25 +6060,25 @@
       <c r="HE35" s="3"/>
       <c r="HF35" s="4"/>
       <c r="HL35" s="3"/>
-      <c r="HM35" s="48"/>
-      <c r="HP35" s="31"/>
-      <c r="HR35" s="31"/>
+      <c r="HM35" s="46"/>
+      <c r="HP35" s="30"/>
+      <c r="HR35" s="30"/>
       <c r="HS35" s="3"/>
       <c r="HT35" s="4"/>
-      <c r="IA35" s="22"/>
-      <c r="IG35" s="23"/>
-      <c r="IH35" s="22"/>
-      <c r="IM35" s="23"/>
-      <c r="IN35" s="22"/>
-      <c r="IT35" s="23"/>
+      <c r="IA35" s="21"/>
+      <c r="IG35" s="22"/>
+      <c r="IH35" s="21"/>
+      <c r="IM35" s="22"/>
+      <c r="IN35" s="21"/>
+      <c r="IT35" s="22"/>
     </row>
     <row r="36" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A36" s="37"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="J36" s="3"/>
       <c r="K36" s="4"/>
-      <c r="M36" s="45"/>
+      <c r="M36" s="43"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="4"/>
       <c r="X36" s="3"/>
@@ -6029,19 +6092,19 @@
       <c r="AZ36" s="3"/>
       <c r="BA36" s="4"/>
       <c r="BG36" s="3"/>
-      <c r="BH36" s="48"/>
-      <c r="BI36" s="45"/>
-      <c r="BJ36" s="45"/>
-      <c r="BK36" s="45"/>
-      <c r="BL36" s="45"/>
-      <c r="BM36" s="45"/>
-      <c r="BN36" s="52"/>
-      <c r="BO36" s="48"/>
-      <c r="BP36" s="45"/>
-      <c r="BQ36" s="45"/>
-      <c r="BR36" s="31"/>
+      <c r="BH36" s="46"/>
+      <c r="BI36" s="43"/>
+      <c r="BJ36" s="43"/>
+      <c r="BK36" s="43"/>
+      <c r="BL36" s="43"/>
+      <c r="BM36" s="43"/>
+      <c r="BN36" s="50"/>
+      <c r="BO36" s="46"/>
+      <c r="BP36" s="43"/>
+      <c r="BQ36" s="43"/>
+      <c r="BR36" s="30"/>
       <c r="BU36" s="3"/>
-      <c r="BV36" s="48"/>
+      <c r="BV36" s="46"/>
       <c r="CB36" s="3"/>
       <c r="CC36" s="4"/>
       <c r="CI36" s="3"/>
@@ -6050,17 +6113,17 @@
       <c r="CQ36" s="4"/>
       <c r="CW36" s="3"/>
       <c r="CX36" s="4"/>
-      <c r="DE36" s="22"/>
+      <c r="DE36" s="21"/>
       <c r="DK36" s="3"/>
       <c r="DL36" s="4"/>
-      <c r="DR36" s="23"/>
+      <c r="DR36" s="22"/>
       <c r="DY36" s="3"/>
       <c r="DZ36" s="4"/>
       <c r="EF36" s="3"/>
       <c r="EG36" s="4"/>
       <c r="EM36" s="3"/>
       <c r="EN36" s="4"/>
-      <c r="EP36" s="45"/>
+      <c r="EP36" s="43"/>
       <c r="ET36" s="3"/>
       <c r="EU36" s="4"/>
       <c r="FA36" s="3"/>
@@ -6068,20 +6131,20 @@
       <c r="FH36" s="3"/>
       <c r="FI36" s="4"/>
       <c r="FO36" s="3"/>
-      <c r="FP36" s="48"/>
-      <c r="FQ36" s="45"/>
-      <c r="FR36" s="45"/>
-      <c r="FS36" s="45"/>
-      <c r="FT36" s="45"/>
-      <c r="FU36" s="45"/>
-      <c r="FV36" s="52"/>
-      <c r="FW36" s="48"/>
-      <c r="FX36" s="45"/>
-      <c r="FY36" s="45"/>
-      <c r="FZ36" s="45"/>
-      <c r="GA36" s="45"/>
-      <c r="GB36" s="45"/>
-      <c r="GC36" s="52"/>
+      <c r="FP36" s="46"/>
+      <c r="FQ36" s="43"/>
+      <c r="FR36" s="43"/>
+      <c r="FS36" s="43"/>
+      <c r="FT36" s="43"/>
+      <c r="FU36" s="43"/>
+      <c r="FV36" s="50"/>
+      <c r="FW36" s="46"/>
+      <c r="FX36" s="43"/>
+      <c r="FY36" s="43"/>
+      <c r="FZ36" s="43"/>
+      <c r="GA36" s="43"/>
+      <c r="GB36" s="43"/>
+      <c r="GC36" s="50"/>
       <c r="GD36" s="4"/>
       <c r="GJ36" s="3"/>
       <c r="GK36" s="4"/>
@@ -6092,25 +6155,25 @@
       <c r="HE36" s="3"/>
       <c r="HF36" s="4"/>
       <c r="HL36" s="3"/>
-      <c r="HM36" s="48"/>
-      <c r="HP36" s="31"/>
-      <c r="HR36" s="31"/>
+      <c r="HM36" s="46"/>
+      <c r="HP36" s="30"/>
+      <c r="HR36" s="30"/>
       <c r="HS36" s="3"/>
       <c r="HT36" s="4"/>
-      <c r="IA36" s="22"/>
-      <c r="IG36" s="23"/>
-      <c r="IH36" s="22"/>
-      <c r="IM36" s="23"/>
-      <c r="IN36" s="22"/>
-      <c r="IT36" s="23"/>
+      <c r="IA36" s="21"/>
+      <c r="IG36" s="22"/>
+      <c r="IH36" s="21"/>
+      <c r="IM36" s="22"/>
+      <c r="IN36" s="21"/>
+      <c r="IT36" s="22"/>
     </row>
     <row r="37" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A37" s="37"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="J37" s="3"/>
       <c r="K37" s="4"/>
-      <c r="M37" s="45"/>
+      <c r="M37" s="43"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="4"/>
       <c r="X37" s="3"/>
@@ -6124,19 +6187,19 @@
       <c r="AZ37" s="3"/>
       <c r="BA37" s="4"/>
       <c r="BG37" s="3"/>
-      <c r="BH37" s="48"/>
-      <c r="BI37" s="45"/>
-      <c r="BJ37" s="45"/>
-      <c r="BK37" s="45"/>
-      <c r="BL37" s="45"/>
-      <c r="BM37" s="45"/>
-      <c r="BN37" s="52"/>
-      <c r="BO37" s="48"/>
-      <c r="BP37" s="45"/>
-      <c r="BQ37" s="45"/>
-      <c r="BR37" s="31"/>
+      <c r="BH37" s="46"/>
+      <c r="BI37" s="43"/>
+      <c r="BJ37" s="43"/>
+      <c r="BK37" s="43"/>
+      <c r="BL37" s="43"/>
+      <c r="BM37" s="43"/>
+      <c r="BN37" s="50"/>
+      <c r="BO37" s="46"/>
+      <c r="BP37" s="43"/>
+      <c r="BQ37" s="43"/>
+      <c r="BR37" s="30"/>
       <c r="BU37" s="3"/>
-      <c r="BV37" s="48"/>
+      <c r="BV37" s="46"/>
       <c r="CB37" s="3"/>
       <c r="CC37" s="4"/>
       <c r="CI37" s="3"/>
@@ -6145,17 +6208,17 @@
       <c r="CQ37" s="4"/>
       <c r="CW37" s="3"/>
       <c r="CX37" s="4"/>
-      <c r="DE37" s="22"/>
+      <c r="DE37" s="21"/>
       <c r="DK37" s="3"/>
       <c r="DL37" s="4"/>
-      <c r="DR37" s="23"/>
+      <c r="DR37" s="22"/>
       <c r="DY37" s="3"/>
       <c r="DZ37" s="4"/>
       <c r="EF37" s="3"/>
       <c r="EG37" s="4"/>
       <c r="EM37" s="3"/>
       <c r="EN37" s="4"/>
-      <c r="EP37" s="45"/>
+      <c r="EP37" s="43"/>
       <c r="ET37" s="3"/>
       <c r="EU37" s="4"/>
       <c r="FA37" s="3"/>
@@ -6163,20 +6226,20 @@
       <c r="FH37" s="3"/>
       <c r="FI37" s="4"/>
       <c r="FO37" s="3"/>
-      <c r="FP37" s="48"/>
-      <c r="FQ37" s="45"/>
-      <c r="FR37" s="45"/>
-      <c r="FS37" s="45"/>
-      <c r="FT37" s="45"/>
-      <c r="FU37" s="45"/>
-      <c r="FV37" s="52"/>
-      <c r="FW37" s="48"/>
-      <c r="FX37" s="45"/>
-      <c r="FY37" s="45"/>
-      <c r="FZ37" s="45"/>
-      <c r="GA37" s="45"/>
-      <c r="GB37" s="45"/>
-      <c r="GC37" s="52"/>
+      <c r="FP37" s="46"/>
+      <c r="FQ37" s="43"/>
+      <c r="FR37" s="43"/>
+      <c r="FS37" s="43"/>
+      <c r="FT37" s="43"/>
+      <c r="FU37" s="43"/>
+      <c r="FV37" s="50"/>
+      <c r="FW37" s="46"/>
+      <c r="FX37" s="43"/>
+      <c r="FY37" s="43"/>
+      <c r="FZ37" s="43"/>
+      <c r="GA37" s="43"/>
+      <c r="GB37" s="43"/>
+      <c r="GC37" s="50"/>
       <c r="GD37" s="4"/>
       <c r="GJ37" s="3"/>
       <c r="GK37" s="4"/>
@@ -6187,25 +6250,25 @@
       <c r="HE37" s="3"/>
       <c r="HF37" s="4"/>
       <c r="HL37" s="3"/>
-      <c r="HM37" s="48"/>
-      <c r="HP37" s="31"/>
-      <c r="HR37" s="31"/>
+      <c r="HM37" s="46"/>
+      <c r="HP37" s="30"/>
+      <c r="HR37" s="30"/>
       <c r="HS37" s="3"/>
       <c r="HT37" s="4"/>
-      <c r="IA37" s="22"/>
-      <c r="IG37" s="23"/>
-      <c r="IH37" s="22"/>
-      <c r="IM37" s="23"/>
-      <c r="IN37" s="22"/>
-      <c r="IT37" s="23"/>
+      <c r="IA37" s="21"/>
+      <c r="IG37" s="22"/>
+      <c r="IH37" s="21"/>
+      <c r="IM37" s="22"/>
+      <c r="IN37" s="21"/>
+      <c r="IT37" s="22"/>
     </row>
     <row r="38" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A38" s="37"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="J38" s="3"/>
       <c r="K38" s="4"/>
-      <c r="M38" s="45"/>
+      <c r="M38" s="43"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="4"/>
       <c r="X38" s="3"/>
@@ -6219,19 +6282,19 @@
       <c r="AZ38" s="3"/>
       <c r="BA38" s="4"/>
       <c r="BG38" s="3"/>
-      <c r="BH38" s="48"/>
-      <c r="BI38" s="45"/>
-      <c r="BJ38" s="45"/>
-      <c r="BK38" s="45"/>
-      <c r="BL38" s="45"/>
-      <c r="BM38" s="45"/>
-      <c r="BN38" s="52"/>
-      <c r="BO38" s="48"/>
-      <c r="BP38" s="45"/>
-      <c r="BQ38" s="45"/>
-      <c r="BR38" s="31"/>
+      <c r="BH38" s="46"/>
+      <c r="BI38" s="43"/>
+      <c r="BJ38" s="43"/>
+      <c r="BK38" s="43"/>
+      <c r="BL38" s="43"/>
+      <c r="BM38" s="43"/>
+      <c r="BN38" s="50"/>
+      <c r="BO38" s="46"/>
+      <c r="BP38" s="43"/>
+      <c r="BQ38" s="43"/>
+      <c r="BR38" s="30"/>
       <c r="BU38" s="3"/>
-      <c r="BV38" s="48"/>
+      <c r="BV38" s="46"/>
       <c r="CB38" s="3"/>
       <c r="CC38" s="4"/>
       <c r="CI38" s="3"/>
@@ -6240,17 +6303,17 @@
       <c r="CQ38" s="4"/>
       <c r="CW38" s="3"/>
       <c r="CX38" s="4"/>
-      <c r="DE38" s="22"/>
+      <c r="DE38" s="21"/>
       <c r="DK38" s="3"/>
       <c r="DL38" s="4"/>
-      <c r="DR38" s="23"/>
+      <c r="DR38" s="22"/>
       <c r="DY38" s="3"/>
       <c r="DZ38" s="4"/>
       <c r="EF38" s="3"/>
       <c r="EG38" s="4"/>
       <c r="EM38" s="3"/>
       <c r="EN38" s="4"/>
-      <c r="EP38" s="45"/>
+      <c r="EP38" s="43"/>
       <c r="ET38" s="3"/>
       <c r="EU38" s="4"/>
       <c r="FA38" s="3"/>
@@ -6258,20 +6321,20 @@
       <c r="FH38" s="3"/>
       <c r="FI38" s="4"/>
       <c r="FO38" s="3"/>
-      <c r="FP38" s="48"/>
-      <c r="FQ38" s="45"/>
-      <c r="FR38" s="45"/>
-      <c r="FS38" s="45"/>
-      <c r="FT38" s="45"/>
-      <c r="FU38" s="45"/>
-      <c r="FV38" s="52"/>
-      <c r="FW38" s="48"/>
-      <c r="FX38" s="45"/>
-      <c r="FY38" s="45"/>
-      <c r="FZ38" s="45"/>
-      <c r="GA38" s="45"/>
-      <c r="GB38" s="45"/>
-      <c r="GC38" s="52"/>
+      <c r="FP38" s="46"/>
+      <c r="FQ38" s="43"/>
+      <c r="FR38" s="43"/>
+      <c r="FS38" s="43"/>
+      <c r="FT38" s="43"/>
+      <c r="FU38" s="43"/>
+      <c r="FV38" s="50"/>
+      <c r="FW38" s="46"/>
+      <c r="FX38" s="43"/>
+      <c r="FY38" s="43"/>
+      <c r="FZ38" s="43"/>
+      <c r="GA38" s="43"/>
+      <c r="GB38" s="43"/>
+      <c r="GC38" s="50"/>
       <c r="GD38" s="4"/>
       <c r="GJ38" s="3"/>
       <c r="GK38" s="4"/>
@@ -6282,25 +6345,25 @@
       <c r="HE38" s="3"/>
       <c r="HF38" s="4"/>
       <c r="HL38" s="3"/>
-      <c r="HM38" s="48"/>
-      <c r="HP38" s="31"/>
-      <c r="HR38" s="31"/>
+      <c r="HM38" s="46"/>
+      <c r="HP38" s="30"/>
+      <c r="HR38" s="30"/>
       <c r="HS38" s="3"/>
       <c r="HT38" s="4"/>
-      <c r="IA38" s="22"/>
-      <c r="IG38" s="23"/>
-      <c r="IH38" s="22"/>
-      <c r="IM38" s="23"/>
-      <c r="IN38" s="22"/>
-      <c r="IT38" s="23"/>
+      <c r="IA38" s="21"/>
+      <c r="IG38" s="22"/>
+      <c r="IH38" s="21"/>
+      <c r="IM38" s="22"/>
+      <c r="IN38" s="21"/>
+      <c r="IT38" s="22"/>
     </row>
     <row r="39" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A39" s="37"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="J39" s="3"/>
       <c r="K39" s="4"/>
-      <c r="M39" s="45"/>
+      <c r="M39" s="43"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="4"/>
       <c r="X39" s="3"/>
@@ -6314,19 +6377,19 @@
       <c r="AZ39" s="3"/>
       <c r="BA39" s="4"/>
       <c r="BG39" s="3"/>
-      <c r="BH39" s="48"/>
-      <c r="BI39" s="45"/>
-      <c r="BJ39" s="45"/>
-      <c r="BK39" s="45"/>
-      <c r="BL39" s="45"/>
-      <c r="BM39" s="45"/>
-      <c r="BN39" s="52"/>
-      <c r="BO39" s="48"/>
-      <c r="BP39" s="45"/>
-      <c r="BQ39" s="45"/>
-      <c r="BR39" s="31"/>
+      <c r="BH39" s="46"/>
+      <c r="BI39" s="43"/>
+      <c r="BJ39" s="43"/>
+      <c r="BK39" s="43"/>
+      <c r="BL39" s="43"/>
+      <c r="BM39" s="43"/>
+      <c r="BN39" s="50"/>
+      <c r="BO39" s="46"/>
+      <c r="BP39" s="43"/>
+      <c r="BQ39" s="43"/>
+      <c r="BR39" s="30"/>
       <c r="BU39" s="3"/>
-      <c r="BV39" s="48"/>
+      <c r="BV39" s="46"/>
       <c r="CB39" s="3"/>
       <c r="CC39" s="4"/>
       <c r="CI39" s="3"/>
@@ -6335,17 +6398,17 @@
       <c r="CQ39" s="4"/>
       <c r="CW39" s="3"/>
       <c r="CX39" s="4"/>
-      <c r="DE39" s="22"/>
+      <c r="DE39" s="21"/>
       <c r="DK39" s="3"/>
       <c r="DL39" s="4"/>
-      <c r="DR39" s="23"/>
+      <c r="DR39" s="22"/>
       <c r="DY39" s="3"/>
       <c r="DZ39" s="4"/>
       <c r="EF39" s="3"/>
       <c r="EG39" s="4"/>
       <c r="EM39" s="3"/>
       <c r="EN39" s="4"/>
-      <c r="EP39" s="45"/>
+      <c r="EP39" s="43"/>
       <c r="ET39" s="3"/>
       <c r="EU39" s="4"/>
       <c r="FA39" s="3"/>
@@ -6353,20 +6416,20 @@
       <c r="FH39" s="3"/>
       <c r="FI39" s="4"/>
       <c r="FO39" s="3"/>
-      <c r="FP39" s="48"/>
-      <c r="FQ39" s="45"/>
-      <c r="FR39" s="45"/>
-      <c r="FS39" s="45"/>
-      <c r="FT39" s="45"/>
-      <c r="FU39" s="45"/>
-      <c r="FV39" s="52"/>
-      <c r="FW39" s="48"/>
-      <c r="FX39" s="45"/>
-      <c r="FY39" s="45"/>
-      <c r="FZ39" s="45"/>
-      <c r="GA39" s="45"/>
-      <c r="GB39" s="45"/>
-      <c r="GC39" s="52"/>
+      <c r="FP39" s="46"/>
+      <c r="FQ39" s="43"/>
+      <c r="FR39" s="43"/>
+      <c r="FS39" s="43"/>
+      <c r="FT39" s="43"/>
+      <c r="FU39" s="43"/>
+      <c r="FV39" s="50"/>
+      <c r="FW39" s="46"/>
+      <c r="FX39" s="43"/>
+      <c r="FY39" s="43"/>
+      <c r="FZ39" s="43"/>
+      <c r="GA39" s="43"/>
+      <c r="GB39" s="43"/>
+      <c r="GC39" s="50"/>
       <c r="GD39" s="4"/>
       <c r="GJ39" s="3"/>
       <c r="GK39" s="4"/>
@@ -6377,25 +6440,25 @@
       <c r="HE39" s="3"/>
       <c r="HF39" s="4"/>
       <c r="HL39" s="3"/>
-      <c r="HM39" s="48"/>
-      <c r="HP39" s="31"/>
-      <c r="HR39" s="31"/>
+      <c r="HM39" s="46"/>
+      <c r="HP39" s="30"/>
+      <c r="HR39" s="30"/>
       <c r="HS39" s="3"/>
       <c r="HT39" s="4"/>
-      <c r="IA39" s="22"/>
-      <c r="IG39" s="23"/>
-      <c r="IH39" s="22"/>
-      <c r="IM39" s="23"/>
-      <c r="IN39" s="22"/>
-      <c r="IT39" s="23"/>
+      <c r="IA39" s="21"/>
+      <c r="IG39" s="22"/>
+      <c r="IH39" s="21"/>
+      <c r="IM39" s="22"/>
+      <c r="IN39" s="21"/>
+      <c r="IT39" s="22"/>
     </row>
     <row r="40" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A40" s="37"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="J40" s="3"/>
       <c r="K40" s="4"/>
-      <c r="M40" s="45"/>
+      <c r="M40" s="43"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="4"/>
       <c r="X40" s="3"/>
@@ -6409,19 +6472,19 @@
       <c r="AZ40" s="3"/>
       <c r="BA40" s="4"/>
       <c r="BG40" s="3"/>
-      <c r="BH40" s="48"/>
-      <c r="BI40" s="45"/>
-      <c r="BJ40" s="45"/>
-      <c r="BK40" s="45"/>
-      <c r="BL40" s="45"/>
-      <c r="BM40" s="45"/>
-      <c r="BN40" s="52"/>
-      <c r="BO40" s="48"/>
-      <c r="BP40" s="45"/>
-      <c r="BQ40" s="45"/>
-      <c r="BR40" s="31"/>
+      <c r="BH40" s="46"/>
+      <c r="BI40" s="43"/>
+      <c r="BJ40" s="43"/>
+      <c r="BK40" s="43"/>
+      <c r="BL40" s="43"/>
+      <c r="BM40" s="43"/>
+      <c r="BN40" s="50"/>
+      <c r="BO40" s="46"/>
+      <c r="BP40" s="43"/>
+      <c r="BQ40" s="43"/>
+      <c r="BR40" s="30"/>
       <c r="BU40" s="3"/>
-      <c r="BV40" s="48"/>
+      <c r="BV40" s="46"/>
       <c r="CB40" s="3"/>
       <c r="CC40" s="4"/>
       <c r="CI40" s="3"/>
@@ -6430,17 +6493,17 @@
       <c r="CQ40" s="4"/>
       <c r="CW40" s="3"/>
       <c r="CX40" s="4"/>
-      <c r="DE40" s="22"/>
+      <c r="DE40" s="21"/>
       <c r="DK40" s="3"/>
       <c r="DL40" s="4"/>
-      <c r="DR40" s="23"/>
+      <c r="DR40" s="22"/>
       <c r="DY40" s="3"/>
       <c r="DZ40" s="4"/>
       <c r="EF40" s="3"/>
       <c r="EG40" s="4"/>
       <c r="EM40" s="3"/>
       <c r="EN40" s="4"/>
-      <c r="EP40" s="45"/>
+      <c r="EP40" s="43"/>
       <c r="ET40" s="3"/>
       <c r="EU40" s="4"/>
       <c r="FA40" s="3"/>
@@ -6448,20 +6511,20 @@
       <c r="FH40" s="3"/>
       <c r="FI40" s="4"/>
       <c r="FO40" s="3"/>
-      <c r="FP40" s="48"/>
-      <c r="FQ40" s="45"/>
-      <c r="FR40" s="45"/>
-      <c r="FS40" s="45"/>
-      <c r="FT40" s="45"/>
-      <c r="FU40" s="45"/>
-      <c r="FV40" s="52"/>
-      <c r="FW40" s="48"/>
-      <c r="FX40" s="45"/>
-      <c r="FY40" s="45"/>
-      <c r="FZ40" s="45"/>
-      <c r="GA40" s="45"/>
-      <c r="GB40" s="45"/>
-      <c r="GC40" s="52"/>
+      <c r="FP40" s="46"/>
+      <c r="FQ40" s="43"/>
+      <c r="FR40" s="43"/>
+      <c r="FS40" s="43"/>
+      <c r="FT40" s="43"/>
+      <c r="FU40" s="43"/>
+      <c r="FV40" s="50"/>
+      <c r="FW40" s="46"/>
+      <c r="FX40" s="43"/>
+      <c r="FY40" s="43"/>
+      <c r="FZ40" s="43"/>
+      <c r="GA40" s="43"/>
+      <c r="GB40" s="43"/>
+      <c r="GC40" s="50"/>
       <c r="GD40" s="4"/>
       <c r="GJ40" s="3"/>
       <c r="GK40" s="4"/>
@@ -6472,25 +6535,25 @@
       <c r="HE40" s="3"/>
       <c r="HF40" s="4"/>
       <c r="HL40" s="3"/>
-      <c r="HM40" s="48"/>
-      <c r="HP40" s="31"/>
-      <c r="HR40" s="31"/>
+      <c r="HM40" s="46"/>
+      <c r="HP40" s="30"/>
+      <c r="HR40" s="30"/>
       <c r="HS40" s="3"/>
       <c r="HT40" s="4"/>
-      <c r="IA40" s="22"/>
-      <c r="IG40" s="23"/>
-      <c r="IH40" s="22"/>
-      <c r="IM40" s="23"/>
-      <c r="IN40" s="22"/>
-      <c r="IT40" s="23"/>
+      <c r="IA40" s="21"/>
+      <c r="IG40" s="22"/>
+      <c r="IH40" s="21"/>
+      <c r="IM40" s="22"/>
+      <c r="IN40" s="21"/>
+      <c r="IT40" s="22"/>
     </row>
     <row r="41" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A41" s="37"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="J41" s="3"/>
       <c r="K41" s="4"/>
-      <c r="M41" s="45"/>
+      <c r="M41" s="43"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="4"/>
       <c r="X41" s="3"/>
@@ -6504,19 +6567,19 @@
       <c r="AZ41" s="3"/>
       <c r="BA41" s="4"/>
       <c r="BG41" s="3"/>
-      <c r="BH41" s="48"/>
-      <c r="BI41" s="45"/>
-      <c r="BJ41" s="45"/>
-      <c r="BK41" s="45"/>
-      <c r="BL41" s="45"/>
-      <c r="BM41" s="45"/>
-      <c r="BN41" s="52"/>
-      <c r="BO41" s="48"/>
-      <c r="BP41" s="45"/>
-      <c r="BQ41" s="45"/>
-      <c r="BR41" s="31"/>
+      <c r="BH41" s="46"/>
+      <c r="BI41" s="43"/>
+      <c r="BJ41" s="43"/>
+      <c r="BK41" s="43"/>
+      <c r="BL41" s="43"/>
+      <c r="BM41" s="43"/>
+      <c r="BN41" s="50"/>
+      <c r="BO41" s="46"/>
+      <c r="BP41" s="43"/>
+      <c r="BQ41" s="43"/>
+      <c r="BR41" s="30"/>
       <c r="BU41" s="3"/>
-      <c r="BV41" s="48"/>
+      <c r="BV41" s="46"/>
       <c r="CB41" s="3"/>
       <c r="CC41" s="4"/>
       <c r="CI41" s="3"/>
@@ -6525,17 +6588,17 @@
       <c r="CQ41" s="4"/>
       <c r="CW41" s="3"/>
       <c r="CX41" s="4"/>
-      <c r="DE41" s="22"/>
+      <c r="DE41" s="21"/>
       <c r="DK41" s="3"/>
       <c r="DL41" s="4"/>
-      <c r="DR41" s="23"/>
+      <c r="DR41" s="22"/>
       <c r="DY41" s="3"/>
       <c r="DZ41" s="4"/>
       <c r="EF41" s="3"/>
       <c r="EG41" s="4"/>
       <c r="EM41" s="3"/>
       <c r="EN41" s="4"/>
-      <c r="EP41" s="45"/>
+      <c r="EP41" s="43"/>
       <c r="ET41" s="3"/>
       <c r="EU41" s="4"/>
       <c r="FA41" s="3"/>
@@ -6543,20 +6606,20 @@
       <c r="FH41" s="3"/>
       <c r="FI41" s="4"/>
       <c r="FO41" s="3"/>
-      <c r="FP41" s="48"/>
-      <c r="FQ41" s="45"/>
-      <c r="FR41" s="45"/>
-      <c r="FS41" s="45"/>
-      <c r="FT41" s="45"/>
-      <c r="FU41" s="45"/>
-      <c r="FV41" s="52"/>
-      <c r="FW41" s="48"/>
-      <c r="FX41" s="45"/>
-      <c r="FY41" s="45"/>
-      <c r="FZ41" s="45"/>
-      <c r="GA41" s="45"/>
-      <c r="GB41" s="45"/>
-      <c r="GC41" s="52"/>
+      <c r="FP41" s="46"/>
+      <c r="FQ41" s="43"/>
+      <c r="FR41" s="43"/>
+      <c r="FS41" s="43"/>
+      <c r="FT41" s="43"/>
+      <c r="FU41" s="43"/>
+      <c r="FV41" s="50"/>
+      <c r="FW41" s="46"/>
+      <c r="FX41" s="43"/>
+      <c r="FY41" s="43"/>
+      <c r="FZ41" s="43"/>
+      <c r="GA41" s="43"/>
+      <c r="GB41" s="43"/>
+      <c r="GC41" s="50"/>
       <c r="GD41" s="4"/>
       <c r="GJ41" s="3"/>
       <c r="GK41" s="4"/>
@@ -6567,25 +6630,25 @@
       <c r="HE41" s="3"/>
       <c r="HF41" s="4"/>
       <c r="HL41" s="3"/>
-      <c r="HM41" s="48"/>
-      <c r="HP41" s="31"/>
-      <c r="HR41" s="31"/>
+      <c r="HM41" s="46"/>
+      <c r="HP41" s="30"/>
+      <c r="HR41" s="30"/>
       <c r="HS41" s="3"/>
       <c r="HT41" s="4"/>
-      <c r="IA41" s="22"/>
-      <c r="IG41" s="23"/>
-      <c r="IH41" s="22"/>
-      <c r="IM41" s="23"/>
-      <c r="IN41" s="22"/>
-      <c r="IT41" s="23"/>
+      <c r="IA41" s="21"/>
+      <c r="IG41" s="22"/>
+      <c r="IH41" s="21"/>
+      <c r="IM41" s="22"/>
+      <c r="IN41" s="21"/>
+      <c r="IT41" s="22"/>
     </row>
     <row r="42" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A42" s="37"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="J42" s="3"/>
       <c r="K42" s="4"/>
-      <c r="M42" s="45"/>
+      <c r="M42" s="43"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="4"/>
       <c r="X42" s="3"/>
@@ -6599,19 +6662,19 @@
       <c r="AZ42" s="3"/>
       <c r="BA42" s="4"/>
       <c r="BG42" s="3"/>
-      <c r="BH42" s="48"/>
-      <c r="BI42" s="45"/>
-      <c r="BJ42" s="45"/>
-      <c r="BK42" s="45"/>
-      <c r="BL42" s="45"/>
-      <c r="BM42" s="45"/>
-      <c r="BN42" s="52"/>
-      <c r="BO42" s="48"/>
-      <c r="BP42" s="45"/>
-      <c r="BQ42" s="45"/>
-      <c r="BR42" s="31"/>
+      <c r="BH42" s="46"/>
+      <c r="BI42" s="43"/>
+      <c r="BJ42" s="43"/>
+      <c r="BK42" s="43"/>
+      <c r="BL42" s="43"/>
+      <c r="BM42" s="43"/>
+      <c r="BN42" s="50"/>
+      <c r="BO42" s="46"/>
+      <c r="BP42" s="43"/>
+      <c r="BQ42" s="43"/>
+      <c r="BR42" s="30"/>
       <c r="BU42" s="3"/>
-      <c r="BV42" s="48"/>
+      <c r="BV42" s="46"/>
       <c r="CB42" s="3"/>
       <c r="CC42" s="4"/>
       <c r="CI42" s="3"/>
@@ -6620,17 +6683,17 @@
       <c r="CQ42" s="4"/>
       <c r="CW42" s="3"/>
       <c r="CX42" s="4"/>
-      <c r="DE42" s="22"/>
+      <c r="DE42" s="21"/>
       <c r="DK42" s="3"/>
       <c r="DL42" s="4"/>
-      <c r="DR42" s="23"/>
+      <c r="DR42" s="22"/>
       <c r="DY42" s="3"/>
       <c r="DZ42" s="4"/>
       <c r="EF42" s="3"/>
       <c r="EG42" s="4"/>
       <c r="EM42" s="3"/>
       <c r="EN42" s="4"/>
-      <c r="EP42" s="45"/>
+      <c r="EP42" s="43"/>
       <c r="ET42" s="3"/>
       <c r="EU42" s="4"/>
       <c r="FA42" s="3"/>
@@ -6638,20 +6701,20 @@
       <c r="FH42" s="3"/>
       <c r="FI42" s="4"/>
       <c r="FO42" s="3"/>
-      <c r="FP42" s="48"/>
-      <c r="FQ42" s="45"/>
-      <c r="FR42" s="45"/>
-      <c r="FS42" s="45"/>
-      <c r="FT42" s="45"/>
-      <c r="FU42" s="45"/>
-      <c r="FV42" s="52"/>
-      <c r="FW42" s="48"/>
-      <c r="FX42" s="45"/>
-      <c r="FY42" s="45"/>
-      <c r="FZ42" s="45"/>
-      <c r="GA42" s="45"/>
-      <c r="GB42" s="45"/>
-      <c r="GC42" s="52"/>
+      <c r="FP42" s="46"/>
+      <c r="FQ42" s="43"/>
+      <c r="FR42" s="43"/>
+      <c r="FS42" s="43"/>
+      <c r="FT42" s="43"/>
+      <c r="FU42" s="43"/>
+      <c r="FV42" s="50"/>
+      <c r="FW42" s="46"/>
+      <c r="FX42" s="43"/>
+      <c r="FY42" s="43"/>
+      <c r="FZ42" s="43"/>
+      <c r="GA42" s="43"/>
+      <c r="GB42" s="43"/>
+      <c r="GC42" s="50"/>
       <c r="GD42" s="4"/>
       <c r="GJ42" s="3"/>
       <c r="GK42" s="4"/>
@@ -6662,25 +6725,25 @@
       <c r="HE42" s="3"/>
       <c r="HF42" s="4"/>
       <c r="HL42" s="3"/>
-      <c r="HM42" s="48"/>
-      <c r="HP42" s="31"/>
-      <c r="HR42" s="31"/>
+      <c r="HM42" s="46"/>
+      <c r="HP42" s="30"/>
+      <c r="HR42" s="30"/>
       <c r="HS42" s="3"/>
       <c r="HT42" s="4"/>
-      <c r="IA42" s="22"/>
-      <c r="IG42" s="23"/>
-      <c r="IH42" s="22"/>
-      <c r="IM42" s="23"/>
-      <c r="IN42" s="22"/>
-      <c r="IT42" s="23"/>
+      <c r="IA42" s="21"/>
+      <c r="IG42" s="22"/>
+      <c r="IH42" s="21"/>
+      <c r="IM42" s="22"/>
+      <c r="IN42" s="21"/>
+      <c r="IT42" s="22"/>
     </row>
     <row r="43" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A43" s="37"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="J43" s="3"/>
       <c r="K43" s="4"/>
-      <c r="M43" s="45"/>
+      <c r="M43" s="43"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="4"/>
       <c r="X43" s="3"/>
@@ -6694,19 +6757,19 @@
       <c r="AZ43" s="3"/>
       <c r="BA43" s="4"/>
       <c r="BG43" s="3"/>
-      <c r="BH43" s="48"/>
-      <c r="BI43" s="45"/>
-      <c r="BJ43" s="45"/>
-      <c r="BK43" s="45"/>
-      <c r="BL43" s="45"/>
-      <c r="BM43" s="45"/>
-      <c r="BN43" s="52"/>
-      <c r="BO43" s="48"/>
-      <c r="BP43" s="45"/>
-      <c r="BQ43" s="45"/>
-      <c r="BR43" s="31"/>
+      <c r="BH43" s="46"/>
+      <c r="BI43" s="43"/>
+      <c r="BJ43" s="43"/>
+      <c r="BK43" s="43"/>
+      <c r="BL43" s="43"/>
+      <c r="BM43" s="43"/>
+      <c r="BN43" s="50"/>
+      <c r="BO43" s="46"/>
+      <c r="BP43" s="43"/>
+      <c r="BQ43" s="43"/>
+      <c r="BR43" s="30"/>
       <c r="BU43" s="3"/>
-      <c r="BV43" s="48"/>
+      <c r="BV43" s="46"/>
       <c r="CB43" s="3"/>
       <c r="CC43" s="4"/>
       <c r="CI43" s="3"/>
@@ -6715,17 +6778,17 @@
       <c r="CQ43" s="4"/>
       <c r="CW43" s="3"/>
       <c r="CX43" s="4"/>
-      <c r="DE43" s="22"/>
+      <c r="DE43" s="21"/>
       <c r="DK43" s="3"/>
       <c r="DL43" s="4"/>
-      <c r="DR43" s="23"/>
+      <c r="DR43" s="22"/>
       <c r="DY43" s="3"/>
       <c r="DZ43" s="4"/>
       <c r="EF43" s="3"/>
       <c r="EG43" s="4"/>
       <c r="EM43" s="3"/>
       <c r="EN43" s="4"/>
-      <c r="EP43" s="45"/>
+      <c r="EP43" s="43"/>
       <c r="ET43" s="3"/>
       <c r="EU43" s="4"/>
       <c r="FA43" s="3"/>
@@ -6733,20 +6796,20 @@
       <c r="FH43" s="3"/>
       <c r="FI43" s="4"/>
       <c r="FO43" s="3"/>
-      <c r="FP43" s="48"/>
-      <c r="FQ43" s="45"/>
-      <c r="FR43" s="45"/>
-      <c r="FS43" s="45"/>
-      <c r="FT43" s="45"/>
-      <c r="FU43" s="45"/>
-      <c r="FV43" s="52"/>
-      <c r="FW43" s="48"/>
-      <c r="FX43" s="45"/>
-      <c r="FY43" s="45"/>
-      <c r="FZ43" s="45"/>
-      <c r="GA43" s="45"/>
-      <c r="GB43" s="45"/>
-      <c r="GC43" s="52"/>
+      <c r="FP43" s="46"/>
+      <c r="FQ43" s="43"/>
+      <c r="FR43" s="43"/>
+      <c r="FS43" s="43"/>
+      <c r="FT43" s="43"/>
+      <c r="FU43" s="43"/>
+      <c r="FV43" s="50"/>
+      <c r="FW43" s="46"/>
+      <c r="FX43" s="43"/>
+      <c r="FY43" s="43"/>
+      <c r="FZ43" s="43"/>
+      <c r="GA43" s="43"/>
+      <c r="GB43" s="43"/>
+      <c r="GC43" s="50"/>
       <c r="GD43" s="4"/>
       <c r="GJ43" s="3"/>
       <c r="GK43" s="4"/>
@@ -6757,25 +6820,25 @@
       <c r="HE43" s="3"/>
       <c r="HF43" s="4"/>
       <c r="HL43" s="3"/>
-      <c r="HM43" s="48"/>
-      <c r="HP43" s="31"/>
-      <c r="HR43" s="31"/>
+      <c r="HM43" s="46"/>
+      <c r="HP43" s="30"/>
+      <c r="HR43" s="30"/>
       <c r="HS43" s="3"/>
       <c r="HT43" s="4"/>
-      <c r="IA43" s="22"/>
-      <c r="IG43" s="23"/>
-      <c r="IH43" s="22"/>
-      <c r="IM43" s="23"/>
-      <c r="IN43" s="22"/>
-      <c r="IT43" s="23"/>
+      <c r="IA43" s="21"/>
+      <c r="IG43" s="22"/>
+      <c r="IH43" s="21"/>
+      <c r="IM43" s="22"/>
+      <c r="IN43" s="21"/>
+      <c r="IT43" s="22"/>
     </row>
     <row r="44" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A44" s="37"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="J44" s="3"/>
       <c r="K44" s="4"/>
-      <c r="M44" s="45"/>
+      <c r="M44" s="43"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="4"/>
       <c r="X44" s="3"/>
@@ -6789,19 +6852,19 @@
       <c r="AZ44" s="3"/>
       <c r="BA44" s="4"/>
       <c r="BG44" s="3"/>
-      <c r="BH44" s="48"/>
-      <c r="BI44" s="45"/>
-      <c r="BJ44" s="45"/>
-      <c r="BK44" s="45"/>
-      <c r="BL44" s="45"/>
-      <c r="BM44" s="45"/>
-      <c r="BN44" s="52"/>
-      <c r="BO44" s="48"/>
-      <c r="BP44" s="45"/>
-      <c r="BQ44" s="45"/>
-      <c r="BR44" s="31"/>
+      <c r="BH44" s="46"/>
+      <c r="BI44" s="43"/>
+      <c r="BJ44" s="43"/>
+      <c r="BK44" s="43"/>
+      <c r="BL44" s="43"/>
+      <c r="BM44" s="43"/>
+      <c r="BN44" s="50"/>
+      <c r="BO44" s="46"/>
+      <c r="BP44" s="43"/>
+      <c r="BQ44" s="43"/>
+      <c r="BR44" s="30"/>
       <c r="BU44" s="3"/>
-      <c r="BV44" s="48"/>
+      <c r="BV44" s="46"/>
       <c r="CB44" s="3"/>
       <c r="CC44" s="4"/>
       <c r="CI44" s="3"/>
@@ -6810,17 +6873,17 @@
       <c r="CQ44" s="4"/>
       <c r="CW44" s="3"/>
       <c r="CX44" s="4"/>
-      <c r="DE44" s="22"/>
+      <c r="DE44" s="21"/>
       <c r="DK44" s="3"/>
       <c r="DL44" s="4"/>
-      <c r="DR44" s="23"/>
+      <c r="DR44" s="22"/>
       <c r="DY44" s="3"/>
       <c r="DZ44" s="4"/>
       <c r="EF44" s="3"/>
       <c r="EG44" s="4"/>
       <c r="EM44" s="3"/>
       <c r="EN44" s="4"/>
-      <c r="EP44" s="45"/>
+      <c r="EP44" s="43"/>
       <c r="ET44" s="3"/>
       <c r="EU44" s="4"/>
       <c r="FA44" s="3"/>
@@ -6828,20 +6891,20 @@
       <c r="FH44" s="3"/>
       <c r="FI44" s="4"/>
       <c r="FO44" s="3"/>
-      <c r="FP44" s="48"/>
-      <c r="FQ44" s="45"/>
-      <c r="FR44" s="45"/>
-      <c r="FS44" s="45"/>
-      <c r="FT44" s="45"/>
-      <c r="FU44" s="45"/>
-      <c r="FV44" s="52"/>
-      <c r="FW44" s="48"/>
-      <c r="FX44" s="45"/>
-      <c r="FY44" s="45"/>
-      <c r="FZ44" s="45"/>
-      <c r="GA44" s="45"/>
-      <c r="GB44" s="45"/>
-      <c r="GC44" s="52"/>
+      <c r="FP44" s="46"/>
+      <c r="FQ44" s="43"/>
+      <c r="FR44" s="43"/>
+      <c r="FS44" s="43"/>
+      <c r="FT44" s="43"/>
+      <c r="FU44" s="43"/>
+      <c r="FV44" s="50"/>
+      <c r="FW44" s="46"/>
+      <c r="FX44" s="43"/>
+      <c r="FY44" s="43"/>
+      <c r="FZ44" s="43"/>
+      <c r="GA44" s="43"/>
+      <c r="GB44" s="43"/>
+      <c r="GC44" s="50"/>
       <c r="GD44" s="4"/>
       <c r="GJ44" s="3"/>
       <c r="GK44" s="4"/>
@@ -6852,25 +6915,25 @@
       <c r="HE44" s="3"/>
       <c r="HF44" s="4"/>
       <c r="HL44" s="3"/>
-      <c r="HM44" s="48"/>
-      <c r="HP44" s="31"/>
-      <c r="HR44" s="31"/>
+      <c r="HM44" s="46"/>
+      <c r="HP44" s="30"/>
+      <c r="HR44" s="30"/>
       <c r="HS44" s="3"/>
       <c r="HT44" s="4"/>
-      <c r="IA44" s="22"/>
-      <c r="IG44" s="23"/>
-      <c r="IH44" s="22"/>
-      <c r="IM44" s="23"/>
-      <c r="IN44" s="22"/>
-      <c r="IT44" s="23"/>
+      <c r="IA44" s="21"/>
+      <c r="IG44" s="22"/>
+      <c r="IH44" s="21"/>
+      <c r="IM44" s="22"/>
+      <c r="IN44" s="21"/>
+      <c r="IT44" s="22"/>
     </row>
     <row r="45" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A45" s="37"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="J45" s="3"/>
       <c r="K45" s="4"/>
-      <c r="M45" s="45"/>
+      <c r="M45" s="43"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="4"/>
       <c r="X45" s="3"/>
@@ -6884,19 +6947,19 @@
       <c r="AZ45" s="3"/>
       <c r="BA45" s="4"/>
       <c r="BG45" s="3"/>
-      <c r="BH45" s="48"/>
-      <c r="BI45" s="45"/>
-      <c r="BJ45" s="45"/>
-      <c r="BK45" s="45"/>
-      <c r="BL45" s="45"/>
-      <c r="BM45" s="45"/>
-      <c r="BN45" s="52"/>
-      <c r="BO45" s="48"/>
-      <c r="BP45" s="45"/>
-      <c r="BQ45" s="45"/>
-      <c r="BR45" s="31"/>
+      <c r="BH45" s="46"/>
+      <c r="BI45" s="43"/>
+      <c r="BJ45" s="43"/>
+      <c r="BK45" s="43"/>
+      <c r="BL45" s="43"/>
+      <c r="BM45" s="43"/>
+      <c r="BN45" s="50"/>
+      <c r="BO45" s="46"/>
+      <c r="BP45" s="43"/>
+      <c r="BQ45" s="43"/>
+      <c r="BR45" s="30"/>
       <c r="BU45" s="3"/>
-      <c r="BV45" s="48"/>
+      <c r="BV45" s="46"/>
       <c r="CB45" s="3"/>
       <c r="CC45" s="4"/>
       <c r="CI45" s="3"/>
@@ -6905,17 +6968,17 @@
       <c r="CQ45" s="4"/>
       <c r="CW45" s="3"/>
       <c r="CX45" s="4"/>
-      <c r="DE45" s="22"/>
+      <c r="DE45" s="21"/>
       <c r="DK45" s="3"/>
       <c r="DL45" s="4"/>
-      <c r="DR45" s="23"/>
+      <c r="DR45" s="22"/>
       <c r="DY45" s="3"/>
       <c r="DZ45" s="4"/>
       <c r="EF45" s="3"/>
       <c r="EG45" s="4"/>
       <c r="EM45" s="3"/>
       <c r="EN45" s="4"/>
-      <c r="EP45" s="45"/>
+      <c r="EP45" s="43"/>
       <c r="ET45" s="3"/>
       <c r="EU45" s="4"/>
       <c r="FA45" s="3"/>
@@ -6923,20 +6986,20 @@
       <c r="FH45" s="3"/>
       <c r="FI45" s="4"/>
       <c r="FO45" s="3"/>
-      <c r="FP45" s="48"/>
-      <c r="FQ45" s="45"/>
-      <c r="FR45" s="45"/>
-      <c r="FS45" s="45"/>
-      <c r="FT45" s="45"/>
-      <c r="FU45" s="45"/>
-      <c r="FV45" s="52"/>
-      <c r="FW45" s="48"/>
-      <c r="FX45" s="45"/>
-      <c r="FY45" s="45"/>
-      <c r="FZ45" s="45"/>
-      <c r="GA45" s="45"/>
-      <c r="GB45" s="45"/>
-      <c r="GC45" s="52"/>
+      <c r="FP45" s="46"/>
+      <c r="FQ45" s="43"/>
+      <c r="FR45" s="43"/>
+      <c r="FS45" s="43"/>
+      <c r="FT45" s="43"/>
+      <c r="FU45" s="43"/>
+      <c r="FV45" s="50"/>
+      <c r="FW45" s="46"/>
+      <c r="FX45" s="43"/>
+      <c r="FY45" s="43"/>
+      <c r="FZ45" s="43"/>
+      <c r="GA45" s="43"/>
+      <c r="GB45" s="43"/>
+      <c r="GC45" s="50"/>
       <c r="GD45" s="4"/>
       <c r="GJ45" s="3"/>
       <c r="GK45" s="4"/>
@@ -6947,25 +7010,25 @@
       <c r="HE45" s="3"/>
       <c r="HF45" s="4"/>
       <c r="HL45" s="3"/>
-      <c r="HM45" s="48"/>
-      <c r="HP45" s="31"/>
-      <c r="HR45" s="31"/>
+      <c r="HM45" s="46"/>
+      <c r="HP45" s="30"/>
+      <c r="HR45" s="30"/>
       <c r="HS45" s="3"/>
       <c r="HT45" s="4"/>
-      <c r="IA45" s="22"/>
-      <c r="IG45" s="23"/>
-      <c r="IH45" s="22"/>
-      <c r="IM45" s="23"/>
-      <c r="IN45" s="22"/>
-      <c r="IT45" s="23"/>
+      <c r="IA45" s="21"/>
+      <c r="IG45" s="22"/>
+      <c r="IH45" s="21"/>
+      <c r="IM45" s="22"/>
+      <c r="IN45" s="21"/>
+      <c r="IT45" s="22"/>
     </row>
     <row r="46" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A46" s="37"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="J46" s="3"/>
       <c r="K46" s="4"/>
-      <c r="M46" s="45"/>
+      <c r="M46" s="43"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="4"/>
       <c r="X46" s="3"/>
@@ -6979,19 +7042,19 @@
       <c r="AZ46" s="3"/>
       <c r="BA46" s="4"/>
       <c r="BG46" s="3"/>
-      <c r="BH46" s="48"/>
-      <c r="BI46" s="45"/>
-      <c r="BJ46" s="45"/>
-      <c r="BK46" s="45"/>
-      <c r="BL46" s="45"/>
-      <c r="BM46" s="45"/>
-      <c r="BN46" s="52"/>
-      <c r="BO46" s="48"/>
-      <c r="BP46" s="45"/>
-      <c r="BQ46" s="45"/>
-      <c r="BR46" s="31"/>
+      <c r="BH46" s="46"/>
+      <c r="BI46" s="43"/>
+      <c r="BJ46" s="43"/>
+      <c r="BK46" s="43"/>
+      <c r="BL46" s="43"/>
+      <c r="BM46" s="43"/>
+      <c r="BN46" s="50"/>
+      <c r="BO46" s="46"/>
+      <c r="BP46" s="43"/>
+      <c r="BQ46" s="43"/>
+      <c r="BR46" s="30"/>
       <c r="BU46" s="3"/>
-      <c r="BV46" s="48"/>
+      <c r="BV46" s="46"/>
       <c r="CB46" s="3"/>
       <c r="CC46" s="4"/>
       <c r="CI46" s="3"/>
@@ -7000,17 +7063,17 @@
       <c r="CQ46" s="4"/>
       <c r="CW46" s="3"/>
       <c r="CX46" s="4"/>
-      <c r="DE46" s="22"/>
+      <c r="DE46" s="21"/>
       <c r="DK46" s="3"/>
       <c r="DL46" s="4"/>
-      <c r="DR46" s="23"/>
+      <c r="DR46" s="22"/>
       <c r="DY46" s="3"/>
       <c r="DZ46" s="4"/>
       <c r="EF46" s="3"/>
       <c r="EG46" s="4"/>
       <c r="EM46" s="3"/>
       <c r="EN46" s="4"/>
-      <c r="EP46" s="45"/>
+      <c r="EP46" s="43"/>
       <c r="ET46" s="3"/>
       <c r="EU46" s="4"/>
       <c r="FA46" s="3"/>
@@ -7018,20 +7081,20 @@
       <c r="FH46" s="3"/>
       <c r="FI46" s="4"/>
       <c r="FO46" s="3"/>
-      <c r="FP46" s="48"/>
-      <c r="FQ46" s="45"/>
-      <c r="FR46" s="45"/>
-      <c r="FS46" s="45"/>
-      <c r="FT46" s="45"/>
-      <c r="FU46" s="45"/>
-      <c r="FV46" s="52"/>
-      <c r="FW46" s="48"/>
-      <c r="FX46" s="45"/>
-      <c r="FY46" s="45"/>
-      <c r="FZ46" s="45"/>
-      <c r="GA46" s="45"/>
-      <c r="GB46" s="45"/>
-      <c r="GC46" s="52"/>
+      <c r="FP46" s="46"/>
+      <c r="FQ46" s="43"/>
+      <c r="FR46" s="43"/>
+      <c r="FS46" s="43"/>
+      <c r="FT46" s="43"/>
+      <c r="FU46" s="43"/>
+      <c r="FV46" s="50"/>
+      <c r="FW46" s="46"/>
+      <c r="FX46" s="43"/>
+      <c r="FY46" s="43"/>
+      <c r="FZ46" s="43"/>
+      <c r="GA46" s="43"/>
+      <c r="GB46" s="43"/>
+      <c r="GC46" s="50"/>
       <c r="GD46" s="4"/>
       <c r="GJ46" s="3"/>
       <c r="GK46" s="4"/>
@@ -7042,766 +7105,293 @@
       <c r="HE46" s="3"/>
       <c r="HF46" s="4"/>
       <c r="HL46" s="3"/>
-      <c r="HM46" s="48"/>
-      <c r="HP46" s="31"/>
-      <c r="HR46" s="31"/>
+      <c r="HM46" s="46"/>
+      <c r="HP46" s="30"/>
+      <c r="HR46" s="30"/>
       <c r="HS46" s="3"/>
       <c r="HT46" s="4"/>
-      <c r="IA46" s="22"/>
-      <c r="IG46" s="23"/>
-      <c r="IH46" s="22"/>
-      <c r="IM46" s="23"/>
-      <c r="IN46" s="22"/>
-      <c r="IT46" s="23"/>
+      <c r="IA46" s="21"/>
+      <c r="IG46" s="22"/>
+      <c r="IH46" s="21"/>
+      <c r="IM46" s="22"/>
+      <c r="IN46" s="21"/>
+      <c r="IT46" s="22"/>
     </row>
-    <row r="47" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A47" s="37"/>
+    <row r="47" spans="1:254" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="36"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="4"/>
-      <c r="M47" s="45"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="4"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="4"/>
-      <c r="AE47" s="3"/>
-      <c r="AF47" s="4"/>
-      <c r="AL47" s="3"/>
-      <c r="AM47" s="4"/>
-      <c r="AS47" s="3"/>
-      <c r="AT47" s="4"/>
-      <c r="AZ47" s="3"/>
-      <c r="BA47" s="4"/>
-      <c r="BG47" s="3"/>
-      <c r="BH47" s="48"/>
-      <c r="BI47" s="45"/>
-      <c r="BJ47" s="45"/>
-      <c r="BK47" s="45"/>
-      <c r="BL47" s="45"/>
-      <c r="BM47" s="45"/>
-      <c r="BN47" s="52"/>
-      <c r="BO47" s="48"/>
-      <c r="BP47" s="45"/>
-      <c r="BQ47" s="45"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="8"/>
+      <c r="AM47" s="6"/>
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="7"/>
+      <c r="AP47" s="7"/>
+      <c r="AQ47" s="7"/>
+      <c r="AR47" s="7"/>
+      <c r="AS47" s="8"/>
+      <c r="AT47" s="6"/>
+      <c r="AU47" s="7"/>
+      <c r="AV47" s="7"/>
+      <c r="AW47" s="7"/>
+      <c r="AX47" s="7"/>
+      <c r="AY47" s="7"/>
+      <c r="AZ47" s="8"/>
+      <c r="BA47" s="6"/>
+      <c r="BB47" s="7"/>
+      <c r="BC47" s="7"/>
+      <c r="BD47" s="7"/>
+      <c r="BE47" s="7"/>
+      <c r="BF47" s="7"/>
+      <c r="BG47" s="8"/>
+      <c r="BH47" s="47"/>
+      <c r="BI47" s="44"/>
+      <c r="BJ47" s="44"/>
+      <c r="BK47" s="44"/>
+      <c r="BL47" s="44"/>
+      <c r="BM47" s="44"/>
+      <c r="BN47" s="51"/>
+      <c r="BO47" s="47"/>
+      <c r="BP47" s="44"/>
+      <c r="BQ47" s="44"/>
       <c r="BR47" s="31"/>
-      <c r="BU47" s="3"/>
-      <c r="BV47" s="48"/>
-      <c r="CB47" s="3"/>
-      <c r="CC47" s="4"/>
-      <c r="CI47" s="3"/>
-      <c r="CJ47" s="4"/>
-      <c r="CP47" s="3"/>
-      <c r="CQ47" s="4"/>
-      <c r="CW47" s="3"/>
-      <c r="CX47" s="4"/>
-      <c r="DE47" s="22"/>
-      <c r="DK47" s="3"/>
-      <c r="DL47" s="4"/>
-      <c r="DR47" s="23"/>
-      <c r="DY47" s="3"/>
-      <c r="DZ47" s="4"/>
-      <c r="EF47" s="3"/>
-      <c r="EG47" s="4"/>
-      <c r="EM47" s="3"/>
-      <c r="EN47" s="4"/>
-      <c r="EP47" s="45"/>
-      <c r="ET47" s="3"/>
-      <c r="EU47" s="4"/>
-      <c r="FA47" s="3"/>
-      <c r="FB47" s="4"/>
-      <c r="FH47" s="3"/>
-      <c r="FI47" s="4"/>
-      <c r="FO47" s="3"/>
-      <c r="FP47" s="48"/>
-      <c r="FQ47" s="45"/>
-      <c r="FR47" s="45"/>
-      <c r="FS47" s="45"/>
-      <c r="FT47" s="45"/>
-      <c r="FU47" s="45"/>
-      <c r="FV47" s="52"/>
-      <c r="FW47" s="48"/>
-      <c r="FX47" s="45"/>
-      <c r="FY47" s="45"/>
-      <c r="FZ47" s="45"/>
-      <c r="GA47" s="45"/>
-      <c r="GB47" s="45"/>
-      <c r="GC47" s="52"/>
-      <c r="GD47" s="4"/>
-      <c r="GJ47" s="3"/>
-      <c r="GK47" s="4"/>
-      <c r="GQ47" s="3"/>
-      <c r="GR47" s="4"/>
-      <c r="GX47" s="3"/>
-      <c r="GY47" s="4"/>
-      <c r="HE47" s="3"/>
-      <c r="HF47" s="4"/>
-      <c r="HL47" s="3"/>
-      <c r="HM47" s="48"/>
+      <c r="BS47" s="7"/>
+      <c r="BT47" s="7"/>
+      <c r="BU47" s="8"/>
+      <c r="BV47" s="47"/>
+      <c r="BW47" s="7"/>
+      <c r="BX47" s="7"/>
+      <c r="BY47" s="7"/>
+      <c r="BZ47" s="7"/>
+      <c r="CA47" s="7"/>
+      <c r="CB47" s="8"/>
+      <c r="CC47" s="6"/>
+      <c r="CD47" s="7"/>
+      <c r="CE47" s="7"/>
+      <c r="CF47" s="7"/>
+      <c r="CG47" s="7"/>
+      <c r="CH47" s="7"/>
+      <c r="CI47" s="8"/>
+      <c r="CJ47" s="6"/>
+      <c r="CK47" s="7"/>
+      <c r="CL47" s="7"/>
+      <c r="CM47" s="7"/>
+      <c r="CN47" s="7"/>
+      <c r="CO47" s="7"/>
+      <c r="CP47" s="8"/>
+      <c r="CQ47" s="6"/>
+      <c r="CR47" s="7"/>
+      <c r="CS47" s="7"/>
+      <c r="CT47" s="7"/>
+      <c r="CU47" s="7"/>
+      <c r="CV47" s="7"/>
+      <c r="CW47" s="8"/>
+      <c r="CX47" s="6"/>
+      <c r="CY47" s="7"/>
+      <c r="CZ47" s="7"/>
+      <c r="DA47" s="7"/>
+      <c r="DB47" s="7"/>
+      <c r="DC47" s="7"/>
+      <c r="DD47" s="7"/>
+      <c r="DE47" s="23"/>
+      <c r="DF47" s="24"/>
+      <c r="DG47" s="24"/>
+      <c r="DH47" s="24"/>
+      <c r="DI47" s="24"/>
+      <c r="DJ47" s="24"/>
+      <c r="DK47" s="26"/>
+      <c r="DL47" s="27"/>
+      <c r="DM47" s="24"/>
+      <c r="DN47" s="24"/>
+      <c r="DO47" s="24"/>
+      <c r="DP47" s="24"/>
+      <c r="DQ47" s="24"/>
+      <c r="DR47" s="25"/>
+      <c r="DS47" s="7"/>
+      <c r="DT47" s="7"/>
+      <c r="DU47" s="7"/>
+      <c r="DV47" s="7"/>
+      <c r="DW47" s="7"/>
+      <c r="DX47" s="7"/>
+      <c r="DY47" s="8"/>
+      <c r="DZ47" s="6"/>
+      <c r="EA47" s="7"/>
+      <c r="EB47" s="7"/>
+      <c r="EC47" s="7"/>
+      <c r="ED47" s="7"/>
+      <c r="EE47" s="7"/>
+      <c r="EF47" s="8"/>
+      <c r="EG47" s="6"/>
+      <c r="EH47" s="7"/>
+      <c r="EI47" s="7"/>
+      <c r="EJ47" s="7"/>
+      <c r="EK47" s="7"/>
+      <c r="EL47" s="7"/>
+      <c r="EM47" s="8"/>
+      <c r="EN47" s="6"/>
+      <c r="EO47" s="7"/>
+      <c r="EP47" s="44"/>
+      <c r="EQ47" s="7"/>
+      <c r="ER47" s="7"/>
+      <c r="ES47" s="7"/>
+      <c r="ET47" s="8"/>
+      <c r="EU47" s="6"/>
+      <c r="EV47" s="7"/>
+      <c r="EW47" s="7"/>
+      <c r="EX47" s="7"/>
+      <c r="EY47" s="7"/>
+      <c r="EZ47" s="7"/>
+      <c r="FA47" s="8"/>
+      <c r="FB47" s="6"/>
+      <c r="FC47" s="7"/>
+      <c r="FD47" s="7"/>
+      <c r="FE47" s="7"/>
+      <c r="FF47" s="7"/>
+      <c r="FG47" s="7"/>
+      <c r="FH47" s="8"/>
+      <c r="FI47" s="6"/>
+      <c r="FJ47" s="7"/>
+      <c r="FK47" s="7"/>
+      <c r="FL47" s="7"/>
+      <c r="FM47" s="7"/>
+      <c r="FN47" s="7"/>
+      <c r="FO47" s="8"/>
+      <c r="FP47" s="47"/>
+      <c r="FQ47" s="44"/>
+      <c r="FR47" s="44"/>
+      <c r="FS47" s="44"/>
+      <c r="FT47" s="44"/>
+      <c r="FU47" s="44"/>
+      <c r="FV47" s="51"/>
+      <c r="FW47" s="47"/>
+      <c r="FX47" s="44"/>
+      <c r="FY47" s="44"/>
+      <c r="FZ47" s="44"/>
+      <c r="GA47" s="44"/>
+      <c r="GB47" s="44"/>
+      <c r="GC47" s="51"/>
+      <c r="GD47" s="6"/>
+      <c r="GE47" s="7"/>
+      <c r="GF47" s="7"/>
+      <c r="GG47" s="7"/>
+      <c r="GH47" s="7"/>
+      <c r="GI47" s="7"/>
+      <c r="GJ47" s="8"/>
+      <c r="GK47" s="6"/>
+      <c r="GL47" s="7"/>
+      <c r="GM47" s="7"/>
+      <c r="GN47" s="7"/>
+      <c r="GO47" s="7"/>
+      <c r="GP47" s="7"/>
+      <c r="GQ47" s="8"/>
+      <c r="GR47" s="6"/>
+      <c r="GS47" s="7"/>
+      <c r="GT47" s="7"/>
+      <c r="GU47" s="7"/>
+      <c r="GV47" s="7"/>
+      <c r="GW47" s="7"/>
+      <c r="GX47" s="8"/>
+      <c r="GY47" s="6"/>
+      <c r="GZ47" s="7"/>
+      <c r="HA47" s="7"/>
+      <c r="HB47" s="7"/>
+      <c r="HC47" s="7"/>
+      <c r="HD47" s="7"/>
+      <c r="HE47" s="8"/>
+      <c r="HF47" s="6"/>
+      <c r="HG47" s="7"/>
+      <c r="HH47" s="7"/>
+      <c r="HI47" s="7"/>
+      <c r="HJ47" s="7"/>
+      <c r="HK47" s="7"/>
+      <c r="HL47" s="8"/>
+      <c r="HM47" s="47"/>
+      <c r="HN47" s="7"/>
+      <c r="HO47" s="7"/>
       <c r="HP47" s="31"/>
+      <c r="HQ47" s="7"/>
       <c r="HR47" s="31"/>
-      <c r="HS47" s="3"/>
-      <c r="HT47" s="4"/>
-      <c r="IA47" s="22"/>
-      <c r="IG47" s="23"/>
-      <c r="IH47" s="22"/>
-      <c r="IM47" s="23"/>
-      <c r="IN47" s="22"/>
-      <c r="IT47" s="23"/>
+      <c r="HS47" s="8"/>
+      <c r="HT47" s="6"/>
+      <c r="HU47" s="7"/>
+      <c r="HV47" s="7"/>
+      <c r="HW47" s="7"/>
+      <c r="HX47" s="7"/>
+      <c r="HY47" s="7"/>
+      <c r="HZ47" s="7"/>
+      <c r="IA47" s="23"/>
+      <c r="IB47" s="24"/>
+      <c r="IC47" s="24"/>
+      <c r="ID47" s="24"/>
+      <c r="IE47" s="24"/>
+      <c r="IF47" s="24"/>
+      <c r="IG47" s="25"/>
+      <c r="IH47" s="23"/>
+      <c r="II47" s="24"/>
+      <c r="IJ47" s="24"/>
+      <c r="IK47" s="24"/>
+      <c r="IL47" s="24"/>
+      <c r="IM47" s="25"/>
+      <c r="IN47" s="23"/>
+      <c r="IO47" s="24"/>
+      <c r="IP47" s="24"/>
+      <c r="IQ47" s="24"/>
+      <c r="IR47" s="24"/>
+      <c r="IS47" s="24"/>
+      <c r="IT47" s="25"/>
     </row>
-    <row r="48" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A48" s="37"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="4"/>
-      <c r="M48" s="45"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="4"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="4"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="4"/>
-      <c r="AL48" s="3"/>
-      <c r="AM48" s="4"/>
-      <c r="AS48" s="3"/>
-      <c r="AT48" s="4"/>
-      <c r="AZ48" s="3"/>
-      <c r="BA48" s="4"/>
-      <c r="BG48" s="3"/>
-      <c r="BH48" s="48"/>
-      <c r="BI48" s="45"/>
-      <c r="BJ48" s="45"/>
-      <c r="BK48" s="45"/>
-      <c r="BL48" s="45"/>
-      <c r="BM48" s="45"/>
-      <c r="BN48" s="52"/>
-      <c r="BO48" s="48"/>
-      <c r="BP48" s="45"/>
-      <c r="BQ48" s="45"/>
-      <c r="BR48" s="31"/>
-      <c r="BU48" s="3"/>
-      <c r="BV48" s="48"/>
-      <c r="CB48" s="3"/>
-      <c r="CC48" s="4"/>
-      <c r="CI48" s="3"/>
-      <c r="CJ48" s="4"/>
-      <c r="CP48" s="3"/>
-      <c r="CQ48" s="4"/>
-      <c r="CW48" s="3"/>
-      <c r="CX48" s="4"/>
-      <c r="DE48" s="22"/>
-      <c r="DK48" s="3"/>
-      <c r="DL48" s="4"/>
-      <c r="DR48" s="23"/>
-      <c r="DY48" s="3"/>
-      <c r="DZ48" s="4"/>
-      <c r="EF48" s="3"/>
-      <c r="EG48" s="4"/>
-      <c r="EM48" s="3"/>
-      <c r="EN48" s="4"/>
-      <c r="EP48" s="45"/>
-      <c r="ET48" s="3"/>
-      <c r="EU48" s="4"/>
-      <c r="FA48" s="3"/>
-      <c r="FB48" s="4"/>
-      <c r="FH48" s="3"/>
-      <c r="FI48" s="4"/>
-      <c r="FO48" s="3"/>
-      <c r="FP48" s="48"/>
-      <c r="FQ48" s="45"/>
-      <c r="FR48" s="45"/>
-      <c r="FS48" s="45"/>
-      <c r="FT48" s="45"/>
-      <c r="FU48" s="45"/>
-      <c r="FV48" s="52"/>
-      <c r="FW48" s="48"/>
-      <c r="FX48" s="45"/>
-      <c r="FY48" s="45"/>
-      <c r="FZ48" s="45"/>
-      <c r="GA48" s="45"/>
-      <c r="GB48" s="45"/>
-      <c r="GC48" s="52"/>
-      <c r="GD48" s="4"/>
-      <c r="GJ48" s="3"/>
-      <c r="GK48" s="4"/>
-      <c r="GQ48" s="3"/>
-      <c r="GR48" s="4"/>
-      <c r="GX48" s="3"/>
-      <c r="GY48" s="4"/>
-      <c r="HE48" s="3"/>
-      <c r="HF48" s="4"/>
-      <c r="HL48" s="3"/>
-      <c r="HM48" s="48"/>
-      <c r="HP48" s="31"/>
-      <c r="HR48" s="31"/>
-      <c r="HS48" s="3"/>
-      <c r="HT48" s="4"/>
-      <c r="IA48" s="22"/>
-      <c r="IG48" s="23"/>
-      <c r="IH48" s="22"/>
-      <c r="IM48" s="23"/>
-      <c r="IN48" s="22"/>
-      <c r="IT48" s="23"/>
-    </row>
-    <row r="49" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A49" s="37"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="4"/>
-      <c r="M49" s="45"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="4"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="4"/>
-      <c r="AE49" s="3"/>
-      <c r="AF49" s="4"/>
-      <c r="AL49" s="3"/>
-      <c r="AM49" s="4"/>
-      <c r="AS49" s="3"/>
-      <c r="AT49" s="4"/>
-      <c r="AZ49" s="3"/>
-      <c r="BA49" s="4"/>
-      <c r="BG49" s="3"/>
-      <c r="BH49" s="48"/>
-      <c r="BI49" s="45"/>
-      <c r="BJ49" s="45"/>
-      <c r="BK49" s="45"/>
-      <c r="BL49" s="45"/>
-      <c r="BM49" s="45"/>
-      <c r="BN49" s="52"/>
-      <c r="BO49" s="48"/>
-      <c r="BP49" s="45"/>
-      <c r="BQ49" s="45"/>
-      <c r="BR49" s="31"/>
-      <c r="BU49" s="3"/>
-      <c r="BV49" s="48"/>
-      <c r="CB49" s="3"/>
-      <c r="CC49" s="4"/>
-      <c r="CI49" s="3"/>
-      <c r="CJ49" s="4"/>
-      <c r="CP49" s="3"/>
-      <c r="CQ49" s="4"/>
-      <c r="CW49" s="3"/>
-      <c r="CX49" s="4"/>
-      <c r="DE49" s="22"/>
-      <c r="DK49" s="3"/>
-      <c r="DL49" s="4"/>
-      <c r="DR49" s="23"/>
-      <c r="DY49" s="3"/>
-      <c r="DZ49" s="4"/>
-      <c r="EF49" s="3"/>
-      <c r="EG49" s="4"/>
-      <c r="EM49" s="3"/>
-      <c r="EN49" s="4"/>
-      <c r="EP49" s="45"/>
-      <c r="ET49" s="3"/>
-      <c r="EU49" s="4"/>
-      <c r="FA49" s="3"/>
-      <c r="FB49" s="4"/>
-      <c r="FH49" s="3"/>
-      <c r="FI49" s="4"/>
-      <c r="FO49" s="3"/>
-      <c r="FP49" s="48"/>
-      <c r="FQ49" s="45"/>
-      <c r="FR49" s="45"/>
-      <c r="FS49" s="45"/>
-      <c r="FT49" s="45"/>
-      <c r="FU49" s="45"/>
-      <c r="FV49" s="52"/>
-      <c r="FW49" s="48"/>
-      <c r="FX49" s="45"/>
-      <c r="FY49" s="45"/>
-      <c r="FZ49" s="45"/>
-      <c r="GA49" s="45"/>
-      <c r="GB49" s="45"/>
-      <c r="GC49" s="52"/>
-      <c r="GD49" s="4"/>
-      <c r="GJ49" s="3"/>
-      <c r="GK49" s="4"/>
-      <c r="GQ49" s="3"/>
-      <c r="GR49" s="4"/>
-      <c r="GX49" s="3"/>
-      <c r="GY49" s="4"/>
-      <c r="HE49" s="3"/>
-      <c r="HF49" s="4"/>
-      <c r="HL49" s="3"/>
-      <c r="HM49" s="48"/>
-      <c r="HP49" s="31"/>
-      <c r="HR49" s="31"/>
-      <c r="HS49" s="3"/>
-      <c r="HT49" s="4"/>
-      <c r="IA49" s="22"/>
-      <c r="IG49" s="23"/>
-      <c r="IH49" s="22"/>
-      <c r="IM49" s="23"/>
-      <c r="IN49" s="22"/>
-      <c r="IT49" s="23"/>
-    </row>
-    <row r="50" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A50" s="37"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="4"/>
-      <c r="M50" s="45"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="4"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="4"/>
-      <c r="AE50" s="3"/>
-      <c r="AF50" s="4"/>
-      <c r="AL50" s="3"/>
-      <c r="AM50" s="4"/>
-      <c r="AS50" s="3"/>
-      <c r="AT50" s="4"/>
-      <c r="AZ50" s="3"/>
-      <c r="BA50" s="4"/>
-      <c r="BG50" s="3"/>
-      <c r="BH50" s="48"/>
-      <c r="BI50" s="45"/>
-      <c r="BJ50" s="45"/>
-      <c r="BK50" s="45"/>
-      <c r="BL50" s="45"/>
-      <c r="BM50" s="45"/>
-      <c r="BN50" s="52"/>
-      <c r="BO50" s="48"/>
-      <c r="BP50" s="45"/>
-      <c r="BQ50" s="45"/>
-      <c r="BR50" s="31"/>
-      <c r="BU50" s="3"/>
-      <c r="BV50" s="48"/>
-      <c r="CB50" s="3"/>
-      <c r="CC50" s="4"/>
-      <c r="CI50" s="3"/>
-      <c r="CJ50" s="4"/>
-      <c r="CP50" s="3"/>
-      <c r="CQ50" s="4"/>
-      <c r="CW50" s="3"/>
-      <c r="CX50" s="4"/>
-      <c r="DE50" s="22"/>
-      <c r="DK50" s="3"/>
-      <c r="DL50" s="4"/>
-      <c r="DR50" s="23"/>
-      <c r="DY50" s="3"/>
-      <c r="DZ50" s="4"/>
-      <c r="EF50" s="3"/>
-      <c r="EG50" s="4"/>
-      <c r="EM50" s="3"/>
-      <c r="EN50" s="4"/>
-      <c r="EP50" s="45"/>
-      <c r="ET50" s="3"/>
-      <c r="EU50" s="4"/>
-      <c r="FA50" s="3"/>
-      <c r="FB50" s="4"/>
-      <c r="FH50" s="3"/>
-      <c r="FI50" s="4"/>
-      <c r="FO50" s="3"/>
-      <c r="FP50" s="48"/>
-      <c r="FQ50" s="45"/>
-      <c r="FR50" s="45"/>
-      <c r="FS50" s="45"/>
-      <c r="FT50" s="45"/>
-      <c r="FU50" s="45"/>
-      <c r="FV50" s="52"/>
-      <c r="FW50" s="48"/>
-      <c r="FX50" s="45"/>
-      <c r="FY50" s="45"/>
-      <c r="FZ50" s="45"/>
-      <c r="GA50" s="45"/>
-      <c r="GB50" s="45"/>
-      <c r="GC50" s="52"/>
-      <c r="GD50" s="4"/>
-      <c r="GJ50" s="3"/>
-      <c r="GK50" s="4"/>
-      <c r="GQ50" s="3"/>
-      <c r="GR50" s="4"/>
-      <c r="GX50" s="3"/>
-      <c r="GY50" s="4"/>
-      <c r="HE50" s="3"/>
-      <c r="HF50" s="4"/>
-      <c r="HL50" s="3"/>
-      <c r="HM50" s="48"/>
-      <c r="HP50" s="31"/>
-      <c r="HR50" s="31"/>
-      <c r="HS50" s="3"/>
-      <c r="HT50" s="4"/>
-      <c r="IA50" s="22"/>
-      <c r="IG50" s="23"/>
-      <c r="IH50" s="22"/>
-      <c r="IM50" s="23"/>
-      <c r="IN50" s="22"/>
-      <c r="IT50" s="23"/>
-    </row>
-    <row r="51" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A51" s="37"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="4"/>
-      <c r="M51" s="45"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="4"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="4"/>
-      <c r="AE51" s="3"/>
-      <c r="AF51" s="4"/>
-      <c r="AL51" s="3"/>
-      <c r="AM51" s="4"/>
-      <c r="AS51" s="3"/>
-      <c r="AT51" s="4"/>
-      <c r="AZ51" s="3"/>
-      <c r="BA51" s="4"/>
-      <c r="BG51" s="3"/>
-      <c r="BH51" s="48"/>
-      <c r="BI51" s="45"/>
-      <c r="BJ51" s="45"/>
-      <c r="BK51" s="45"/>
-      <c r="BL51" s="45"/>
-      <c r="BM51" s="45"/>
-      <c r="BN51" s="52"/>
-      <c r="BO51" s="48"/>
-      <c r="BP51" s="45"/>
-      <c r="BQ51" s="45"/>
-      <c r="BR51" s="31"/>
-      <c r="BU51" s="3"/>
-      <c r="BV51" s="48"/>
-      <c r="CB51" s="3"/>
-      <c r="CC51" s="4"/>
-      <c r="CI51" s="3"/>
-      <c r="CJ51" s="4"/>
-      <c r="CP51" s="3"/>
-      <c r="CQ51" s="4"/>
-      <c r="CW51" s="3"/>
-      <c r="CX51" s="4"/>
-      <c r="DE51" s="22"/>
-      <c r="DK51" s="3"/>
-      <c r="DL51" s="4"/>
-      <c r="DR51" s="23"/>
-      <c r="DY51" s="3"/>
-      <c r="DZ51" s="4"/>
-      <c r="EF51" s="3"/>
-      <c r="EG51" s="4"/>
-      <c r="EM51" s="3"/>
-      <c r="EN51" s="4"/>
-      <c r="EP51" s="45"/>
-      <c r="ET51" s="3"/>
-      <c r="EU51" s="4"/>
-      <c r="FA51" s="3"/>
-      <c r="FB51" s="4"/>
-      <c r="FH51" s="3"/>
-      <c r="FI51" s="4"/>
-      <c r="FO51" s="3"/>
-      <c r="FP51" s="48"/>
-      <c r="FQ51" s="45"/>
-      <c r="FR51" s="45"/>
-      <c r="FS51" s="45"/>
-      <c r="FT51" s="45"/>
-      <c r="FU51" s="45"/>
-      <c r="FV51" s="52"/>
-      <c r="FW51" s="48"/>
-      <c r="FX51" s="45"/>
-      <c r="FY51" s="45"/>
-      <c r="FZ51" s="45"/>
-      <c r="GA51" s="45"/>
-      <c r="GB51" s="45"/>
-      <c r="GC51" s="52"/>
-      <c r="GD51" s="4"/>
-      <c r="GJ51" s="3"/>
-      <c r="GK51" s="4"/>
-      <c r="GQ51" s="3"/>
-      <c r="GR51" s="4"/>
-      <c r="GX51" s="3"/>
-      <c r="GY51" s="4"/>
-      <c r="HE51" s="3"/>
-      <c r="HF51" s="4"/>
-      <c r="HL51" s="3"/>
-      <c r="HM51" s="48"/>
-      <c r="HP51" s="31"/>
-      <c r="HR51" s="31"/>
-      <c r="HS51" s="3"/>
-      <c r="HT51" s="4"/>
-      <c r="IA51" s="22"/>
-      <c r="IG51" s="23"/>
-      <c r="IH51" s="22"/>
-      <c r="IM51" s="23"/>
-      <c r="IN51" s="22"/>
-      <c r="IT51" s="23"/>
-    </row>
-    <row r="52" spans="1:254" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="37"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="7"/>
-      <c r="AB52" s="7"/>
-      <c r="AC52" s="7"/>
-      <c r="AD52" s="7"/>
-      <c r="AE52" s="8"/>
-      <c r="AF52" s="6"/>
-      <c r="AG52" s="7"/>
-      <c r="AH52" s="7"/>
-      <c r="AI52" s="7"/>
-      <c r="AJ52" s="7"/>
-      <c r="AK52" s="7"/>
-      <c r="AL52" s="8"/>
-      <c r="AM52" s="6"/>
-      <c r="AN52" s="7"/>
-      <c r="AO52" s="7"/>
-      <c r="AP52" s="7"/>
-      <c r="AQ52" s="7"/>
-      <c r="AR52" s="7"/>
-      <c r="AS52" s="8"/>
-      <c r="AT52" s="6"/>
-      <c r="AU52" s="7"/>
-      <c r="AV52" s="7"/>
-      <c r="AW52" s="7"/>
-      <c r="AX52" s="7"/>
-      <c r="AY52" s="7"/>
-      <c r="AZ52" s="8"/>
-      <c r="BA52" s="6"/>
-      <c r="BB52" s="7"/>
-      <c r="BC52" s="7"/>
-      <c r="BD52" s="7"/>
-      <c r="BE52" s="7"/>
-      <c r="BF52" s="7"/>
-      <c r="BG52" s="8"/>
-      <c r="BH52" s="49"/>
-      <c r="BI52" s="46"/>
-      <c r="BJ52" s="46"/>
-      <c r="BK52" s="46"/>
-      <c r="BL52" s="46"/>
-      <c r="BM52" s="46"/>
-      <c r="BN52" s="53"/>
-      <c r="BO52" s="49"/>
-      <c r="BP52" s="46"/>
-      <c r="BQ52" s="46"/>
-      <c r="BR52" s="32"/>
-      <c r="BS52" s="7"/>
-      <c r="BT52" s="7"/>
-      <c r="BU52" s="8"/>
-      <c r="BV52" s="49"/>
-      <c r="BW52" s="7"/>
-      <c r="BX52" s="7"/>
-      <c r="BY52" s="7"/>
-      <c r="BZ52" s="7"/>
-      <c r="CA52" s="7"/>
-      <c r="CB52" s="8"/>
-      <c r="CC52" s="6"/>
-      <c r="CD52" s="7"/>
-      <c r="CE52" s="7"/>
-      <c r="CF52" s="7"/>
-      <c r="CG52" s="7"/>
-      <c r="CH52" s="7"/>
-      <c r="CI52" s="8"/>
-      <c r="CJ52" s="6"/>
-      <c r="CK52" s="7"/>
-      <c r="CL52" s="7"/>
-      <c r="CM52" s="7"/>
-      <c r="CN52" s="7"/>
-      <c r="CO52" s="7"/>
-      <c r="CP52" s="8"/>
-      <c r="CQ52" s="6"/>
-      <c r="CR52" s="7"/>
-      <c r="CS52" s="7"/>
-      <c r="CT52" s="7"/>
-      <c r="CU52" s="7"/>
-      <c r="CV52" s="7"/>
-      <c r="CW52" s="8"/>
-      <c r="CX52" s="6"/>
-      <c r="CY52" s="7"/>
-      <c r="CZ52" s="7"/>
-      <c r="DA52" s="7"/>
-      <c r="DB52" s="7"/>
-      <c r="DC52" s="7"/>
-      <c r="DD52" s="7"/>
-      <c r="DE52" s="24"/>
-      <c r="DF52" s="25"/>
-      <c r="DG52" s="25"/>
-      <c r="DH52" s="25"/>
-      <c r="DI52" s="25"/>
-      <c r="DJ52" s="25"/>
-      <c r="DK52" s="27"/>
-      <c r="DL52" s="28"/>
-      <c r="DM52" s="25"/>
-      <c r="DN52" s="25"/>
-      <c r="DO52" s="25"/>
-      <c r="DP52" s="25"/>
-      <c r="DQ52" s="25"/>
-      <c r="DR52" s="26"/>
-      <c r="DS52" s="7"/>
-      <c r="DT52" s="7"/>
-      <c r="DU52" s="7"/>
-      <c r="DV52" s="7"/>
-      <c r="DW52" s="7"/>
-      <c r="DX52" s="7"/>
-      <c r="DY52" s="8"/>
-      <c r="DZ52" s="6"/>
-      <c r="EA52" s="7"/>
-      <c r="EB52" s="7"/>
-      <c r="EC52" s="7"/>
-      <c r="ED52" s="7"/>
-      <c r="EE52" s="7"/>
-      <c r="EF52" s="8"/>
-      <c r="EG52" s="6"/>
-      <c r="EH52" s="7"/>
-      <c r="EI52" s="7"/>
-      <c r="EJ52" s="7"/>
-      <c r="EK52" s="7"/>
-      <c r="EL52" s="7"/>
-      <c r="EM52" s="8"/>
-      <c r="EN52" s="6"/>
-      <c r="EO52" s="7"/>
-      <c r="EP52" s="46"/>
-      <c r="EQ52" s="7"/>
-      <c r="ER52" s="7"/>
-      <c r="ES52" s="7"/>
-      <c r="ET52" s="8"/>
-      <c r="EU52" s="6"/>
-      <c r="EV52" s="7"/>
-      <c r="EW52" s="7"/>
-      <c r="EX52" s="7"/>
-      <c r="EY52" s="7"/>
-      <c r="EZ52" s="7"/>
-      <c r="FA52" s="8"/>
-      <c r="FB52" s="6"/>
-      <c r="FC52" s="7"/>
-      <c r="FD52" s="7"/>
-      <c r="FE52" s="7"/>
-      <c r="FF52" s="7"/>
-      <c r="FG52" s="7"/>
-      <c r="FH52" s="8"/>
-      <c r="FI52" s="6"/>
-      <c r="FJ52" s="7"/>
-      <c r="FK52" s="7"/>
-      <c r="FL52" s="7"/>
-      <c r="FM52" s="7"/>
-      <c r="FN52" s="7"/>
-      <c r="FO52" s="8"/>
-      <c r="FP52" s="49"/>
-      <c r="FQ52" s="46"/>
-      <c r="FR52" s="46"/>
-      <c r="FS52" s="46"/>
-      <c r="FT52" s="46"/>
-      <c r="FU52" s="46"/>
-      <c r="FV52" s="53"/>
-      <c r="FW52" s="49"/>
-      <c r="FX52" s="46"/>
-      <c r="FY52" s="46"/>
-      <c r="FZ52" s="46"/>
-      <c r="GA52" s="46"/>
-      <c r="GB52" s="46"/>
-      <c r="GC52" s="53"/>
-      <c r="GD52" s="6"/>
-      <c r="GE52" s="7"/>
-      <c r="GF52" s="7"/>
-      <c r="GG52" s="7"/>
-      <c r="GH52" s="7"/>
-      <c r="GI52" s="7"/>
-      <c r="GJ52" s="8"/>
-      <c r="GK52" s="6"/>
-      <c r="GL52" s="7"/>
-      <c r="GM52" s="7"/>
-      <c r="GN52" s="7"/>
-      <c r="GO52" s="7"/>
-      <c r="GP52" s="7"/>
-      <c r="GQ52" s="8"/>
-      <c r="GR52" s="6"/>
-      <c r="GS52" s="7"/>
-      <c r="GT52" s="7"/>
-      <c r="GU52" s="7"/>
-      <c r="GV52" s="7"/>
-      <c r="GW52" s="7"/>
-      <c r="GX52" s="8"/>
-      <c r="GY52" s="6"/>
-      <c r="GZ52" s="7"/>
-      <c r="HA52" s="7"/>
-      <c r="HB52" s="7"/>
-      <c r="HC52" s="7"/>
-      <c r="HD52" s="7"/>
-      <c r="HE52" s="8"/>
-      <c r="HF52" s="6"/>
-      <c r="HG52" s="7"/>
-      <c r="HH52" s="7"/>
-      <c r="HI52" s="7"/>
-      <c r="HJ52" s="7"/>
-      <c r="HK52" s="7"/>
-      <c r="HL52" s="8"/>
-      <c r="HM52" s="49"/>
-      <c r="HN52" s="7"/>
-      <c r="HO52" s="7"/>
-      <c r="HP52" s="32"/>
-      <c r="HQ52" s="7"/>
-      <c r="HR52" s="32"/>
-      <c r="HS52" s="8"/>
-      <c r="HT52" s="6"/>
-      <c r="HU52" s="7"/>
-      <c r="HV52" s="7"/>
-      <c r="HW52" s="7"/>
-      <c r="HX52" s="7"/>
-      <c r="HY52" s="7"/>
-      <c r="HZ52" s="7"/>
-      <c r="IA52" s="24"/>
-      <c r="IB52" s="25"/>
-      <c r="IC52" s="25"/>
-      <c r="ID52" s="25"/>
-      <c r="IE52" s="25"/>
-      <c r="IF52" s="25"/>
-      <c r="IG52" s="26"/>
-      <c r="IH52" s="24"/>
-      <c r="II52" s="25"/>
-      <c r="IJ52" s="25"/>
-      <c r="IK52" s="25"/>
-      <c r="IL52" s="25"/>
-      <c r="IM52" s="26"/>
-      <c r="IN52" s="24"/>
-      <c r="IO52" s="25"/>
-      <c r="IP52" s="25"/>
-      <c r="IQ52" s="25"/>
-      <c r="IR52" s="25"/>
-      <c r="IS52" s="25"/>
-      <c r="IT52" s="26"/>
-    </row>
-    <row r="53" spans="1:254" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:254" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="EG3:EM3"/>
-    <mergeCell ref="HM3:HS3"/>
-    <mergeCell ref="HF3:HL3"/>
-    <mergeCell ref="GY3:HE3"/>
-    <mergeCell ref="GI2:HL2"/>
-    <mergeCell ref="GK3:GQ3"/>
-    <mergeCell ref="GR3:GX3"/>
-    <mergeCell ref="CJ3:CP3"/>
-    <mergeCell ref="CQ3:CW3"/>
-    <mergeCell ref="CX3:DD3"/>
-    <mergeCell ref="DE3:DK3"/>
-    <mergeCell ref="DL3:DR3"/>
+    <mergeCell ref="IA3:IG3"/>
+    <mergeCell ref="IN3:IT3"/>
+    <mergeCell ref="HM2:IQ2"/>
+    <mergeCell ref="IR2:IT2"/>
+    <mergeCell ref="CW2:EA2"/>
+    <mergeCell ref="DZ3:EF3"/>
+    <mergeCell ref="DS3:DY3"/>
+    <mergeCell ref="FW3:GC3"/>
+    <mergeCell ref="FD2:GH2"/>
+    <mergeCell ref="FP3:FV3"/>
+    <mergeCell ref="FI3:FO3"/>
+    <mergeCell ref="FB3:FH3"/>
+    <mergeCell ref="EB2:FC2"/>
+    <mergeCell ref="GD3:GJ3"/>
+    <mergeCell ref="EU3:FA3"/>
+    <mergeCell ref="EN3:ET3"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:AM2"/>
     <mergeCell ref="BR2:CV2"/>
@@ -7818,22 +7408,20 @@
     <mergeCell ref="AT3:AZ3"/>
     <mergeCell ref="BA3:BG3"/>
     <mergeCell ref="CC3:CI3"/>
-    <mergeCell ref="IA3:IG3"/>
-    <mergeCell ref="IN3:IT3"/>
-    <mergeCell ref="HM2:IQ2"/>
-    <mergeCell ref="IR2:IT2"/>
-    <mergeCell ref="CW2:EA2"/>
-    <mergeCell ref="DZ3:EF3"/>
-    <mergeCell ref="DS3:DY3"/>
-    <mergeCell ref="FW3:GC3"/>
-    <mergeCell ref="FD2:GH2"/>
-    <mergeCell ref="FP3:FV3"/>
-    <mergeCell ref="FI3:FO3"/>
-    <mergeCell ref="FB3:FH3"/>
-    <mergeCell ref="EB2:FC2"/>
-    <mergeCell ref="GD3:GJ3"/>
-    <mergeCell ref="EU3:FA3"/>
-    <mergeCell ref="EN3:ET3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="EG3:EM3"/>
+    <mergeCell ref="HM3:HS3"/>
+    <mergeCell ref="HF3:HL3"/>
+    <mergeCell ref="GY3:HE3"/>
+    <mergeCell ref="GI2:HL2"/>
+    <mergeCell ref="GK3:GQ3"/>
+    <mergeCell ref="GR3:GX3"/>
+    <mergeCell ref="CJ3:CP3"/>
+    <mergeCell ref="CQ3:CW3"/>
+    <mergeCell ref="CX3:DD3"/>
+    <mergeCell ref="DE3:DK3"/>
+    <mergeCell ref="DL3:DR3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
